--- a/src/main/resources/template/termit-import.xlsx
+++ b/src/main/resources/template/termit-import.xlsx
@@ -130,10 +130,10 @@
 - To add translations in another language, copy the "English" sheet and label it using the name of the language the sheet will represent</t>
   </si>
   <si>
-    <t xml:space="preserve">- Rodičovské pojmy musí být deklarovány před svými potomky</t>
+    <t xml:space="preserve">- Pro jiné jazyky než češtinu a angličtinu použijte anglické názvy sloupců</t>
   </si>
   <si>
-    <t xml:space="preserve">- Parent terms must be declared before their children</t>
+    <t xml:space="preserve">- Use English column labels for sheets in languages other than Czech and English</t>
   </si>
 </sst>
 </file>
@@ -272,10 +272,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.25"/>
@@ -17345,7 +17345,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
@@ -34412,10 +34412,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="75.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.37"/>

--- a/src/main/resources/template/termit-import.xlsx
+++ b/src/main/resources/template/termit-import.xlsx
@@ -120,12 +120,12 @@
     <t xml:space="preserve">Manual</t>
   </si>
   <si>
-    <t xml:space="preserve">- Pro vícehodnotové položky použijte jako oddělovač čárku (,)
+    <t xml:space="preserve">- Pro vícehodnotové položky použijte jako oddělovač středník (;)
 - Pro referencování jiných pojmů použijte jejich název (např. související pojmy, pojmy se stejným významem)
 - Pro přidání dalšího jazyka zkopírujte sheet "English" a pojmenujte ho názvem jazyku, který daný sheet reprezentuje</t>
   </si>
   <si>
-    <t xml:space="preserve">- Use comma (,) to separate values in multi-valued attributes
+    <t xml:space="preserve">- Use a semicolon (;) to separate values in multi-valued attributes
 - Use labels of terms you want to reference (e.g., related terms, exact matches)
 - To add translations in another language, copy the "English" sheet and label it using the name of the language the sheet will represent</t>
   </si>
@@ -272,7 +272,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.27"/>
@@ -17345,7 +17345,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
@@ -34412,10 +34412,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="75.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.37"/>
@@ -34430,7 +34430,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>

--- a/src/main/resources/template/termit-import.xlsx
+++ b/src/main/resources/template/termit-import.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Název</t>
   </si>
@@ -78,9 +78,6 @@
     <t xml:space="preserve">Scope note</t>
   </si>
   <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">Related terms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
   </si>
   <si>
     <t xml:space="preserve">Notation</t>
@@ -260,7 +254,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.27"/>
@@ -15322,19 +15316,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15371,12 +15365,6 @@
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
@@ -15390,8 +15378,6 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -15405,8 +15391,6 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
@@ -15420,8 +15404,6 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
@@ -15435,8 +15417,6 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
@@ -15450,8 +15430,6 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
@@ -15465,8 +15443,6 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
@@ -15480,8 +15456,6 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -15495,8 +15469,6 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
@@ -15510,8 +15482,6 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
@@ -15525,8 +15495,6 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
@@ -15540,8 +15508,6 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
@@ -15555,8 +15521,6 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
@@ -15570,8 +15534,6 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
@@ -15585,8 +15547,6 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
@@ -15600,8 +15560,6 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
@@ -15615,8 +15573,6 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
@@ -15630,8 +15586,6 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
@@ -15645,8 +15599,6 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
@@ -15660,8 +15612,6 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
@@ -15675,8 +15625,6 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
@@ -15690,8 +15638,6 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
@@ -15705,8 +15651,6 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
@@ -15720,8 +15664,6 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
@@ -15735,8 +15677,6 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
@@ -15750,8 +15690,6 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
@@ -15765,8 +15703,6 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
@@ -15780,8 +15716,6 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
@@ -15795,8 +15729,6 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
@@ -15810,8 +15742,6 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
@@ -15825,8 +15755,6 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
@@ -15840,8 +15768,6 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
@@ -15855,8 +15781,6 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
@@ -15870,8 +15794,6 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
@@ -15885,8 +15807,6 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
@@ -15900,8 +15820,6 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
@@ -15915,8 +15833,6 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
@@ -15930,8 +15846,6 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
@@ -15945,8 +15859,6 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
@@ -15960,8 +15872,6 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
@@ -15975,8 +15885,6 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
@@ -15990,8 +15898,6 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
@@ -16005,8 +15911,6 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
@@ -16020,8 +15924,6 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
@@ -16035,8 +15937,6 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
@@ -16050,8 +15950,6 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
@@ -16065,8 +15963,6 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
@@ -16080,8 +15976,6 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
@@ -16095,8 +15989,6 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
@@ -16110,8 +16002,6 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
@@ -16125,8 +16015,6 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
@@ -16140,8 +16028,6 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
@@ -16155,8 +16041,6 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
@@ -16170,8 +16054,6 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
@@ -16185,8 +16067,6 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
@@ -16200,8 +16080,6 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
@@ -16215,8 +16093,6 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
@@ -16230,8 +16106,6 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
@@ -16245,8 +16119,6 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
@@ -16260,8 +16132,6 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
@@ -16275,8 +16145,6 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
@@ -16290,8 +16158,6 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
@@ -16305,8 +16171,6 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
@@ -16320,8 +16184,6 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
@@ -16335,8 +16197,6 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
@@ -16350,8 +16210,6 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
@@ -16365,8 +16223,6 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
@@ -16380,8 +16236,6 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
@@ -16395,8 +16249,6 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
@@ -16410,8 +16262,6 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
@@ -16425,8 +16275,6 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
@@ -16440,8 +16288,6 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
@@ -16455,8 +16301,6 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
@@ -16470,8 +16314,6 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
@@ -16485,8 +16327,6 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
@@ -16500,8 +16340,6 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
@@ -16515,8 +16353,6 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
@@ -16530,8 +16366,6 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
@@ -16545,8 +16379,6 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
@@ -16560,8 +16392,6 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
@@ -16575,8 +16405,6 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
@@ -16590,8 +16418,6 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
@@ -16605,8 +16431,6 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
@@ -16620,8 +16444,6 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
@@ -16635,8 +16457,6 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
@@ -16650,8 +16470,6 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
@@ -16665,8 +16483,6 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
@@ -16680,8 +16496,6 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
@@ -16695,8 +16509,6 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
@@ -16710,8 +16522,6 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
@@ -16725,8 +16535,6 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
@@ -16740,8 +16548,6 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
@@ -16755,8 +16561,6 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
@@ -16770,8 +16574,6 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
@@ -16785,8 +16587,6 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
@@ -16800,8 +16600,6 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
@@ -16815,8 +16613,6 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
@@ -16830,8 +16626,6 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
@@ -16845,8 +16639,6 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
@@ -16860,8 +16652,6 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
@@ -16875,8 +16665,6 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
@@ -16890,8 +16678,6 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
@@ -16905,8 +16691,6 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
@@ -16920,8 +16704,6 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
@@ -16935,8 +16717,6 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
@@ -16950,8 +16730,6 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
@@ -16965,8 +16743,6 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
@@ -16980,8 +16756,6 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
@@ -16995,8 +16769,6 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
@@ -17010,8 +16782,6 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
@@ -17025,8 +16795,6 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
@@ -17040,8 +16808,6 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
@@ -17055,8 +16821,6 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
@@ -17070,8 +16834,6 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
@@ -17085,8 +16847,6 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
@@ -17100,8 +16860,6 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
@@ -17115,8 +16873,6 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
@@ -17130,8 +16886,6 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
@@ -17145,8 +16899,6 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
@@ -17160,8 +16912,6 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
@@ -17175,8 +16925,6 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
@@ -17190,8 +16938,6 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
@@ -17205,8 +16951,6 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
@@ -17220,8 +16964,6 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
@@ -17235,8 +16977,6 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
@@ -17250,8 +16990,6 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
@@ -17265,8 +17003,6 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
@@ -17280,8 +17016,6 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2"/>
@@ -17295,8 +17029,6 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
@@ -17310,8 +17042,6 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
@@ -17325,8 +17055,6 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2"/>
@@ -17340,8 +17068,6 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2"/>
@@ -17355,8 +17081,6 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
@@ -17370,8 +17094,6 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2"/>
@@ -17385,8 +17107,6 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
@@ -17400,8 +17120,6 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
@@ -17415,8 +17133,6 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2"/>
@@ -17430,8 +17146,6 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2"/>
@@ -17445,8 +17159,6 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2"/>
@@ -17460,8 +17172,6 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2"/>
@@ -17475,8 +17185,6 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2"/>
@@ -17490,8 +17198,6 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
@@ -17505,8 +17211,6 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2"/>
@@ -17520,8 +17224,6 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2"/>
@@ -17535,8 +17237,6 @@
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2"/>
@@ -17550,8 +17250,6 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2"/>
@@ -17565,8 +17263,6 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2"/>
@@ -17580,8 +17276,6 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2"/>
@@ -17595,8 +17289,6 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2"/>
@@ -17610,8 +17302,6 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2"/>
@@ -17625,8 +17315,6 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2"/>
@@ -17640,8 +17328,6 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2"/>
@@ -17655,8 +17341,6 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2"/>
@@ -17670,8 +17354,6 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2"/>
@@ -17685,8 +17367,6 @@
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
-      <c r="M155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2"/>
@@ -17700,8 +17380,6 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2"/>
@@ -17715,8 +17393,6 @@
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2"/>
@@ -17730,8 +17406,6 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2"/>
@@ -17745,8 +17419,6 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2"/>
@@ -17760,8 +17432,6 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
-      <c r="M160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2"/>
@@ -17775,8 +17445,6 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2"/>
@@ -17790,8 +17458,6 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
@@ -17805,8 +17471,6 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
@@ -17820,8 +17484,6 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2"/>
@@ -17835,8 +17497,6 @@
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2"/>
@@ -17850,8 +17510,6 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
@@ -17865,8 +17523,6 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
@@ -17880,8 +17536,6 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2"/>
@@ -17895,8 +17549,6 @@
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2"/>
@@ -17910,8 +17562,6 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2"/>
@@ -17925,8 +17575,6 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2"/>
@@ -17940,8 +17588,6 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2"/>
@@ -17955,8 +17601,6 @@
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2"/>
@@ -17970,8 +17614,6 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2"/>
@@ -17985,8 +17627,6 @@
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2"/>
@@ -18000,8 +17640,6 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2"/>
@@ -18015,8 +17653,6 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
@@ -18030,8 +17666,6 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
@@ -18045,8 +17679,6 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2"/>
@@ -18060,8 +17692,6 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2"/>
@@ -18075,8 +17705,6 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
-      <c r="M181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
@@ -18090,8 +17718,6 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2"/>
@@ -18105,8 +17731,6 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
-      <c r="M183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2"/>
@@ -18120,8 +17744,6 @@
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
@@ -18135,8 +17757,6 @@
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
-      <c r="M185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2"/>
@@ -18150,8 +17770,6 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
-      <c r="M186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2"/>
@@ -18165,8 +17783,6 @@
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
-      <c r="M187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2"/>
@@ -18180,8 +17796,6 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2"/>
@@ -18195,8 +17809,6 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
-      <c r="M189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2"/>
@@ -18210,8 +17822,6 @@
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2"/>
@@ -18225,8 +17835,6 @@
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2"/>
@@ -18240,8 +17848,6 @@
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
-      <c r="M192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
@@ -18255,8 +17861,6 @@
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2"/>
@@ -18270,8 +17874,6 @@
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
-      <c r="M194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2"/>
@@ -18285,8 +17887,6 @@
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
-      <c r="M195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2"/>
@@ -18300,8 +17900,6 @@
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
-      <c r="M196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2"/>
@@ -18315,8 +17913,6 @@
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
-      <c r="L197" s="2"/>
-      <c r="M197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2"/>
@@ -18330,8 +17926,6 @@
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
-      <c r="M198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2"/>
@@ -18345,8 +17939,6 @@
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
-      <c r="M199" s="2"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2"/>
@@ -18360,8 +17952,6 @@
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2"/>
@@ -18375,8 +17965,6 @@
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
-      <c r="M201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2"/>
@@ -18390,8 +17978,6 @@
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
-      <c r="L202" s="2"/>
-      <c r="M202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2"/>
@@ -18405,8 +17991,6 @@
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2"/>
@@ -18420,8 +18004,6 @@
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2"/>
@@ -18435,8 +18017,6 @@
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-      <c r="M205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2"/>
@@ -18450,8 +18030,6 @@
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
-      <c r="M206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2"/>
@@ -18465,8 +18043,6 @@
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
-      <c r="L207" s="2"/>
-      <c r="M207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2"/>
@@ -18480,8 +18056,6 @@
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2"/>
@@ -18495,8 +18069,6 @@
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2"/>
@@ -18510,8 +18082,6 @@
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2"/>
@@ -18525,8 +18095,6 @@
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2"/>
@@ -18540,8 +18108,6 @@
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2"/>
@@ -18555,8 +18121,6 @@
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2"/>
@@ -18570,8 +18134,6 @@
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2"/>
@@ -18585,8 +18147,6 @@
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2"/>
@@ -18600,8 +18160,6 @@
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2"/>
@@ -18615,8 +18173,6 @@
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2"/>
@@ -18630,8 +18186,6 @@
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2"/>
@@ -18645,8 +18199,6 @@
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2"/>
@@ -18660,8 +18212,6 @@
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2"/>
@@ -18675,8 +18225,6 @@
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
-      <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
@@ -18690,8 +18238,6 @@
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
-      <c r="M222" s="2"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2"/>
@@ -18705,8 +18251,6 @@
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
-      <c r="L223" s="2"/>
-      <c r="M223" s="2"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2"/>
@@ -18720,8 +18264,6 @@
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
-      <c r="M224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2"/>
@@ -18735,8 +18277,6 @@
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
-      <c r="L225" s="2"/>
-      <c r="M225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2"/>
@@ -18750,8 +18290,6 @@
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2"/>
@@ -18765,8 +18303,6 @@
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2"/>
@@ -18780,8 +18316,6 @@
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
-      <c r="M228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2"/>
@@ -18795,8 +18329,6 @@
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
-      <c r="L229" s="2"/>
-      <c r="M229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2"/>
@@ -18810,8 +18342,6 @@
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2"/>
@@ -18825,8 +18355,6 @@
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="M231" s="2"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
@@ -18840,8 +18368,6 @@
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2"/>
@@ -18855,8 +18381,6 @@
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="M233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2"/>
@@ -18870,8 +18394,6 @@
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2"/>
@@ -18885,8 +18407,6 @@
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="M235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2"/>
@@ -18900,8 +18420,6 @@
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
-      <c r="L236" s="2"/>
-      <c r="M236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2"/>
@@ -18915,8 +18433,6 @@
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
-      <c r="L237" s="2"/>
-      <c r="M237" s="2"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2"/>
@@ -18930,8 +18446,6 @@
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
-      <c r="L238" s="2"/>
-      <c r="M238" s="2"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2"/>
@@ -18945,8 +18459,6 @@
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="2"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2"/>
@@ -18960,8 +18472,6 @@
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
-      <c r="M240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2"/>
@@ -18975,8 +18485,6 @@
       <c r="I241" s="2"/>
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
-      <c r="L241" s="2"/>
-      <c r="M241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2"/>
@@ -18990,8 +18498,6 @@
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
-      <c r="L242" s="2"/>
-      <c r="M242" s="2"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2"/>
@@ -19005,8 +18511,6 @@
       <c r="I243" s="2"/>
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
-      <c r="L243" s="2"/>
-      <c r="M243" s="2"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2"/>
@@ -19020,8 +18524,6 @@
       <c r="I244" s="2"/>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
-      <c r="L244" s="2"/>
-      <c r="M244" s="2"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2"/>
@@ -19035,8 +18537,6 @@
       <c r="I245" s="2"/>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
-      <c r="L245" s="2"/>
-      <c r="M245" s="2"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2"/>
@@ -19050,8 +18550,6 @@
       <c r="I246" s="2"/>
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2"/>
@@ -19065,8 +18563,6 @@
       <c r="I247" s="2"/>
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
-      <c r="L247" s="2"/>
-      <c r="M247" s="2"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="2"/>
@@ -19080,8 +18576,6 @@
       <c r="I248" s="2"/>
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
-      <c r="L248" s="2"/>
-      <c r="M248" s="2"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2"/>
@@ -19095,8 +18589,6 @@
       <c r="I249" s="2"/>
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
-      <c r="L249" s="2"/>
-      <c r="M249" s="2"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="2"/>
@@ -19110,8 +18602,6 @@
       <c r="I250" s="2"/>
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
-      <c r="L250" s="2"/>
-      <c r="M250" s="2"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2"/>
@@ -19125,8 +18615,6 @@
       <c r="I251" s="2"/>
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
-      <c r="L251" s="2"/>
-      <c r="M251" s="2"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="2"/>
@@ -19140,8 +18628,6 @@
       <c r="I252" s="2"/>
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
-      <c r="L252" s="2"/>
-      <c r="M252" s="2"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="2"/>
@@ -19155,8 +18641,6 @@
       <c r="I253" s="2"/>
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
-      <c r="L253" s="2"/>
-      <c r="M253" s="2"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="2"/>
@@ -19170,8 +18654,6 @@
       <c r="I254" s="2"/>
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
-      <c r="L254" s="2"/>
-      <c r="M254" s="2"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="2"/>
@@ -19185,8 +18667,6 @@
       <c r="I255" s="2"/>
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
-      <c r="L255" s="2"/>
-      <c r="M255" s="2"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="2"/>
@@ -19200,8 +18680,6 @@
       <c r="I256" s="2"/>
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
-      <c r="L256" s="2"/>
-      <c r="M256" s="2"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2"/>
@@ -19215,8 +18693,6 @@
       <c r="I257" s="2"/>
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
-      <c r="L257" s="2"/>
-      <c r="M257" s="2"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2"/>
@@ -19230,8 +18706,6 @@
       <c r="I258" s="2"/>
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
-      <c r="L258" s="2"/>
-      <c r="M258" s="2"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2"/>
@@ -19245,8 +18719,6 @@
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
-      <c r="L259" s="2"/>
-      <c r="M259" s="2"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2"/>
@@ -19260,8 +18732,6 @@
       <c r="I260" s="2"/>
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
-      <c r="L260" s="2"/>
-      <c r="M260" s="2"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2"/>
@@ -19275,8 +18745,6 @@
       <c r="I261" s="2"/>
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
-      <c r="L261" s="2"/>
-      <c r="M261" s="2"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2"/>
@@ -19290,8 +18758,6 @@
       <c r="I262" s="2"/>
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
-      <c r="L262" s="2"/>
-      <c r="M262" s="2"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2"/>
@@ -19305,8 +18771,6 @@
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
-      <c r="M263" s="2"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2"/>
@@ -19320,8 +18784,6 @@
       <c r="I264" s="2"/>
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
-      <c r="L264" s="2"/>
-      <c r="M264" s="2"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="2"/>
@@ -19335,8 +18797,6 @@
       <c r="I265" s="2"/>
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
-      <c r="L265" s="2"/>
-      <c r="M265" s="2"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2"/>
@@ -19350,8 +18810,6 @@
       <c r="I266" s="2"/>
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
-      <c r="M266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2"/>
@@ -19365,8 +18823,6 @@
       <c r="I267" s="2"/>
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
-      <c r="M267" s="2"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="2"/>
@@ -19380,8 +18836,6 @@
       <c r="I268" s="2"/>
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="2"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2"/>
@@ -19395,8 +18849,6 @@
       <c r="I269" s="2"/>
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
-      <c r="L269" s="2"/>
-      <c r="M269" s="2"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="2"/>
@@ -19410,8 +18862,6 @@
       <c r="I270" s="2"/>
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
-      <c r="L270" s="2"/>
-      <c r="M270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2"/>
@@ -19425,8 +18875,6 @@
       <c r="I271" s="2"/>
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="2"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2"/>
@@ -19440,8 +18888,6 @@
       <c r="I272" s="2"/>
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
-      <c r="L272" s="2"/>
-      <c r="M272" s="2"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="2"/>
@@ -19455,8 +18901,6 @@
       <c r="I273" s="2"/>
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
-      <c r="L273" s="2"/>
-      <c r="M273" s="2"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2"/>
@@ -19470,8 +18914,6 @@
       <c r="I274" s="2"/>
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
-      <c r="L274" s="2"/>
-      <c r="M274" s="2"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2"/>
@@ -19485,8 +18927,6 @@
       <c r="I275" s="2"/>
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
-      <c r="L275" s="2"/>
-      <c r="M275" s="2"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="2"/>
@@ -19500,8 +18940,6 @@
       <c r="I276" s="2"/>
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
-      <c r="L276" s="2"/>
-      <c r="M276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2"/>
@@ -19515,8 +18953,6 @@
       <c r="I277" s="2"/>
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
-      <c r="L277" s="2"/>
-      <c r="M277" s="2"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2"/>
@@ -19530,8 +18966,6 @@
       <c r="I278" s="2"/>
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
-      <c r="L278" s="2"/>
-      <c r="M278" s="2"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2"/>
@@ -19545,8 +18979,6 @@
       <c r="I279" s="2"/>
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
-      <c r="L279" s="2"/>
-      <c r="M279" s="2"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2"/>
@@ -19560,8 +18992,6 @@
       <c r="I280" s="2"/>
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
-      <c r="L280" s="2"/>
-      <c r="M280" s="2"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="2"/>
@@ -19575,8 +19005,6 @@
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
-      <c r="L281" s="2"/>
-      <c r="M281" s="2"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2"/>
@@ -19590,8 +19018,6 @@
       <c r="I282" s="2"/>
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
-      <c r="L282" s="2"/>
-      <c r="M282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2"/>
@@ -19605,8 +19031,6 @@
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
-      <c r="L283" s="2"/>
-      <c r="M283" s="2"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2"/>
@@ -19620,8 +19044,6 @@
       <c r="I284" s="2"/>
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
-      <c r="L284" s="2"/>
-      <c r="M284" s="2"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="2"/>
@@ -19635,8 +19057,6 @@
       <c r="I285" s="2"/>
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
-      <c r="L285" s="2"/>
-      <c r="M285" s="2"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="2"/>
@@ -19650,8 +19070,6 @@
       <c r="I286" s="2"/>
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
-      <c r="L286" s="2"/>
-      <c r="M286" s="2"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2"/>
@@ -19665,8 +19083,6 @@
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
-      <c r="L287" s="2"/>
-      <c r="M287" s="2"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2"/>
@@ -19680,8 +19096,6 @@
       <c r="I288" s="2"/>
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
-      <c r="L288" s="2"/>
-      <c r="M288" s="2"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2"/>
@@ -19695,8 +19109,6 @@
       <c r="I289" s="2"/>
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
-      <c r="L289" s="2"/>
-      <c r="M289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2"/>
@@ -19710,8 +19122,6 @@
       <c r="I290" s="2"/>
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
-      <c r="L290" s="2"/>
-      <c r="M290" s="2"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2"/>
@@ -19725,8 +19135,6 @@
       <c r="I291" s="2"/>
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
-      <c r="L291" s="2"/>
-      <c r="M291" s="2"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2"/>
@@ -19740,8 +19148,6 @@
       <c r="I292" s="2"/>
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
-      <c r="L292" s="2"/>
-      <c r="M292" s="2"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2"/>
@@ -19755,8 +19161,6 @@
       <c r="I293" s="2"/>
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
-      <c r="L293" s="2"/>
-      <c r="M293" s="2"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2"/>
@@ -19770,8 +19174,6 @@
       <c r="I294" s="2"/>
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
-      <c r="L294" s="2"/>
-      <c r="M294" s="2"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2"/>
@@ -19785,8 +19187,6 @@
       <c r="I295" s="2"/>
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
-      <c r="L295" s="2"/>
-      <c r="M295" s="2"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="2"/>
@@ -19800,8 +19200,6 @@
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
-      <c r="L296" s="2"/>
-      <c r="M296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="2"/>
@@ -19815,8 +19213,6 @@
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
-      <c r="L297" s="2"/>
-      <c r="M297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2"/>
@@ -19830,8 +19226,6 @@
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
-      <c r="L298" s="2"/>
-      <c r="M298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2"/>
@@ -19845,8 +19239,6 @@
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
-      <c r="L299" s="2"/>
-      <c r="M299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2"/>
@@ -19860,8 +19252,6 @@
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
-      <c r="L300" s="2"/>
-      <c r="M300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="2"/>
@@ -19875,8 +19265,6 @@
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
-      <c r="L301" s="2"/>
-      <c r="M301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2"/>
@@ -19890,8 +19278,6 @@
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
-      <c r="L302" s="2"/>
-      <c r="M302" s="2"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2"/>
@@ -19905,8 +19291,6 @@
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
-      <c r="L303" s="2"/>
-      <c r="M303" s="2"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2"/>
@@ -19920,8 +19304,6 @@
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
-      <c r="L304" s="2"/>
-      <c r="M304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2"/>
@@ -19935,8 +19317,6 @@
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
-      <c r="L305" s="2"/>
-      <c r="M305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2"/>
@@ -19950,8 +19330,6 @@
       <c r="I306" s="2"/>
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
-      <c r="L306" s="2"/>
-      <c r="M306" s="2"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2"/>
@@ -19965,8 +19343,6 @@
       <c r="I307" s="2"/>
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
-      <c r="L307" s="2"/>
-      <c r="M307" s="2"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2"/>
@@ -19980,8 +19356,6 @@
       <c r="I308" s="2"/>
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
-      <c r="L308" s="2"/>
-      <c r="M308" s="2"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2"/>
@@ -19995,8 +19369,6 @@
       <c r="I309" s="2"/>
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
-      <c r="L309" s="2"/>
-      <c r="M309" s="2"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2"/>
@@ -20010,8 +19382,6 @@
       <c r="I310" s="2"/>
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
-      <c r="L310" s="2"/>
-      <c r="M310" s="2"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2"/>
@@ -20025,8 +19395,6 @@
       <c r="I311" s="2"/>
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
-      <c r="L311" s="2"/>
-      <c r="M311" s="2"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="2"/>
@@ -20040,8 +19408,6 @@
       <c r="I312" s="2"/>
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
-      <c r="L312" s="2"/>
-      <c r="M312" s="2"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2"/>
@@ -20055,8 +19421,6 @@
       <c r="I313" s="2"/>
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
-      <c r="L313" s="2"/>
-      <c r="M313" s="2"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2"/>
@@ -20070,8 +19434,6 @@
       <c r="I314" s="2"/>
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
-      <c r="L314" s="2"/>
-      <c r="M314" s="2"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="2"/>
@@ -20085,8 +19447,6 @@
       <c r="I315" s="2"/>
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
-      <c r="L315" s="2"/>
-      <c r="M315" s="2"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2"/>
@@ -20100,8 +19460,6 @@
       <c r="I316" s="2"/>
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
-      <c r="L316" s="2"/>
-      <c r="M316" s="2"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2"/>
@@ -20115,8 +19473,6 @@
       <c r="I317" s="2"/>
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
-      <c r="L317" s="2"/>
-      <c r="M317" s="2"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2"/>
@@ -20130,8 +19486,6 @@
       <c r="I318" s="2"/>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
-      <c r="L318" s="2"/>
-      <c r="M318" s="2"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2"/>
@@ -20145,8 +19499,6 @@
       <c r="I319" s="2"/>
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
-      <c r="L319" s="2"/>
-      <c r="M319" s="2"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="2"/>
@@ -20160,8 +19512,6 @@
       <c r="I320" s="2"/>
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
-      <c r="L320" s="2"/>
-      <c r="M320" s="2"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2"/>
@@ -20175,8 +19525,6 @@
       <c r="I321" s="2"/>
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
-      <c r="L321" s="2"/>
-      <c r="M321" s="2"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2"/>
@@ -20190,8 +19538,6 @@
       <c r="I322" s="2"/>
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
-      <c r="L322" s="2"/>
-      <c r="M322" s="2"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2"/>
@@ -20205,8 +19551,6 @@
       <c r="I323" s="2"/>
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
-      <c r="L323" s="2"/>
-      <c r="M323" s="2"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2"/>
@@ -20220,8 +19564,6 @@
       <c r="I324" s="2"/>
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
-      <c r="L324" s="2"/>
-      <c r="M324" s="2"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="2"/>
@@ -20235,8 +19577,6 @@
       <c r="I325" s="2"/>
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
-      <c r="L325" s="2"/>
-      <c r="M325" s="2"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2"/>
@@ -20250,8 +19590,6 @@
       <c r="I326" s="2"/>
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
-      <c r="L326" s="2"/>
-      <c r="M326" s="2"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="2"/>
@@ -20265,8 +19603,6 @@
       <c r="I327" s="2"/>
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
-      <c r="L327" s="2"/>
-      <c r="M327" s="2"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="2"/>
@@ -20280,8 +19616,6 @@
       <c r="I328" s="2"/>
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
-      <c r="L328" s="2"/>
-      <c r="M328" s="2"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="2"/>
@@ -20295,8 +19629,6 @@
       <c r="I329" s="2"/>
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
-      <c r="L329" s="2"/>
-      <c r="M329" s="2"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="2"/>
@@ -20310,8 +19642,6 @@
       <c r="I330" s="2"/>
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
-      <c r="L330" s="2"/>
-      <c r="M330" s="2"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2"/>
@@ -20325,8 +19655,6 @@
       <c r="I331" s="2"/>
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
-      <c r="L331" s="2"/>
-      <c r="M331" s="2"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="2"/>
@@ -20340,8 +19668,6 @@
       <c r="I332" s="2"/>
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
-      <c r="L332" s="2"/>
-      <c r="M332" s="2"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="2"/>
@@ -20355,8 +19681,6 @@
       <c r="I333" s="2"/>
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
-      <c r="L333" s="2"/>
-      <c r="M333" s="2"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2"/>
@@ -20370,8 +19694,6 @@
       <c r="I334" s="2"/>
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
-      <c r="L334" s="2"/>
-      <c r="M334" s="2"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2"/>
@@ -20385,8 +19707,6 @@
       <c r="I335" s="2"/>
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
-      <c r="L335" s="2"/>
-      <c r="M335" s="2"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="2"/>
@@ -20400,8 +19720,6 @@
       <c r="I336" s="2"/>
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
-      <c r="L336" s="2"/>
-      <c r="M336" s="2"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="2"/>
@@ -20415,8 +19733,6 @@
       <c r="I337" s="2"/>
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
-      <c r="L337" s="2"/>
-      <c r="M337" s="2"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2"/>
@@ -20430,8 +19746,6 @@
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
-      <c r="L338" s="2"/>
-      <c r="M338" s="2"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="2"/>
@@ -20445,8 +19759,6 @@
       <c r="I339" s="2"/>
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
-      <c r="L339" s="2"/>
-      <c r="M339" s="2"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2"/>
@@ -20460,8 +19772,6 @@
       <c r="I340" s="2"/>
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
-      <c r="L340" s="2"/>
-      <c r="M340" s="2"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="2"/>
@@ -20475,8 +19785,6 @@
       <c r="I341" s="2"/>
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
-      <c r="L341" s="2"/>
-      <c r="M341" s="2"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2"/>
@@ -20490,8 +19798,6 @@
       <c r="I342" s="2"/>
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
-      <c r="L342" s="2"/>
-      <c r="M342" s="2"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2"/>
@@ -20505,8 +19811,6 @@
       <c r="I343" s="2"/>
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
-      <c r="L343" s="2"/>
-      <c r="M343" s="2"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2"/>
@@ -20520,8 +19824,6 @@
       <c r="I344" s="2"/>
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
-      <c r="L344" s="2"/>
-      <c r="M344" s="2"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2"/>
@@ -20535,8 +19837,6 @@
       <c r="I345" s="2"/>
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
-      <c r="L345" s="2"/>
-      <c r="M345" s="2"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2"/>
@@ -20550,8 +19850,6 @@
       <c r="I346" s="2"/>
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
-      <c r="L346" s="2"/>
-      <c r="M346" s="2"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="2"/>
@@ -20565,8 +19863,6 @@
       <c r="I347" s="2"/>
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
-      <c r="L347" s="2"/>
-      <c r="M347" s="2"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2"/>
@@ -20580,8 +19876,6 @@
       <c r="I348" s="2"/>
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
-      <c r="L348" s="2"/>
-      <c r="M348" s="2"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2"/>
@@ -20595,8 +19889,6 @@
       <c r="I349" s="2"/>
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
-      <c r="L349" s="2"/>
-      <c r="M349" s="2"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2"/>
@@ -20610,8 +19902,6 @@
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
-      <c r="L350" s="2"/>
-      <c r="M350" s="2"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="2"/>
@@ -20625,8 +19915,6 @@
       <c r="I351" s="2"/>
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
-      <c r="L351" s="2"/>
-      <c r="M351" s="2"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="2"/>
@@ -20640,8 +19928,6 @@
       <c r="I352" s="2"/>
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
-      <c r="L352" s="2"/>
-      <c r="M352" s="2"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2"/>
@@ -20655,8 +19941,6 @@
       <c r="I353" s="2"/>
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
-      <c r="L353" s="2"/>
-      <c r="M353" s="2"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="2"/>
@@ -20670,8 +19954,6 @@
       <c r="I354" s="2"/>
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
-      <c r="L354" s="2"/>
-      <c r="M354" s="2"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2"/>
@@ -20685,8 +19967,6 @@
       <c r="I355" s="2"/>
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
-      <c r="L355" s="2"/>
-      <c r="M355" s="2"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2"/>
@@ -20700,8 +19980,6 @@
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
-      <c r="L356" s="2"/>
-      <c r="M356" s="2"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="2"/>
@@ -20715,8 +19993,6 @@
       <c r="I357" s="2"/>
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
-      <c r="L357" s="2"/>
-      <c r="M357" s="2"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2"/>
@@ -20730,8 +20006,6 @@
       <c r="I358" s="2"/>
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
-      <c r="L358" s="2"/>
-      <c r="M358" s="2"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2"/>
@@ -20745,8 +20019,6 @@
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
-      <c r="L359" s="2"/>
-      <c r="M359" s="2"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2"/>
@@ -20760,8 +20032,6 @@
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
-      <c r="L360" s="2"/>
-      <c r="M360" s="2"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2"/>
@@ -20775,8 +20045,6 @@
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
-      <c r="L361" s="2"/>
-      <c r="M361" s="2"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2"/>
@@ -20790,8 +20058,6 @@
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
-      <c r="L362" s="2"/>
-      <c r="M362" s="2"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2"/>
@@ -20805,8 +20071,6 @@
       <c r="I363" s="2"/>
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
-      <c r="L363" s="2"/>
-      <c r="M363" s="2"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2"/>
@@ -20820,8 +20084,6 @@
       <c r="I364" s="2"/>
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
-      <c r="L364" s="2"/>
-      <c r="M364" s="2"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="2"/>
@@ -20835,8 +20097,6 @@
       <c r="I365" s="2"/>
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
-      <c r="L365" s="2"/>
-      <c r="M365" s="2"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="2"/>
@@ -20850,8 +20110,6 @@
       <c r="I366" s="2"/>
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
-      <c r="L366" s="2"/>
-      <c r="M366" s="2"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2"/>
@@ -20865,8 +20123,6 @@
       <c r="I367" s="2"/>
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
-      <c r="L367" s="2"/>
-      <c r="M367" s="2"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2"/>
@@ -20880,8 +20136,6 @@
       <c r="I368" s="2"/>
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
-      <c r="L368" s="2"/>
-      <c r="M368" s="2"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2"/>
@@ -20895,8 +20149,6 @@
       <c r="I369" s="2"/>
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
-      <c r="L369" s="2"/>
-      <c r="M369" s="2"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2"/>
@@ -20910,8 +20162,6 @@
       <c r="I370" s="2"/>
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
-      <c r="L370" s="2"/>
-      <c r="M370" s="2"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2"/>
@@ -20925,8 +20175,6 @@
       <c r="I371" s="2"/>
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
-      <c r="L371" s="2"/>
-      <c r="M371" s="2"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2"/>
@@ -20940,8 +20188,6 @@
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
-      <c r="L372" s="2"/>
-      <c r="M372" s="2"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2"/>
@@ -20955,8 +20201,6 @@
       <c r="I373" s="2"/>
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
-      <c r="L373" s="2"/>
-      <c r="M373" s="2"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2"/>
@@ -20970,8 +20214,6 @@
       <c r="I374" s="2"/>
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
-      <c r="L374" s="2"/>
-      <c r="M374" s="2"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2"/>
@@ -20985,8 +20227,6 @@
       <c r="I375" s="2"/>
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
-      <c r="L375" s="2"/>
-      <c r="M375" s="2"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2"/>
@@ -21000,8 +20240,6 @@
       <c r="I376" s="2"/>
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
-      <c r="L376" s="2"/>
-      <c r="M376" s="2"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2"/>
@@ -21015,8 +20253,6 @@
       <c r="I377" s="2"/>
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
-      <c r="L377" s="2"/>
-      <c r="M377" s="2"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2"/>
@@ -21030,8 +20266,6 @@
       <c r="I378" s="2"/>
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
-      <c r="L378" s="2"/>
-      <c r="M378" s="2"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2"/>
@@ -21045,8 +20279,6 @@
       <c r="I379" s="2"/>
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
-      <c r="L379" s="2"/>
-      <c r="M379" s="2"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2"/>
@@ -21060,8 +20292,6 @@
       <c r="I380" s="2"/>
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
-      <c r="L380" s="2"/>
-      <c r="M380" s="2"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2"/>
@@ -21075,8 +20305,6 @@
       <c r="I381" s="2"/>
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
-      <c r="L381" s="2"/>
-      <c r="M381" s="2"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2"/>
@@ -21090,8 +20318,6 @@
       <c r="I382" s="2"/>
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
-      <c r="L382" s="2"/>
-      <c r="M382" s="2"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2"/>
@@ -21105,8 +20331,6 @@
       <c r="I383" s="2"/>
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
-      <c r="L383" s="2"/>
-      <c r="M383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2"/>
@@ -21120,8 +20344,6 @@
       <c r="I384" s="2"/>
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
-      <c r="L384" s="2"/>
-      <c r="M384" s="2"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2"/>
@@ -21135,8 +20357,6 @@
       <c r="I385" s="2"/>
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
-      <c r="L385" s="2"/>
-      <c r="M385" s="2"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2"/>
@@ -21150,8 +20370,6 @@
       <c r="I386" s="2"/>
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
-      <c r="L386" s="2"/>
-      <c r="M386" s="2"/>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2"/>
@@ -21165,8 +20383,6 @@
       <c r="I387" s="2"/>
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
-      <c r="L387" s="2"/>
-      <c r="M387" s="2"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2"/>
@@ -21180,8 +20396,6 @@
       <c r="I388" s="2"/>
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
-      <c r="L388" s="2"/>
-      <c r="M388" s="2"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="2"/>
@@ -21195,8 +20409,6 @@
       <c r="I389" s="2"/>
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
-      <c r="L389" s="2"/>
-      <c r="M389" s="2"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2"/>
@@ -21210,8 +20422,6 @@
       <c r="I390" s="2"/>
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
-      <c r="L390" s="2"/>
-      <c r="M390" s="2"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2"/>
@@ -21225,8 +20435,6 @@
       <c r="I391" s="2"/>
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
-      <c r="L391" s="2"/>
-      <c r="M391" s="2"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="2"/>
@@ -21240,8 +20448,6 @@
       <c r="I392" s="2"/>
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
-      <c r="L392" s="2"/>
-      <c r="M392" s="2"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="2"/>
@@ -21255,8 +20461,6 @@
       <c r="I393" s="2"/>
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
-      <c r="L393" s="2"/>
-      <c r="M393" s="2"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2"/>
@@ -21270,8 +20474,6 @@
       <c r="I394" s="2"/>
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
-      <c r="L394" s="2"/>
-      <c r="M394" s="2"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2"/>
@@ -21285,8 +20487,6 @@
       <c r="I395" s="2"/>
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
-      <c r="L395" s="2"/>
-      <c r="M395" s="2"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2"/>
@@ -21300,8 +20500,6 @@
       <c r="I396" s="2"/>
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
-      <c r="L396" s="2"/>
-      <c r="M396" s="2"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2"/>
@@ -21315,8 +20513,6 @@
       <c r="I397" s="2"/>
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
-      <c r="L397" s="2"/>
-      <c r="M397" s="2"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2"/>
@@ -21330,8 +20526,6 @@
       <c r="I398" s="2"/>
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
-      <c r="L398" s="2"/>
-      <c r="M398" s="2"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="2"/>
@@ -21345,8 +20539,6 @@
       <c r="I399" s="2"/>
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
-      <c r="L399" s="2"/>
-      <c r="M399" s="2"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2"/>
@@ -21360,8 +20552,6 @@
       <c r="I400" s="2"/>
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
-      <c r="L400" s="2"/>
-      <c r="M400" s="2"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2"/>
@@ -21375,8 +20565,6 @@
       <c r="I401" s="2"/>
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
-      <c r="L401" s="2"/>
-      <c r="M401" s="2"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2"/>
@@ -21390,8 +20578,6 @@
       <c r="I402" s="2"/>
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
-      <c r="L402" s="2"/>
-      <c r="M402" s="2"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2"/>
@@ -21405,8 +20591,6 @@
       <c r="I403" s="2"/>
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
-      <c r="L403" s="2"/>
-      <c r="M403" s="2"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2"/>
@@ -21420,8 +20604,6 @@
       <c r="I404" s="2"/>
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
-      <c r="L404" s="2"/>
-      <c r="M404" s="2"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2"/>
@@ -21435,8 +20617,6 @@
       <c r="I405" s="2"/>
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
-      <c r="L405" s="2"/>
-      <c r="M405" s="2"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2"/>
@@ -21450,8 +20630,6 @@
       <c r="I406" s="2"/>
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
-      <c r="L406" s="2"/>
-      <c r="M406" s="2"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="2"/>
@@ -21465,8 +20643,6 @@
       <c r="I407" s="2"/>
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
-      <c r="L407" s="2"/>
-      <c r="M407" s="2"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="2"/>
@@ -21480,8 +20656,6 @@
       <c r="I408" s="2"/>
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
-      <c r="L408" s="2"/>
-      <c r="M408" s="2"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2"/>
@@ -21495,8 +20669,6 @@
       <c r="I409" s="2"/>
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
-      <c r="L409" s="2"/>
-      <c r="M409" s="2"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2"/>
@@ -21510,8 +20682,6 @@
       <c r="I410" s="2"/>
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
-      <c r="L410" s="2"/>
-      <c r="M410" s="2"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2"/>
@@ -21525,8 +20695,6 @@
       <c r="I411" s="2"/>
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
-      <c r="L411" s="2"/>
-      <c r="M411" s="2"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2"/>
@@ -21540,8 +20708,6 @@
       <c r="I412" s="2"/>
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
-      <c r="L412" s="2"/>
-      <c r="M412" s="2"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2"/>
@@ -21555,8 +20721,6 @@
       <c r="I413" s="2"/>
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
-      <c r="L413" s="2"/>
-      <c r="M413" s="2"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2"/>
@@ -21570,8 +20734,6 @@
       <c r="I414" s="2"/>
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
-      <c r="L414" s="2"/>
-      <c r="M414" s="2"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2"/>
@@ -21585,8 +20747,6 @@
       <c r="I415" s="2"/>
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
-      <c r="L415" s="2"/>
-      <c r="M415" s="2"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="2"/>
@@ -21600,8 +20760,6 @@
       <c r="I416" s="2"/>
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
-      <c r="L416" s="2"/>
-      <c r="M416" s="2"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2"/>
@@ -21615,8 +20773,6 @@
       <c r="I417" s="2"/>
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
-      <c r="L417" s="2"/>
-      <c r="M417" s="2"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2"/>
@@ -21630,8 +20786,6 @@
       <c r="I418" s="2"/>
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
-      <c r="L418" s="2"/>
-      <c r="M418" s="2"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2"/>
@@ -21645,8 +20799,6 @@
       <c r="I419" s="2"/>
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
-      <c r="L419" s="2"/>
-      <c r="M419" s="2"/>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2"/>
@@ -21660,8 +20812,6 @@
       <c r="I420" s="2"/>
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
-      <c r="L420" s="2"/>
-      <c r="M420" s="2"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2"/>
@@ -21675,8 +20825,6 @@
       <c r="I421" s="2"/>
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
-      <c r="L421" s="2"/>
-      <c r="M421" s="2"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2"/>
@@ -21690,8 +20838,6 @@
       <c r="I422" s="2"/>
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
-      <c r="L422" s="2"/>
-      <c r="M422" s="2"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="2"/>
@@ -21705,8 +20851,6 @@
       <c r="I423" s="2"/>
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
-      <c r="L423" s="2"/>
-      <c r="M423" s="2"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2"/>
@@ -21720,8 +20864,6 @@
       <c r="I424" s="2"/>
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
-      <c r="L424" s="2"/>
-      <c r="M424" s="2"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2"/>
@@ -21735,8 +20877,6 @@
       <c r="I425" s="2"/>
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
-      <c r="L425" s="2"/>
-      <c r="M425" s="2"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2"/>
@@ -21750,8 +20890,6 @@
       <c r="I426" s="2"/>
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
-      <c r="L426" s="2"/>
-      <c r="M426" s="2"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2"/>
@@ -21765,8 +20903,6 @@
       <c r="I427" s="2"/>
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
-      <c r="L427" s="2"/>
-      <c r="M427" s="2"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2"/>
@@ -21780,8 +20916,6 @@
       <c r="I428" s="2"/>
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
-      <c r="L428" s="2"/>
-      <c r="M428" s="2"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2"/>
@@ -21795,8 +20929,6 @@
       <c r="I429" s="2"/>
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
-      <c r="L429" s="2"/>
-      <c r="M429" s="2"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2"/>
@@ -21810,8 +20942,6 @@
       <c r="I430" s="2"/>
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
-      <c r="L430" s="2"/>
-      <c r="M430" s="2"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2"/>
@@ -21825,8 +20955,6 @@
       <c r="I431" s="2"/>
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
-      <c r="L431" s="2"/>
-      <c r="M431" s="2"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2"/>
@@ -21840,8 +20968,6 @@
       <c r="I432" s="2"/>
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
-      <c r="L432" s="2"/>
-      <c r="M432" s="2"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2"/>
@@ -21855,8 +20981,6 @@
       <c r="I433" s="2"/>
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
-      <c r="L433" s="2"/>
-      <c r="M433" s="2"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2"/>
@@ -21870,8 +20994,6 @@
       <c r="I434" s="2"/>
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
-      <c r="L434" s="2"/>
-      <c r="M434" s="2"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2"/>
@@ -21885,8 +21007,6 @@
       <c r="I435" s="2"/>
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
-      <c r="L435" s="2"/>
-      <c r="M435" s="2"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2"/>
@@ -21900,8 +21020,6 @@
       <c r="I436" s="2"/>
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
-      <c r="L436" s="2"/>
-      <c r="M436" s="2"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2"/>
@@ -21915,8 +21033,6 @@
       <c r="I437" s="2"/>
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
-      <c r="L437" s="2"/>
-      <c r="M437" s="2"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2"/>
@@ -21930,8 +21046,6 @@
       <c r="I438" s="2"/>
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
-      <c r="L438" s="2"/>
-      <c r="M438" s="2"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2"/>
@@ -21945,8 +21059,6 @@
       <c r="I439" s="2"/>
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
-      <c r="L439" s="2"/>
-      <c r="M439" s="2"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2"/>
@@ -21960,8 +21072,6 @@
       <c r="I440" s="2"/>
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
-      <c r="L440" s="2"/>
-      <c r="M440" s="2"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2"/>
@@ -21975,8 +21085,6 @@
       <c r="I441" s="2"/>
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
-      <c r="L441" s="2"/>
-      <c r="M441" s="2"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2"/>
@@ -21990,8 +21098,6 @@
       <c r="I442" s="2"/>
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
-      <c r="L442" s="2"/>
-      <c r="M442" s="2"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2"/>
@@ -22005,8 +21111,6 @@
       <c r="I443" s="2"/>
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
-      <c r="L443" s="2"/>
-      <c r="M443" s="2"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2"/>
@@ -22020,8 +21124,6 @@
       <c r="I444" s="2"/>
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
-      <c r="L444" s="2"/>
-      <c r="M444" s="2"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2"/>
@@ -22035,8 +21137,6 @@
       <c r="I445" s="2"/>
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
-      <c r="L445" s="2"/>
-      <c r="M445" s="2"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2"/>
@@ -22050,8 +21150,6 @@
       <c r="I446" s="2"/>
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
-      <c r="L446" s="2"/>
-      <c r="M446" s="2"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2"/>
@@ -22065,8 +21163,6 @@
       <c r="I447" s="2"/>
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
-      <c r="L447" s="2"/>
-      <c r="M447" s="2"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2"/>
@@ -22080,8 +21176,6 @@
       <c r="I448" s="2"/>
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
-      <c r="L448" s="2"/>
-      <c r="M448" s="2"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2"/>
@@ -22095,8 +21189,6 @@
       <c r="I449" s="2"/>
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
-      <c r="L449" s="2"/>
-      <c r="M449" s="2"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2"/>
@@ -22110,8 +21202,6 @@
       <c r="I450" s="2"/>
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
-      <c r="L450" s="2"/>
-      <c r="M450" s="2"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2"/>
@@ -22125,8 +21215,6 @@
       <c r="I451" s="2"/>
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
-      <c r="L451" s="2"/>
-      <c r="M451" s="2"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2"/>
@@ -22140,8 +21228,6 @@
       <c r="I452" s="2"/>
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
-      <c r="L452" s="2"/>
-      <c r="M452" s="2"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2"/>
@@ -22155,8 +21241,6 @@
       <c r="I453" s="2"/>
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
-      <c r="L453" s="2"/>
-      <c r="M453" s="2"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2"/>
@@ -22170,8 +21254,6 @@
       <c r="I454" s="2"/>
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
-      <c r="L454" s="2"/>
-      <c r="M454" s="2"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2"/>
@@ -22185,8 +21267,6 @@
       <c r="I455" s="2"/>
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
-      <c r="L455" s="2"/>
-      <c r="M455" s="2"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2"/>
@@ -22200,8 +21280,6 @@
       <c r="I456" s="2"/>
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
-      <c r="L456" s="2"/>
-      <c r="M456" s="2"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2"/>
@@ -22215,8 +21293,6 @@
       <c r="I457" s="2"/>
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
-      <c r="L457" s="2"/>
-      <c r="M457" s="2"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2"/>
@@ -22230,8 +21306,6 @@
       <c r="I458" s="2"/>
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
-      <c r="L458" s="2"/>
-      <c r="M458" s="2"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2"/>
@@ -22245,8 +21319,6 @@
       <c r="I459" s="2"/>
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
-      <c r="L459" s="2"/>
-      <c r="M459" s="2"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2"/>
@@ -22260,8 +21332,6 @@
       <c r="I460" s="2"/>
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
-      <c r="L460" s="2"/>
-      <c r="M460" s="2"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2"/>
@@ -22275,8 +21345,6 @@
       <c r="I461" s="2"/>
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
-      <c r="L461" s="2"/>
-      <c r="M461" s="2"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2"/>
@@ -22290,8 +21358,6 @@
       <c r="I462" s="2"/>
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
-      <c r="L462" s="2"/>
-      <c r="M462" s="2"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2"/>
@@ -22305,8 +21371,6 @@
       <c r="I463" s="2"/>
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
-      <c r="L463" s="2"/>
-      <c r="M463" s="2"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2"/>
@@ -22320,8 +21384,6 @@
       <c r="I464" s="2"/>
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
-      <c r="L464" s="2"/>
-      <c r="M464" s="2"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2"/>
@@ -22335,8 +21397,6 @@
       <c r="I465" s="2"/>
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
-      <c r="L465" s="2"/>
-      <c r="M465" s="2"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2"/>
@@ -22350,8 +21410,6 @@
       <c r="I466" s="2"/>
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
-      <c r="L466" s="2"/>
-      <c r="M466" s="2"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2"/>
@@ -22365,8 +21423,6 @@
       <c r="I467" s="2"/>
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
-      <c r="L467" s="2"/>
-      <c r="M467" s="2"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2"/>
@@ -22380,8 +21436,6 @@
       <c r="I468" s="2"/>
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
-      <c r="L468" s="2"/>
-      <c r="M468" s="2"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2"/>
@@ -22395,8 +21449,6 @@
       <c r="I469" s="2"/>
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
-      <c r="L469" s="2"/>
-      <c r="M469" s="2"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="2"/>
@@ -22410,8 +21462,6 @@
       <c r="I470" s="2"/>
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
-      <c r="L470" s="2"/>
-      <c r="M470" s="2"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2"/>
@@ -22425,8 +21475,6 @@
       <c r="I471" s="2"/>
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
-      <c r="L471" s="2"/>
-      <c r="M471" s="2"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2"/>
@@ -22440,8 +21488,6 @@
       <c r="I472" s="2"/>
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
-      <c r="L472" s="2"/>
-      <c r="M472" s="2"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="2"/>
@@ -22455,8 +21501,6 @@
       <c r="I473" s="2"/>
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
-      <c r="L473" s="2"/>
-      <c r="M473" s="2"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2"/>
@@ -22470,8 +21514,6 @@
       <c r="I474" s="2"/>
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
-      <c r="L474" s="2"/>
-      <c r="M474" s="2"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2"/>
@@ -22485,8 +21527,6 @@
       <c r="I475" s="2"/>
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
-      <c r="L475" s="2"/>
-      <c r="M475" s="2"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2"/>
@@ -22500,8 +21540,6 @@
       <c r="I476" s="2"/>
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
-      <c r="L476" s="2"/>
-      <c r="M476" s="2"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2"/>
@@ -22515,8 +21553,6 @@
       <c r="I477" s="2"/>
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
-      <c r="L477" s="2"/>
-      <c r="M477" s="2"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2"/>
@@ -22530,8 +21566,6 @@
       <c r="I478" s="2"/>
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
-      <c r="L478" s="2"/>
-      <c r="M478" s="2"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2"/>
@@ -22545,8 +21579,6 @@
       <c r="I479" s="2"/>
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
-      <c r="L479" s="2"/>
-      <c r="M479" s="2"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="2"/>
@@ -22560,8 +21592,6 @@
       <c r="I480" s="2"/>
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
-      <c r="L480" s="2"/>
-      <c r="M480" s="2"/>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2"/>
@@ -22575,8 +21605,6 @@
       <c r="I481" s="2"/>
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
-      <c r="L481" s="2"/>
-      <c r="M481" s="2"/>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2"/>
@@ -22590,8 +21618,6 @@
       <c r="I482" s="2"/>
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
-      <c r="L482" s="2"/>
-      <c r="M482" s="2"/>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2"/>
@@ -22605,8 +21631,6 @@
       <c r="I483" s="2"/>
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
-      <c r="L483" s="2"/>
-      <c r="M483" s="2"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2"/>
@@ -22620,8 +21644,6 @@
       <c r="I484" s="2"/>
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
-      <c r="L484" s="2"/>
-      <c r="M484" s="2"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2"/>
@@ -22635,8 +21657,6 @@
       <c r="I485" s="2"/>
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
-      <c r="L485" s="2"/>
-      <c r="M485" s="2"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2"/>
@@ -22650,8 +21670,6 @@
       <c r="I486" s="2"/>
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
-      <c r="L486" s="2"/>
-      <c r="M486" s="2"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2"/>
@@ -22665,8 +21683,6 @@
       <c r="I487" s="2"/>
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
-      <c r="L487" s="2"/>
-      <c r="M487" s="2"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2"/>
@@ -22680,8 +21696,6 @@
       <c r="I488" s="2"/>
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
-      <c r="L488" s="2"/>
-      <c r="M488" s="2"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2"/>
@@ -22695,8 +21709,6 @@
       <c r="I489" s="2"/>
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
-      <c r="L489" s="2"/>
-      <c r="M489" s="2"/>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2"/>
@@ -22710,8 +21722,6 @@
       <c r="I490" s="2"/>
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
-      <c r="L490" s="2"/>
-      <c r="M490" s="2"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2"/>
@@ -22725,8 +21735,6 @@
       <c r="I491" s="2"/>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
-      <c r="L491" s="2"/>
-      <c r="M491" s="2"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2"/>
@@ -22740,8 +21748,6 @@
       <c r="I492" s="2"/>
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
-      <c r="L492" s="2"/>
-      <c r="M492" s="2"/>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2"/>
@@ -22755,8 +21761,6 @@
       <c r="I493" s="2"/>
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
-      <c r="L493" s="2"/>
-      <c r="M493" s="2"/>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2"/>
@@ -22770,8 +21774,6 @@
       <c r="I494" s="2"/>
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
-      <c r="L494" s="2"/>
-      <c r="M494" s="2"/>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2"/>
@@ -22785,8 +21787,6 @@
       <c r="I495" s="2"/>
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
-      <c r="L495" s="2"/>
-      <c r="M495" s="2"/>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2"/>
@@ -22800,8 +21800,6 @@
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
-      <c r="L496" s="2"/>
-      <c r="M496" s="2"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2"/>
@@ -22815,8 +21813,6 @@
       <c r="I497" s="2"/>
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
-      <c r="L497" s="2"/>
-      <c r="M497" s="2"/>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2"/>
@@ -22830,8 +21826,6 @@
       <c r="I498" s="2"/>
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
-      <c r="L498" s="2"/>
-      <c r="M498" s="2"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2"/>
@@ -22845,8 +21839,6 @@
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
-      <c r="L499" s="2"/>
-      <c r="M499" s="2"/>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2"/>
@@ -22860,8 +21852,6 @@
       <c r="I500" s="2"/>
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
-      <c r="L500" s="2"/>
-      <c r="M500" s="2"/>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="2"/>
@@ -22875,8 +21865,6 @@
       <c r="I501" s="2"/>
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
-      <c r="L501" s="2"/>
-      <c r="M501" s="2"/>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2"/>
@@ -22890,8 +21878,6 @@
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
-      <c r="L502" s="2"/>
-      <c r="M502" s="2"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="2"/>
@@ -22905,8 +21891,6 @@
       <c r="I503" s="2"/>
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
-      <c r="L503" s="2"/>
-      <c r="M503" s="2"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="2"/>
@@ -22920,8 +21904,6 @@
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
-      <c r="L504" s="2"/>
-      <c r="M504" s="2"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2"/>
@@ -22935,8 +21917,6 @@
       <c r="I505" s="2"/>
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
-      <c r="L505" s="2"/>
-      <c r="M505" s="2"/>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2"/>
@@ -22950,8 +21930,6 @@
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
-      <c r="L506" s="2"/>
-      <c r="M506" s="2"/>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2"/>
@@ -22965,8 +21943,6 @@
       <c r="I507" s="2"/>
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
-      <c r="L507" s="2"/>
-      <c r="M507" s="2"/>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2"/>
@@ -22980,8 +21956,6 @@
       <c r="I508" s="2"/>
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
-      <c r="L508" s="2"/>
-      <c r="M508" s="2"/>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="2"/>
@@ -22995,8 +21969,6 @@
       <c r="I509" s="2"/>
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
-      <c r="L509" s="2"/>
-      <c r="M509" s="2"/>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="2"/>
@@ -23010,8 +21982,6 @@
       <c r="I510" s="2"/>
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
-      <c r="L510" s="2"/>
-      <c r="M510" s="2"/>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="2"/>
@@ -23025,8 +21995,6 @@
       <c r="I511" s="2"/>
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
-      <c r="L511" s="2"/>
-      <c r="M511" s="2"/>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="2"/>
@@ -23040,8 +22008,6 @@
       <c r="I512" s="2"/>
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
-      <c r="L512" s="2"/>
-      <c r="M512" s="2"/>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="2"/>
@@ -23055,8 +22021,6 @@
       <c r="I513" s="2"/>
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
-      <c r="L513" s="2"/>
-      <c r="M513" s="2"/>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="2"/>
@@ -23070,8 +22034,6 @@
       <c r="I514" s="2"/>
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
-      <c r="L514" s="2"/>
-      <c r="M514" s="2"/>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="2"/>
@@ -23085,8 +22047,6 @@
       <c r="I515" s="2"/>
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
-      <c r="L515" s="2"/>
-      <c r="M515" s="2"/>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="2"/>
@@ -23100,8 +22060,6 @@
       <c r="I516" s="2"/>
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
-      <c r="L516" s="2"/>
-      <c r="M516" s="2"/>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="2"/>
@@ -23115,8 +22073,6 @@
       <c r="I517" s="2"/>
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
-      <c r="L517" s="2"/>
-      <c r="M517" s="2"/>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="2"/>
@@ -23130,8 +22086,6 @@
       <c r="I518" s="2"/>
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
-      <c r="L518" s="2"/>
-      <c r="M518" s="2"/>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="2"/>
@@ -23145,8 +22099,6 @@
       <c r="I519" s="2"/>
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
-      <c r="L519" s="2"/>
-      <c r="M519" s="2"/>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="2"/>
@@ -23160,8 +22112,6 @@
       <c r="I520" s="2"/>
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
-      <c r="L520" s="2"/>
-      <c r="M520" s="2"/>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="2"/>
@@ -23175,8 +22125,6 @@
       <c r="I521" s="2"/>
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
-      <c r="L521" s="2"/>
-      <c r="M521" s="2"/>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="2"/>
@@ -23190,8 +22138,6 @@
       <c r="I522" s="2"/>
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
-      <c r="L522" s="2"/>
-      <c r="M522" s="2"/>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="2"/>
@@ -23205,8 +22151,6 @@
       <c r="I523" s="2"/>
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
-      <c r="L523" s="2"/>
-      <c r="M523" s="2"/>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="2"/>
@@ -23220,8 +22164,6 @@
       <c r="I524" s="2"/>
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
-      <c r="L524" s="2"/>
-      <c r="M524" s="2"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="2"/>
@@ -23235,8 +22177,6 @@
       <c r="I525" s="2"/>
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
-      <c r="L525" s="2"/>
-      <c r="M525" s="2"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2"/>
@@ -23250,8 +22190,6 @@
       <c r="I526" s="2"/>
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
-      <c r="L526" s="2"/>
-      <c r="M526" s="2"/>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="2"/>
@@ -23265,8 +22203,6 @@
       <c r="I527" s="2"/>
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
-      <c r="L527" s="2"/>
-      <c r="M527" s="2"/>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="2"/>
@@ -23280,8 +22216,6 @@
       <c r="I528" s="2"/>
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
-      <c r="L528" s="2"/>
-      <c r="M528" s="2"/>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="2"/>
@@ -23295,8 +22229,6 @@
       <c r="I529" s="2"/>
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
-      <c r="L529" s="2"/>
-      <c r="M529" s="2"/>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="2"/>
@@ -23310,8 +22242,6 @@
       <c r="I530" s="2"/>
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
-      <c r="L530" s="2"/>
-      <c r="M530" s="2"/>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="2"/>
@@ -23325,8 +22255,6 @@
       <c r="I531" s="2"/>
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
-      <c r="L531" s="2"/>
-      <c r="M531" s="2"/>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="2"/>
@@ -23340,8 +22268,6 @@
       <c r="I532" s="2"/>
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
-      <c r="L532" s="2"/>
-      <c r="M532" s="2"/>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="2"/>
@@ -23355,8 +22281,6 @@
       <c r="I533" s="2"/>
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
-      <c r="L533" s="2"/>
-      <c r="M533" s="2"/>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2"/>
@@ -23370,8 +22294,6 @@
       <c r="I534" s="2"/>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
-      <c r="L534" s="2"/>
-      <c r="M534" s="2"/>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="2"/>
@@ -23385,8 +22307,6 @@
       <c r="I535" s="2"/>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
-      <c r="L535" s="2"/>
-      <c r="M535" s="2"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="2"/>
@@ -23400,8 +22320,6 @@
       <c r="I536" s="2"/>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
-      <c r="L536" s="2"/>
-      <c r="M536" s="2"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="2"/>
@@ -23415,8 +22333,6 @@
       <c r="I537" s="2"/>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
-      <c r="L537" s="2"/>
-      <c r="M537" s="2"/>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="2"/>
@@ -23430,8 +22346,6 @@
       <c r="I538" s="2"/>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
-      <c r="L538" s="2"/>
-      <c r="M538" s="2"/>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="2"/>
@@ -23445,8 +22359,6 @@
       <c r="I539" s="2"/>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
-      <c r="L539" s="2"/>
-      <c r="M539" s="2"/>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2"/>
@@ -23460,8 +22372,6 @@
       <c r="I540" s="2"/>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
-      <c r="L540" s="2"/>
-      <c r="M540" s="2"/>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="2"/>
@@ -23475,8 +22385,6 @@
       <c r="I541" s="2"/>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
-      <c r="L541" s="2"/>
-      <c r="M541" s="2"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="2"/>
@@ -23490,8 +22398,6 @@
       <c r="I542" s="2"/>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
-      <c r="L542" s="2"/>
-      <c r="M542" s="2"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="2"/>
@@ -23505,8 +22411,6 @@
       <c r="I543" s="2"/>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
-      <c r="L543" s="2"/>
-      <c r="M543" s="2"/>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="2"/>
@@ -23520,8 +22424,6 @@
       <c r="I544" s="2"/>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
-      <c r="L544" s="2"/>
-      <c r="M544" s="2"/>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="2"/>
@@ -23535,8 +22437,6 @@
       <c r="I545" s="2"/>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
-      <c r="L545" s="2"/>
-      <c r="M545" s="2"/>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="2"/>
@@ -23550,8 +22450,6 @@
       <c r="I546" s="2"/>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
-      <c r="L546" s="2"/>
-      <c r="M546" s="2"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2"/>
@@ -23565,8 +22463,6 @@
       <c r="I547" s="2"/>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
-      <c r="L547" s="2"/>
-      <c r="M547" s="2"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="2"/>
@@ -23580,8 +22476,6 @@
       <c r="I548" s="2"/>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
-      <c r="L548" s="2"/>
-      <c r="M548" s="2"/>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="2"/>
@@ -23595,8 +22489,6 @@
       <c r="I549" s="2"/>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
-      <c r="L549" s="2"/>
-      <c r="M549" s="2"/>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="2"/>
@@ -23610,8 +22502,6 @@
       <c r="I550" s="2"/>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
-      <c r="L550" s="2"/>
-      <c r="M550" s="2"/>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="2"/>
@@ -23625,8 +22515,6 @@
       <c r="I551" s="2"/>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
-      <c r="L551" s="2"/>
-      <c r="M551" s="2"/>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="2"/>
@@ -23640,8 +22528,6 @@
       <c r="I552" s="2"/>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
-      <c r="L552" s="2"/>
-      <c r="M552" s="2"/>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="2"/>
@@ -23655,8 +22541,6 @@
       <c r="I553" s="2"/>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
-      <c r="L553" s="2"/>
-      <c r="M553" s="2"/>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="2"/>
@@ -23670,8 +22554,6 @@
       <c r="I554" s="2"/>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
-      <c r="L554" s="2"/>
-      <c r="M554" s="2"/>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="2"/>
@@ -23685,8 +22567,6 @@
       <c r="I555" s="2"/>
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
-      <c r="L555" s="2"/>
-      <c r="M555" s="2"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="2"/>
@@ -23700,8 +22580,6 @@
       <c r="I556" s="2"/>
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
-      <c r="L556" s="2"/>
-      <c r="M556" s="2"/>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="2"/>
@@ -23715,8 +22593,6 @@
       <c r="I557" s="2"/>
       <c r="J557" s="2"/>
       <c r="K557" s="2"/>
-      <c r="L557" s="2"/>
-      <c r="M557" s="2"/>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="2"/>
@@ -23730,8 +22606,6 @@
       <c r="I558" s="2"/>
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
-      <c r="L558" s="2"/>
-      <c r="M558" s="2"/>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="2"/>
@@ -23745,8 +22619,6 @@
       <c r="I559" s="2"/>
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
-      <c r="L559" s="2"/>
-      <c r="M559" s="2"/>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="2"/>
@@ -23760,8 +22632,6 @@
       <c r="I560" s="2"/>
       <c r="J560" s="2"/>
       <c r="K560" s="2"/>
-      <c r="L560" s="2"/>
-      <c r="M560" s="2"/>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="2"/>
@@ -23775,8 +22645,6 @@
       <c r="I561" s="2"/>
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
-      <c r="L561" s="2"/>
-      <c r="M561" s="2"/>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="2"/>
@@ -23790,8 +22658,6 @@
       <c r="I562" s="2"/>
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
-      <c r="L562" s="2"/>
-      <c r="M562" s="2"/>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="2"/>
@@ -23805,8 +22671,6 @@
       <c r="I563" s="2"/>
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
-      <c r="L563" s="2"/>
-      <c r="M563" s="2"/>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="2"/>
@@ -23820,8 +22684,6 @@
       <c r="I564" s="2"/>
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
-      <c r="L564" s="2"/>
-      <c r="M564" s="2"/>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="2"/>
@@ -23835,8 +22697,6 @@
       <c r="I565" s="2"/>
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
-      <c r="L565" s="2"/>
-      <c r="M565" s="2"/>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="2"/>
@@ -23850,8 +22710,6 @@
       <c r="I566" s="2"/>
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
-      <c r="L566" s="2"/>
-      <c r="M566" s="2"/>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="2"/>
@@ -23865,8 +22723,6 @@
       <c r="I567" s="2"/>
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
-      <c r="L567" s="2"/>
-      <c r="M567" s="2"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="2"/>
@@ -23880,8 +22736,6 @@
       <c r="I568" s="2"/>
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
-      <c r="L568" s="2"/>
-      <c r="M568" s="2"/>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="2"/>
@@ -23895,8 +22749,6 @@
       <c r="I569" s="2"/>
       <c r="J569" s="2"/>
       <c r="K569" s="2"/>
-      <c r="L569" s="2"/>
-      <c r="M569" s="2"/>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="2"/>
@@ -23910,8 +22762,6 @@
       <c r="I570" s="2"/>
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
-      <c r="L570" s="2"/>
-      <c r="M570" s="2"/>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="2"/>
@@ -23925,8 +22775,6 @@
       <c r="I571" s="2"/>
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
-      <c r="L571" s="2"/>
-      <c r="M571" s="2"/>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="2"/>
@@ -23940,8 +22788,6 @@
       <c r="I572" s="2"/>
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
-      <c r="L572" s="2"/>
-      <c r="M572" s="2"/>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="2"/>
@@ -23955,8 +22801,6 @@
       <c r="I573" s="2"/>
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
-      <c r="L573" s="2"/>
-      <c r="M573" s="2"/>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="2"/>
@@ -23970,8 +22814,6 @@
       <c r="I574" s="2"/>
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
-      <c r="L574" s="2"/>
-      <c r="M574" s="2"/>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="2"/>
@@ -23985,8 +22827,6 @@
       <c r="I575" s="2"/>
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
-      <c r="L575" s="2"/>
-      <c r="M575" s="2"/>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2"/>
@@ -24000,8 +22840,6 @@
       <c r="I576" s="2"/>
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
-      <c r="L576" s="2"/>
-      <c r="M576" s="2"/>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="2"/>
@@ -24015,8 +22853,6 @@
       <c r="I577" s="2"/>
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
-      <c r="L577" s="2"/>
-      <c r="M577" s="2"/>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="2"/>
@@ -24030,8 +22866,6 @@
       <c r="I578" s="2"/>
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
-      <c r="L578" s="2"/>
-      <c r="M578" s="2"/>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="2"/>
@@ -24045,8 +22879,6 @@
       <c r="I579" s="2"/>
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
-      <c r="L579" s="2"/>
-      <c r="M579" s="2"/>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="2"/>
@@ -24060,8 +22892,6 @@
       <c r="I580" s="2"/>
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
-      <c r="L580" s="2"/>
-      <c r="M580" s="2"/>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="2"/>
@@ -24075,8 +22905,6 @@
       <c r="I581" s="2"/>
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
-      <c r="L581" s="2"/>
-      <c r="M581" s="2"/>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="2"/>
@@ -24090,8 +22918,6 @@
       <c r="I582" s="2"/>
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
-      <c r="L582" s="2"/>
-      <c r="M582" s="2"/>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="2"/>
@@ -24105,8 +22931,6 @@
       <c r="I583" s="2"/>
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
-      <c r="L583" s="2"/>
-      <c r="M583" s="2"/>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="2"/>
@@ -24120,8 +22944,6 @@
       <c r="I584" s="2"/>
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
-      <c r="L584" s="2"/>
-      <c r="M584" s="2"/>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2"/>
@@ -24135,8 +22957,6 @@
       <c r="I585" s="2"/>
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
-      <c r="L585" s="2"/>
-      <c r="M585" s="2"/>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="2"/>
@@ -24150,8 +22970,6 @@
       <c r="I586" s="2"/>
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
-      <c r="L586" s="2"/>
-      <c r="M586" s="2"/>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="2"/>
@@ -24165,8 +22983,6 @@
       <c r="I587" s="2"/>
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
-      <c r="L587" s="2"/>
-      <c r="M587" s="2"/>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2"/>
@@ -24180,8 +22996,6 @@
       <c r="I588" s="2"/>
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
-      <c r="L588" s="2"/>
-      <c r="M588" s="2"/>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2"/>
@@ -24195,8 +23009,6 @@
       <c r="I589" s="2"/>
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
-      <c r="L589" s="2"/>
-      <c r="M589" s="2"/>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2"/>
@@ -24210,8 +23022,6 @@
       <c r="I590" s="2"/>
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
-      <c r="L590" s="2"/>
-      <c r="M590" s="2"/>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2"/>
@@ -24225,8 +23035,6 @@
       <c r="I591" s="2"/>
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
-      <c r="L591" s="2"/>
-      <c r="M591" s="2"/>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2"/>
@@ -24240,8 +23048,6 @@
       <c r="I592" s="2"/>
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
-      <c r="L592" s="2"/>
-      <c r="M592" s="2"/>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2"/>
@@ -24255,8 +23061,6 @@
       <c r="I593" s="2"/>
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
-      <c r="L593" s="2"/>
-      <c r="M593" s="2"/>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="2"/>
@@ -24270,8 +23074,6 @@
       <c r="I594" s="2"/>
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
-      <c r="L594" s="2"/>
-      <c r="M594" s="2"/>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2"/>
@@ -24285,8 +23087,6 @@
       <c r="I595" s="2"/>
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
-      <c r="L595" s="2"/>
-      <c r="M595" s="2"/>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2"/>
@@ -24300,8 +23100,6 @@
       <c r="I596" s="2"/>
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
-      <c r="L596" s="2"/>
-      <c r="M596" s="2"/>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="2"/>
@@ -24315,8 +23113,6 @@
       <c r="I597" s="2"/>
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
-      <c r="L597" s="2"/>
-      <c r="M597" s="2"/>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2"/>
@@ -24330,8 +23126,6 @@
       <c r="I598" s="2"/>
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
-      <c r="L598" s="2"/>
-      <c r="M598" s="2"/>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="2"/>
@@ -24345,8 +23139,6 @@
       <c r="I599" s="2"/>
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
-      <c r="L599" s="2"/>
-      <c r="M599" s="2"/>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="2"/>
@@ -24360,8 +23152,6 @@
       <c r="I600" s="2"/>
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
-      <c r="L600" s="2"/>
-      <c r="M600" s="2"/>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2"/>
@@ -24375,8 +23165,6 @@
       <c r="I601" s="2"/>
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
-      <c r="L601" s="2"/>
-      <c r="M601" s="2"/>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2"/>
@@ -24390,8 +23178,6 @@
       <c r="I602" s="2"/>
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
-      <c r="L602" s="2"/>
-      <c r="M602" s="2"/>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2"/>
@@ -24405,8 +23191,6 @@
       <c r="I603" s="2"/>
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
-      <c r="L603" s="2"/>
-      <c r="M603" s="2"/>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2"/>
@@ -24420,8 +23204,6 @@
       <c r="I604" s="2"/>
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
-      <c r="L604" s="2"/>
-      <c r="M604" s="2"/>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2"/>
@@ -24435,8 +23217,6 @@
       <c r="I605" s="2"/>
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
-      <c r="L605" s="2"/>
-      <c r="M605" s="2"/>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="2"/>
@@ -24450,8 +23230,6 @@
       <c r="I606" s="2"/>
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
-      <c r="L606" s="2"/>
-      <c r="M606" s="2"/>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2"/>
@@ -24465,8 +23243,6 @@
       <c r="I607" s="2"/>
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
-      <c r="L607" s="2"/>
-      <c r="M607" s="2"/>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="2"/>
@@ -24480,8 +23256,6 @@
       <c r="I608" s="2"/>
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
-      <c r="L608" s="2"/>
-      <c r="M608" s="2"/>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="2"/>
@@ -24495,8 +23269,6 @@
       <c r="I609" s="2"/>
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
-      <c r="L609" s="2"/>
-      <c r="M609" s="2"/>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="2"/>
@@ -24510,8 +23282,6 @@
       <c r="I610" s="2"/>
       <c r="J610" s="2"/>
       <c r="K610" s="2"/>
-      <c r="L610" s="2"/>
-      <c r="M610" s="2"/>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="2"/>
@@ -24525,8 +23295,6 @@
       <c r="I611" s="2"/>
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
-      <c r="L611" s="2"/>
-      <c r="M611" s="2"/>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="2"/>
@@ -24540,8 +23308,6 @@
       <c r="I612" s="2"/>
       <c r="J612" s="2"/>
       <c r="K612" s="2"/>
-      <c r="L612" s="2"/>
-      <c r="M612" s="2"/>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="2"/>
@@ -24555,8 +23321,6 @@
       <c r="I613" s="2"/>
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
-      <c r="L613" s="2"/>
-      <c r="M613" s="2"/>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="2"/>
@@ -24570,8 +23334,6 @@
       <c r="I614" s="2"/>
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
-      <c r="L614" s="2"/>
-      <c r="M614" s="2"/>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="2"/>
@@ -24585,8 +23347,6 @@
       <c r="I615" s="2"/>
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
-      <c r="L615" s="2"/>
-      <c r="M615" s="2"/>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="2"/>
@@ -24600,8 +23360,6 @@
       <c r="I616" s="2"/>
       <c r="J616" s="2"/>
       <c r="K616" s="2"/>
-      <c r="L616" s="2"/>
-      <c r="M616" s="2"/>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="2"/>
@@ -24615,8 +23373,6 @@
       <c r="I617" s="2"/>
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
-      <c r="L617" s="2"/>
-      <c r="M617" s="2"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="2"/>
@@ -24630,8 +23386,6 @@
       <c r="I618" s="2"/>
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
-      <c r="L618" s="2"/>
-      <c r="M618" s="2"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="2"/>
@@ -24645,8 +23399,6 @@
       <c r="I619" s="2"/>
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
-      <c r="L619" s="2"/>
-      <c r="M619" s="2"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="2"/>
@@ -24660,8 +23412,6 @@
       <c r="I620" s="2"/>
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
-      <c r="L620" s="2"/>
-      <c r="M620" s="2"/>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="2"/>
@@ -24675,8 +23425,6 @@
       <c r="I621" s="2"/>
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
-      <c r="L621" s="2"/>
-      <c r="M621" s="2"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="2"/>
@@ -24690,8 +23438,6 @@
       <c r="I622" s="2"/>
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
-      <c r="L622" s="2"/>
-      <c r="M622" s="2"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="2"/>
@@ -24705,8 +23451,6 @@
       <c r="I623" s="2"/>
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
-      <c r="L623" s="2"/>
-      <c r="M623" s="2"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="2"/>
@@ -24720,8 +23464,6 @@
       <c r="I624" s="2"/>
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
-      <c r="L624" s="2"/>
-      <c r="M624" s="2"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="2"/>
@@ -24735,8 +23477,6 @@
       <c r="I625" s="2"/>
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
-      <c r="L625" s="2"/>
-      <c r="M625" s="2"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="2"/>
@@ -24750,8 +23490,6 @@
       <c r="I626" s="2"/>
       <c r="J626" s="2"/>
       <c r="K626" s="2"/>
-      <c r="L626" s="2"/>
-      <c r="M626" s="2"/>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="2"/>
@@ -24765,8 +23503,6 @@
       <c r="I627" s="2"/>
       <c r="J627" s="2"/>
       <c r="K627" s="2"/>
-      <c r="L627" s="2"/>
-      <c r="M627" s="2"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="2"/>
@@ -24780,8 +23516,6 @@
       <c r="I628" s="2"/>
       <c r="J628" s="2"/>
       <c r="K628" s="2"/>
-      <c r="L628" s="2"/>
-      <c r="M628" s="2"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="2"/>
@@ -24795,8 +23529,6 @@
       <c r="I629" s="2"/>
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
-      <c r="L629" s="2"/>
-      <c r="M629" s="2"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="2"/>
@@ -24810,8 +23542,6 @@
       <c r="I630" s="2"/>
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
-      <c r="L630" s="2"/>
-      <c r="M630" s="2"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="2"/>
@@ -24825,8 +23555,6 @@
       <c r="I631" s="2"/>
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
-      <c r="L631" s="2"/>
-      <c r="M631" s="2"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="2"/>
@@ -24840,8 +23568,6 @@
       <c r="I632" s="2"/>
       <c r="J632" s="2"/>
       <c r="K632" s="2"/>
-      <c r="L632" s="2"/>
-      <c r="M632" s="2"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="2"/>
@@ -24855,8 +23581,6 @@
       <c r="I633" s="2"/>
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
-      <c r="L633" s="2"/>
-      <c r="M633" s="2"/>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="2"/>
@@ -24870,8 +23594,6 @@
       <c r="I634" s="2"/>
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
-      <c r="L634" s="2"/>
-      <c r="M634" s="2"/>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="2"/>
@@ -24885,8 +23607,6 @@
       <c r="I635" s="2"/>
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
-      <c r="L635" s="2"/>
-      <c r="M635" s="2"/>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="2"/>
@@ -24900,8 +23620,6 @@
       <c r="I636" s="2"/>
       <c r="J636" s="2"/>
       <c r="K636" s="2"/>
-      <c r="L636" s="2"/>
-      <c r="M636" s="2"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="2"/>
@@ -24915,8 +23633,6 @@
       <c r="I637" s="2"/>
       <c r="J637" s="2"/>
       <c r="K637" s="2"/>
-      <c r="L637" s="2"/>
-      <c r="M637" s="2"/>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="2"/>
@@ -24930,8 +23646,6 @@
       <c r="I638" s="2"/>
       <c r="J638" s="2"/>
       <c r="K638" s="2"/>
-      <c r="L638" s="2"/>
-      <c r="M638" s="2"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="2"/>
@@ -24945,8 +23659,6 @@
       <c r="I639" s="2"/>
       <c r="J639" s="2"/>
       <c r="K639" s="2"/>
-      <c r="L639" s="2"/>
-      <c r="M639" s="2"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="2"/>
@@ -24960,8 +23672,6 @@
       <c r="I640" s="2"/>
       <c r="J640" s="2"/>
       <c r="K640" s="2"/>
-      <c r="L640" s="2"/>
-      <c r="M640" s="2"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="2"/>
@@ -24975,8 +23685,6 @@
       <c r="I641" s="2"/>
       <c r="J641" s="2"/>
       <c r="K641" s="2"/>
-      <c r="L641" s="2"/>
-      <c r="M641" s="2"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="2"/>
@@ -24990,8 +23698,6 @@
       <c r="I642" s="2"/>
       <c r="J642" s="2"/>
       <c r="K642" s="2"/>
-      <c r="L642" s="2"/>
-      <c r="M642" s="2"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="2"/>
@@ -25005,8 +23711,6 @@
       <c r="I643" s="2"/>
       <c r="J643" s="2"/>
       <c r="K643" s="2"/>
-      <c r="L643" s="2"/>
-      <c r="M643" s="2"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="2"/>
@@ -25020,8 +23724,6 @@
       <c r="I644" s="2"/>
       <c r="J644" s="2"/>
       <c r="K644" s="2"/>
-      <c r="L644" s="2"/>
-      <c r="M644" s="2"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="2"/>
@@ -25035,8 +23737,6 @@
       <c r="I645" s="2"/>
       <c r="J645" s="2"/>
       <c r="K645" s="2"/>
-      <c r="L645" s="2"/>
-      <c r="M645" s="2"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="2"/>
@@ -25050,8 +23750,6 @@
       <c r="I646" s="2"/>
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
-      <c r="L646" s="2"/>
-      <c r="M646" s="2"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="2"/>
@@ -25065,8 +23763,6 @@
       <c r="I647" s="2"/>
       <c r="J647" s="2"/>
       <c r="K647" s="2"/>
-      <c r="L647" s="2"/>
-      <c r="M647" s="2"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="2"/>
@@ -25080,8 +23776,6 @@
       <c r="I648" s="2"/>
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
-      <c r="L648" s="2"/>
-      <c r="M648" s="2"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="2"/>
@@ -25095,8 +23789,6 @@
       <c r="I649" s="2"/>
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
-      <c r="L649" s="2"/>
-      <c r="M649" s="2"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="2"/>
@@ -25110,8 +23802,6 @@
       <c r="I650" s="2"/>
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
-      <c r="L650" s="2"/>
-      <c r="M650" s="2"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="2"/>
@@ -25125,8 +23815,6 @@
       <c r="I651" s="2"/>
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
-      <c r="L651" s="2"/>
-      <c r="M651" s="2"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="2"/>
@@ -25140,8 +23828,6 @@
       <c r="I652" s="2"/>
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
-      <c r="L652" s="2"/>
-      <c r="M652" s="2"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="2"/>
@@ -25155,8 +23841,6 @@
       <c r="I653" s="2"/>
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
-      <c r="L653" s="2"/>
-      <c r="M653" s="2"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="2"/>
@@ -25170,8 +23854,6 @@
       <c r="I654" s="2"/>
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
-      <c r="L654" s="2"/>
-      <c r="M654" s="2"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="2"/>
@@ -25185,8 +23867,6 @@
       <c r="I655" s="2"/>
       <c r="J655" s="2"/>
       <c r="K655" s="2"/>
-      <c r="L655" s="2"/>
-      <c r="M655" s="2"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="2"/>
@@ -25200,8 +23880,6 @@
       <c r="I656" s="2"/>
       <c r="J656" s="2"/>
       <c r="K656" s="2"/>
-      <c r="L656" s="2"/>
-      <c r="M656" s="2"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="2"/>
@@ -25215,8 +23893,6 @@
       <c r="I657" s="2"/>
       <c r="J657" s="2"/>
       <c r="K657" s="2"/>
-      <c r="L657" s="2"/>
-      <c r="M657" s="2"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="2"/>
@@ -25230,8 +23906,6 @@
       <c r="I658" s="2"/>
       <c r="J658" s="2"/>
       <c r="K658" s="2"/>
-      <c r="L658" s="2"/>
-      <c r="M658" s="2"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="2"/>
@@ -25245,8 +23919,6 @@
       <c r="I659" s="2"/>
       <c r="J659" s="2"/>
       <c r="K659" s="2"/>
-      <c r="L659" s="2"/>
-      <c r="M659" s="2"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="2"/>
@@ -25260,8 +23932,6 @@
       <c r="I660" s="2"/>
       <c r="J660" s="2"/>
       <c r="K660" s="2"/>
-      <c r="L660" s="2"/>
-      <c r="M660" s="2"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="2"/>
@@ -25275,8 +23945,6 @@
       <c r="I661" s="2"/>
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
-      <c r="L661" s="2"/>
-      <c r="M661" s="2"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="2"/>
@@ -25290,8 +23958,6 @@
       <c r="I662" s="2"/>
       <c r="J662" s="2"/>
       <c r="K662" s="2"/>
-      <c r="L662" s="2"/>
-      <c r="M662" s="2"/>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="2"/>
@@ -25305,8 +23971,6 @@
       <c r="I663" s="2"/>
       <c r="J663" s="2"/>
       <c r="K663" s="2"/>
-      <c r="L663" s="2"/>
-      <c r="M663" s="2"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="2"/>
@@ -25320,8 +23984,6 @@
       <c r="I664" s="2"/>
       <c r="J664" s="2"/>
       <c r="K664" s="2"/>
-      <c r="L664" s="2"/>
-      <c r="M664" s="2"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="2"/>
@@ -25335,8 +23997,6 @@
       <c r="I665" s="2"/>
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
-      <c r="L665" s="2"/>
-      <c r="M665" s="2"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="2"/>
@@ -25350,8 +24010,6 @@
       <c r="I666" s="2"/>
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
-      <c r="L666" s="2"/>
-      <c r="M666" s="2"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="2"/>
@@ -25365,8 +24023,6 @@
       <c r="I667" s="2"/>
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
-      <c r="L667" s="2"/>
-      <c r="M667" s="2"/>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="2"/>
@@ -25380,8 +24036,6 @@
       <c r="I668" s="2"/>
       <c r="J668" s="2"/>
       <c r="K668" s="2"/>
-      <c r="L668" s="2"/>
-      <c r="M668" s="2"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="2"/>
@@ -25395,8 +24049,6 @@
       <c r="I669" s="2"/>
       <c r="J669" s="2"/>
       <c r="K669" s="2"/>
-      <c r="L669" s="2"/>
-      <c r="M669" s="2"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="2"/>
@@ -25410,8 +24062,6 @@
       <c r="I670" s="2"/>
       <c r="J670" s="2"/>
       <c r="K670" s="2"/>
-      <c r="L670" s="2"/>
-      <c r="M670" s="2"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="2"/>
@@ -25425,8 +24075,6 @@
       <c r="I671" s="2"/>
       <c r="J671" s="2"/>
       <c r="K671" s="2"/>
-      <c r="L671" s="2"/>
-      <c r="M671" s="2"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="2"/>
@@ -25440,8 +24088,6 @@
       <c r="I672" s="2"/>
       <c r="J672" s="2"/>
       <c r="K672" s="2"/>
-      <c r="L672" s="2"/>
-      <c r="M672" s="2"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="2"/>
@@ -25455,8 +24101,6 @@
       <c r="I673" s="2"/>
       <c r="J673" s="2"/>
       <c r="K673" s="2"/>
-      <c r="L673" s="2"/>
-      <c r="M673" s="2"/>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="2"/>
@@ -25470,8 +24114,6 @@
       <c r="I674" s="2"/>
       <c r="J674" s="2"/>
       <c r="K674" s="2"/>
-      <c r="L674" s="2"/>
-      <c r="M674" s="2"/>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="2"/>
@@ -25485,8 +24127,6 @@
       <c r="I675" s="2"/>
       <c r="J675" s="2"/>
       <c r="K675" s="2"/>
-      <c r="L675" s="2"/>
-      <c r="M675" s="2"/>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="2"/>
@@ -25500,8 +24140,6 @@
       <c r="I676" s="2"/>
       <c r="J676" s="2"/>
       <c r="K676" s="2"/>
-      <c r="L676" s="2"/>
-      <c r="M676" s="2"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="2"/>
@@ -25515,8 +24153,6 @@
       <c r="I677" s="2"/>
       <c r="J677" s="2"/>
       <c r="K677" s="2"/>
-      <c r="L677" s="2"/>
-      <c r="M677" s="2"/>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="2"/>
@@ -25530,8 +24166,6 @@
       <c r="I678" s="2"/>
       <c r="J678" s="2"/>
       <c r="K678" s="2"/>
-      <c r="L678" s="2"/>
-      <c r="M678" s="2"/>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="2"/>
@@ -25545,8 +24179,6 @@
       <c r="I679" s="2"/>
       <c r="J679" s="2"/>
       <c r="K679" s="2"/>
-      <c r="L679" s="2"/>
-      <c r="M679" s="2"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="2"/>
@@ -25560,8 +24192,6 @@
       <c r="I680" s="2"/>
       <c r="J680" s="2"/>
       <c r="K680" s="2"/>
-      <c r="L680" s="2"/>
-      <c r="M680" s="2"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="2"/>
@@ -25575,8 +24205,6 @@
       <c r="I681" s="2"/>
       <c r="J681" s="2"/>
       <c r="K681" s="2"/>
-      <c r="L681" s="2"/>
-      <c r="M681" s="2"/>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="2"/>
@@ -25590,8 +24218,6 @@
       <c r="I682" s="2"/>
       <c r="J682" s="2"/>
       <c r="K682" s="2"/>
-      <c r="L682" s="2"/>
-      <c r="M682" s="2"/>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="2"/>
@@ -25605,8 +24231,6 @@
       <c r="I683" s="2"/>
       <c r="J683" s="2"/>
       <c r="K683" s="2"/>
-      <c r="L683" s="2"/>
-      <c r="M683" s="2"/>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="2"/>
@@ -25620,8 +24244,6 @@
       <c r="I684" s="2"/>
       <c r="J684" s="2"/>
       <c r="K684" s="2"/>
-      <c r="L684" s="2"/>
-      <c r="M684" s="2"/>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="2"/>
@@ -25635,8 +24257,6 @@
       <c r="I685" s="2"/>
       <c r="J685" s="2"/>
       <c r="K685" s="2"/>
-      <c r="L685" s="2"/>
-      <c r="M685" s="2"/>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="2"/>
@@ -25650,8 +24270,6 @@
       <c r="I686" s="2"/>
       <c r="J686" s="2"/>
       <c r="K686" s="2"/>
-      <c r="L686" s="2"/>
-      <c r="M686" s="2"/>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="2"/>
@@ -25665,8 +24283,6 @@
       <c r="I687" s="2"/>
       <c r="J687" s="2"/>
       <c r="K687" s="2"/>
-      <c r="L687" s="2"/>
-      <c r="M687" s="2"/>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="2"/>
@@ -25680,8 +24296,6 @@
       <c r="I688" s="2"/>
       <c r="J688" s="2"/>
       <c r="K688" s="2"/>
-      <c r="L688" s="2"/>
-      <c r="M688" s="2"/>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="2"/>
@@ -25695,8 +24309,6 @@
       <c r="I689" s="2"/>
       <c r="J689" s="2"/>
       <c r="K689" s="2"/>
-      <c r="L689" s="2"/>
-      <c r="M689" s="2"/>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="2"/>
@@ -25710,8 +24322,6 @@
       <c r="I690" s="2"/>
       <c r="J690" s="2"/>
       <c r="K690" s="2"/>
-      <c r="L690" s="2"/>
-      <c r="M690" s="2"/>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="2"/>
@@ -25725,8 +24335,6 @@
       <c r="I691" s="2"/>
       <c r="J691" s="2"/>
       <c r="K691" s="2"/>
-      <c r="L691" s="2"/>
-      <c r="M691" s="2"/>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="2"/>
@@ -25740,8 +24348,6 @@
       <c r="I692" s="2"/>
       <c r="J692" s="2"/>
       <c r="K692" s="2"/>
-      <c r="L692" s="2"/>
-      <c r="M692" s="2"/>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="2"/>
@@ -25755,8 +24361,6 @@
       <c r="I693" s="2"/>
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
-      <c r="L693" s="2"/>
-      <c r="M693" s="2"/>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="2"/>
@@ -25770,8 +24374,6 @@
       <c r="I694" s="2"/>
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
-      <c r="L694" s="2"/>
-      <c r="M694" s="2"/>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="2"/>
@@ -25785,8 +24387,6 @@
       <c r="I695" s="2"/>
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
-      <c r="L695" s="2"/>
-      <c r="M695" s="2"/>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="2"/>
@@ -25800,8 +24400,6 @@
       <c r="I696" s="2"/>
       <c r="J696" s="2"/>
       <c r="K696" s="2"/>
-      <c r="L696" s="2"/>
-      <c r="M696" s="2"/>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="2"/>
@@ -25815,8 +24413,6 @@
       <c r="I697" s="2"/>
       <c r="J697" s="2"/>
       <c r="K697" s="2"/>
-      <c r="L697" s="2"/>
-      <c r="M697" s="2"/>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="2"/>
@@ -25830,8 +24426,6 @@
       <c r="I698" s="2"/>
       <c r="J698" s="2"/>
       <c r="K698" s="2"/>
-      <c r="L698" s="2"/>
-      <c r="M698" s="2"/>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="2"/>
@@ -25845,8 +24439,6 @@
       <c r="I699" s="2"/>
       <c r="J699" s="2"/>
       <c r="K699" s="2"/>
-      <c r="L699" s="2"/>
-      <c r="M699" s="2"/>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="2"/>
@@ -25860,8 +24452,6 @@
       <c r="I700" s="2"/>
       <c r="J700" s="2"/>
       <c r="K700" s="2"/>
-      <c r="L700" s="2"/>
-      <c r="M700" s="2"/>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="2"/>
@@ -25875,8 +24465,6 @@
       <c r="I701" s="2"/>
       <c r="J701" s="2"/>
       <c r="K701" s="2"/>
-      <c r="L701" s="2"/>
-      <c r="M701" s="2"/>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="2"/>
@@ -25890,8 +24478,6 @@
       <c r="I702" s="2"/>
       <c r="J702" s="2"/>
       <c r="K702" s="2"/>
-      <c r="L702" s="2"/>
-      <c r="M702" s="2"/>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="2"/>
@@ -25905,8 +24491,6 @@
       <c r="I703" s="2"/>
       <c r="J703" s="2"/>
       <c r="K703" s="2"/>
-      <c r="L703" s="2"/>
-      <c r="M703" s="2"/>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="2"/>
@@ -25920,8 +24504,6 @@
       <c r="I704" s="2"/>
       <c r="J704" s="2"/>
       <c r="K704" s="2"/>
-      <c r="L704" s="2"/>
-      <c r="M704" s="2"/>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="2"/>
@@ -25935,8 +24517,6 @@
       <c r="I705" s="2"/>
       <c r="J705" s="2"/>
       <c r="K705" s="2"/>
-      <c r="L705" s="2"/>
-      <c r="M705" s="2"/>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="2"/>
@@ -25950,8 +24530,6 @@
       <c r="I706" s="2"/>
       <c r="J706" s="2"/>
       <c r="K706" s="2"/>
-      <c r="L706" s="2"/>
-      <c r="M706" s="2"/>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="2"/>
@@ -25965,8 +24543,6 @@
       <c r="I707" s="2"/>
       <c r="J707" s="2"/>
       <c r="K707" s="2"/>
-      <c r="L707" s="2"/>
-      <c r="M707" s="2"/>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="2"/>
@@ -25980,8 +24556,6 @@
       <c r="I708" s="2"/>
       <c r="J708" s="2"/>
       <c r="K708" s="2"/>
-      <c r="L708" s="2"/>
-      <c r="M708" s="2"/>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="2"/>
@@ -25995,8 +24569,6 @@
       <c r="I709" s="2"/>
       <c r="J709" s="2"/>
       <c r="K709" s="2"/>
-      <c r="L709" s="2"/>
-      <c r="M709" s="2"/>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="2"/>
@@ -26010,8 +24582,6 @@
       <c r="I710" s="2"/>
       <c r="J710" s="2"/>
       <c r="K710" s="2"/>
-      <c r="L710" s="2"/>
-      <c r="M710" s="2"/>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="2"/>
@@ -26025,8 +24595,6 @@
       <c r="I711" s="2"/>
       <c r="J711" s="2"/>
       <c r="K711" s="2"/>
-      <c r="L711" s="2"/>
-      <c r="M711" s="2"/>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="2"/>
@@ -26040,8 +24608,6 @@
       <c r="I712" s="2"/>
       <c r="J712" s="2"/>
       <c r="K712" s="2"/>
-      <c r="L712" s="2"/>
-      <c r="M712" s="2"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="2"/>
@@ -26055,8 +24621,6 @@
       <c r="I713" s="2"/>
       <c r="J713" s="2"/>
       <c r="K713" s="2"/>
-      <c r="L713" s="2"/>
-      <c r="M713" s="2"/>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="2"/>
@@ -26070,8 +24634,6 @@
       <c r="I714" s="2"/>
       <c r="J714" s="2"/>
       <c r="K714" s="2"/>
-      <c r="L714" s="2"/>
-      <c r="M714" s="2"/>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="2"/>
@@ -26085,8 +24647,6 @@
       <c r="I715" s="2"/>
       <c r="J715" s="2"/>
       <c r="K715" s="2"/>
-      <c r="L715" s="2"/>
-      <c r="M715" s="2"/>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="2"/>
@@ -26100,8 +24660,6 @@
       <c r="I716" s="2"/>
       <c r="J716" s="2"/>
       <c r="K716" s="2"/>
-      <c r="L716" s="2"/>
-      <c r="M716" s="2"/>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="2"/>
@@ -26115,8 +24673,6 @@
       <c r="I717" s="2"/>
       <c r="J717" s="2"/>
       <c r="K717" s="2"/>
-      <c r="L717" s="2"/>
-      <c r="M717" s="2"/>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="2"/>
@@ -26130,8 +24686,6 @@
       <c r="I718" s="2"/>
       <c r="J718" s="2"/>
       <c r="K718" s="2"/>
-      <c r="L718" s="2"/>
-      <c r="M718" s="2"/>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="2"/>
@@ -26145,8 +24699,6 @@
       <c r="I719" s="2"/>
       <c r="J719" s="2"/>
       <c r="K719" s="2"/>
-      <c r="L719" s="2"/>
-      <c r="M719" s="2"/>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="2"/>
@@ -26160,8 +24712,6 @@
       <c r="I720" s="2"/>
       <c r="J720" s="2"/>
       <c r="K720" s="2"/>
-      <c r="L720" s="2"/>
-      <c r="M720" s="2"/>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="2"/>
@@ -26175,8 +24725,6 @@
       <c r="I721" s="2"/>
       <c r="J721" s="2"/>
       <c r="K721" s="2"/>
-      <c r="L721" s="2"/>
-      <c r="M721" s="2"/>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="2"/>
@@ -26190,8 +24738,6 @@
       <c r="I722" s="2"/>
       <c r="J722" s="2"/>
       <c r="K722" s="2"/>
-      <c r="L722" s="2"/>
-      <c r="M722" s="2"/>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="2"/>
@@ -26205,8 +24751,6 @@
       <c r="I723" s="2"/>
       <c r="J723" s="2"/>
       <c r="K723" s="2"/>
-      <c r="L723" s="2"/>
-      <c r="M723" s="2"/>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="2"/>
@@ -26220,8 +24764,6 @@
       <c r="I724" s="2"/>
       <c r="J724" s="2"/>
       <c r="K724" s="2"/>
-      <c r="L724" s="2"/>
-      <c r="M724" s="2"/>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="2"/>
@@ -26235,8 +24777,6 @@
       <c r="I725" s="2"/>
       <c r="J725" s="2"/>
       <c r="K725" s="2"/>
-      <c r="L725" s="2"/>
-      <c r="M725" s="2"/>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="2"/>
@@ -26250,8 +24790,6 @@
       <c r="I726" s="2"/>
       <c r="J726" s="2"/>
       <c r="K726" s="2"/>
-      <c r="L726" s="2"/>
-      <c r="M726" s="2"/>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="2"/>
@@ -26265,8 +24803,6 @@
       <c r="I727" s="2"/>
       <c r="J727" s="2"/>
       <c r="K727" s="2"/>
-      <c r="L727" s="2"/>
-      <c r="M727" s="2"/>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="2"/>
@@ -26280,8 +24816,6 @@
       <c r="I728" s="2"/>
       <c r="J728" s="2"/>
       <c r="K728" s="2"/>
-      <c r="L728" s="2"/>
-      <c r="M728" s="2"/>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="2"/>
@@ -26295,8 +24829,6 @@
       <c r="I729" s="2"/>
       <c r="J729" s="2"/>
       <c r="K729" s="2"/>
-      <c r="L729" s="2"/>
-      <c r="M729" s="2"/>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="2"/>
@@ -26310,8 +24842,6 @@
       <c r="I730" s="2"/>
       <c r="J730" s="2"/>
       <c r="K730" s="2"/>
-      <c r="L730" s="2"/>
-      <c r="M730" s="2"/>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="2"/>
@@ -26325,8 +24855,6 @@
       <c r="I731" s="2"/>
       <c r="J731" s="2"/>
       <c r="K731" s="2"/>
-      <c r="L731" s="2"/>
-      <c r="M731" s="2"/>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="2"/>
@@ -26340,8 +24868,6 @@
       <c r="I732" s="2"/>
       <c r="J732" s="2"/>
       <c r="K732" s="2"/>
-      <c r="L732" s="2"/>
-      <c r="M732" s="2"/>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="2"/>
@@ -26355,8 +24881,6 @@
       <c r="I733" s="2"/>
       <c r="J733" s="2"/>
       <c r="K733" s="2"/>
-      <c r="L733" s="2"/>
-      <c r="M733" s="2"/>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="2"/>
@@ -26370,8 +24894,6 @@
       <c r="I734" s="2"/>
       <c r="J734" s="2"/>
       <c r="K734" s="2"/>
-      <c r="L734" s="2"/>
-      <c r="M734" s="2"/>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="2"/>
@@ -26385,8 +24907,6 @@
       <c r="I735" s="2"/>
       <c r="J735" s="2"/>
       <c r="K735" s="2"/>
-      <c r="L735" s="2"/>
-      <c r="M735" s="2"/>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="2"/>
@@ -26400,8 +24920,6 @@
       <c r="I736" s="2"/>
       <c r="J736" s="2"/>
       <c r="K736" s="2"/>
-      <c r="L736" s="2"/>
-      <c r="M736" s="2"/>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="2"/>
@@ -26415,8 +24933,6 @@
       <c r="I737" s="2"/>
       <c r="J737" s="2"/>
       <c r="K737" s="2"/>
-      <c r="L737" s="2"/>
-      <c r="M737" s="2"/>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="2"/>
@@ -26430,8 +24946,6 @@
       <c r="I738" s="2"/>
       <c r="J738" s="2"/>
       <c r="K738" s="2"/>
-      <c r="L738" s="2"/>
-      <c r="M738" s="2"/>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="2"/>
@@ -26445,8 +24959,6 @@
       <c r="I739" s="2"/>
       <c r="J739" s="2"/>
       <c r="K739" s="2"/>
-      <c r="L739" s="2"/>
-      <c r="M739" s="2"/>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="2"/>
@@ -26460,8 +24972,6 @@
       <c r="I740" s="2"/>
       <c r="J740" s="2"/>
       <c r="K740" s="2"/>
-      <c r="L740" s="2"/>
-      <c r="M740" s="2"/>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="2"/>
@@ -26475,8 +24985,6 @@
       <c r="I741" s="2"/>
       <c r="J741" s="2"/>
       <c r="K741" s="2"/>
-      <c r="L741" s="2"/>
-      <c r="M741" s="2"/>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="2"/>
@@ -26490,8 +24998,6 @@
       <c r="I742" s="2"/>
       <c r="J742" s="2"/>
       <c r="K742" s="2"/>
-      <c r="L742" s="2"/>
-      <c r="M742" s="2"/>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="2"/>
@@ -26505,8 +25011,6 @@
       <c r="I743" s="2"/>
       <c r="J743" s="2"/>
       <c r="K743" s="2"/>
-      <c r="L743" s="2"/>
-      <c r="M743" s="2"/>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="2"/>
@@ -26520,8 +25024,6 @@
       <c r="I744" s="2"/>
       <c r="J744" s="2"/>
       <c r="K744" s="2"/>
-      <c r="L744" s="2"/>
-      <c r="M744" s="2"/>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="2"/>
@@ -26535,8 +25037,6 @@
       <c r="I745" s="2"/>
       <c r="J745" s="2"/>
       <c r="K745" s="2"/>
-      <c r="L745" s="2"/>
-      <c r="M745" s="2"/>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="2"/>
@@ -26550,8 +25050,6 @@
       <c r="I746" s="2"/>
       <c r="J746" s="2"/>
       <c r="K746" s="2"/>
-      <c r="L746" s="2"/>
-      <c r="M746" s="2"/>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="2"/>
@@ -26565,8 +25063,6 @@
       <c r="I747" s="2"/>
       <c r="J747" s="2"/>
       <c r="K747" s="2"/>
-      <c r="L747" s="2"/>
-      <c r="M747" s="2"/>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="2"/>
@@ -26580,8 +25076,6 @@
       <c r="I748" s="2"/>
       <c r="J748" s="2"/>
       <c r="K748" s="2"/>
-      <c r="L748" s="2"/>
-      <c r="M748" s="2"/>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="2"/>
@@ -26595,8 +25089,6 @@
       <c r="I749" s="2"/>
       <c r="J749" s="2"/>
       <c r="K749" s="2"/>
-      <c r="L749" s="2"/>
-      <c r="M749" s="2"/>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="2"/>
@@ -26610,8 +25102,6 @@
       <c r="I750" s="2"/>
       <c r="J750" s="2"/>
       <c r="K750" s="2"/>
-      <c r="L750" s="2"/>
-      <c r="M750" s="2"/>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="2"/>
@@ -26625,8 +25115,6 @@
       <c r="I751" s="2"/>
       <c r="J751" s="2"/>
       <c r="K751" s="2"/>
-      <c r="L751" s="2"/>
-      <c r="M751" s="2"/>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="2"/>
@@ -26640,8 +25128,6 @@
       <c r="I752" s="2"/>
       <c r="J752" s="2"/>
       <c r="K752" s="2"/>
-      <c r="L752" s="2"/>
-      <c r="M752" s="2"/>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="2"/>
@@ -26655,8 +25141,6 @@
       <c r="I753" s="2"/>
       <c r="J753" s="2"/>
       <c r="K753" s="2"/>
-      <c r="L753" s="2"/>
-      <c r="M753" s="2"/>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="2"/>
@@ -26670,8 +25154,6 @@
       <c r="I754" s="2"/>
       <c r="J754" s="2"/>
       <c r="K754" s="2"/>
-      <c r="L754" s="2"/>
-      <c r="M754" s="2"/>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="2"/>
@@ -26685,8 +25167,6 @@
       <c r="I755" s="2"/>
       <c r="J755" s="2"/>
       <c r="K755" s="2"/>
-      <c r="L755" s="2"/>
-      <c r="M755" s="2"/>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="2"/>
@@ -26700,8 +25180,6 @@
       <c r="I756" s="2"/>
       <c r="J756" s="2"/>
       <c r="K756" s="2"/>
-      <c r="L756" s="2"/>
-      <c r="M756" s="2"/>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="2"/>
@@ -26715,8 +25193,6 @@
       <c r="I757" s="2"/>
       <c r="J757" s="2"/>
       <c r="K757" s="2"/>
-      <c r="L757" s="2"/>
-      <c r="M757" s="2"/>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="2"/>
@@ -26730,8 +25206,6 @@
       <c r="I758" s="2"/>
       <c r="J758" s="2"/>
       <c r="K758" s="2"/>
-      <c r="L758" s="2"/>
-      <c r="M758" s="2"/>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="2"/>
@@ -26745,8 +25219,6 @@
       <c r="I759" s="2"/>
       <c r="J759" s="2"/>
       <c r="K759" s="2"/>
-      <c r="L759" s="2"/>
-      <c r="M759" s="2"/>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="2"/>
@@ -26760,8 +25232,6 @@
       <c r="I760" s="2"/>
       <c r="J760" s="2"/>
       <c r="K760" s="2"/>
-      <c r="L760" s="2"/>
-      <c r="M760" s="2"/>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="2"/>
@@ -26775,8 +25245,6 @@
       <c r="I761" s="2"/>
       <c r="J761" s="2"/>
       <c r="K761" s="2"/>
-      <c r="L761" s="2"/>
-      <c r="M761" s="2"/>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="2"/>
@@ -26790,8 +25258,6 @@
       <c r="I762" s="2"/>
       <c r="J762" s="2"/>
       <c r="K762" s="2"/>
-      <c r="L762" s="2"/>
-      <c r="M762" s="2"/>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="2"/>
@@ -26805,8 +25271,6 @@
       <c r="I763" s="2"/>
       <c r="J763" s="2"/>
       <c r="K763" s="2"/>
-      <c r="L763" s="2"/>
-      <c r="M763" s="2"/>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="2"/>
@@ -26820,8 +25284,6 @@
       <c r="I764" s="2"/>
       <c r="J764" s="2"/>
       <c r="K764" s="2"/>
-      <c r="L764" s="2"/>
-      <c r="M764" s="2"/>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="2"/>
@@ -26835,8 +25297,6 @@
       <c r="I765" s="2"/>
       <c r="J765" s="2"/>
       <c r="K765" s="2"/>
-      <c r="L765" s="2"/>
-      <c r="M765" s="2"/>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="2"/>
@@ -26850,8 +25310,6 @@
       <c r="I766" s="2"/>
       <c r="J766" s="2"/>
       <c r="K766" s="2"/>
-      <c r="L766" s="2"/>
-      <c r="M766" s="2"/>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="2"/>
@@ -26865,8 +25323,6 @@
       <c r="I767" s="2"/>
       <c r="J767" s="2"/>
       <c r="K767" s="2"/>
-      <c r="L767" s="2"/>
-      <c r="M767" s="2"/>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="2"/>
@@ -26880,8 +25336,6 @@
       <c r="I768" s="2"/>
       <c r="J768" s="2"/>
       <c r="K768" s="2"/>
-      <c r="L768" s="2"/>
-      <c r="M768" s="2"/>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="2"/>
@@ -26895,8 +25349,6 @@
       <c r="I769" s="2"/>
       <c r="J769" s="2"/>
       <c r="K769" s="2"/>
-      <c r="L769" s="2"/>
-      <c r="M769" s="2"/>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="2"/>
@@ -26910,8 +25362,6 @@
       <c r="I770" s="2"/>
       <c r="J770" s="2"/>
       <c r="K770" s="2"/>
-      <c r="L770" s="2"/>
-      <c r="M770" s="2"/>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="2"/>
@@ -26925,8 +25375,6 @@
       <c r="I771" s="2"/>
       <c r="J771" s="2"/>
       <c r="K771" s="2"/>
-      <c r="L771" s="2"/>
-      <c r="M771" s="2"/>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="2"/>
@@ -26940,8 +25388,6 @@
       <c r="I772" s="2"/>
       <c r="J772" s="2"/>
       <c r="K772" s="2"/>
-      <c r="L772" s="2"/>
-      <c r="M772" s="2"/>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="2"/>
@@ -26955,8 +25401,6 @@
       <c r="I773" s="2"/>
       <c r="J773" s="2"/>
       <c r="K773" s="2"/>
-      <c r="L773" s="2"/>
-      <c r="M773" s="2"/>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="2"/>
@@ -26970,8 +25414,6 @@
       <c r="I774" s="2"/>
       <c r="J774" s="2"/>
       <c r="K774" s="2"/>
-      <c r="L774" s="2"/>
-      <c r="M774" s="2"/>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="2"/>
@@ -26985,8 +25427,6 @@
       <c r="I775" s="2"/>
       <c r="J775" s="2"/>
       <c r="K775" s="2"/>
-      <c r="L775" s="2"/>
-      <c r="M775" s="2"/>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="2"/>
@@ -27000,8 +25440,6 @@
       <c r="I776" s="2"/>
       <c r="J776" s="2"/>
       <c r="K776" s="2"/>
-      <c r="L776" s="2"/>
-      <c r="M776" s="2"/>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="2"/>
@@ -27015,8 +25453,6 @@
       <c r="I777" s="2"/>
       <c r="J777" s="2"/>
       <c r="K777" s="2"/>
-      <c r="L777" s="2"/>
-      <c r="M777" s="2"/>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="2"/>
@@ -27030,8 +25466,6 @@
       <c r="I778" s="2"/>
       <c r="J778" s="2"/>
       <c r="K778" s="2"/>
-      <c r="L778" s="2"/>
-      <c r="M778" s="2"/>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="2"/>
@@ -27045,8 +25479,6 @@
       <c r="I779" s="2"/>
       <c r="J779" s="2"/>
       <c r="K779" s="2"/>
-      <c r="L779" s="2"/>
-      <c r="M779" s="2"/>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="2"/>
@@ -27060,8 +25492,6 @@
       <c r="I780" s="2"/>
       <c r="J780" s="2"/>
       <c r="K780" s="2"/>
-      <c r="L780" s="2"/>
-      <c r="M780" s="2"/>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="2"/>
@@ -27075,8 +25505,6 @@
       <c r="I781" s="2"/>
       <c r="J781" s="2"/>
       <c r="K781" s="2"/>
-      <c r="L781" s="2"/>
-      <c r="M781" s="2"/>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="2"/>
@@ -27090,8 +25518,6 @@
       <c r="I782" s="2"/>
       <c r="J782" s="2"/>
       <c r="K782" s="2"/>
-      <c r="L782" s="2"/>
-      <c r="M782" s="2"/>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="2"/>
@@ -27105,8 +25531,6 @@
       <c r="I783" s="2"/>
       <c r="J783" s="2"/>
       <c r="K783" s="2"/>
-      <c r="L783" s="2"/>
-      <c r="M783" s="2"/>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="2"/>
@@ -27120,8 +25544,6 @@
       <c r="I784" s="2"/>
       <c r="J784" s="2"/>
       <c r="K784" s="2"/>
-      <c r="L784" s="2"/>
-      <c r="M784" s="2"/>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="2"/>
@@ -27135,8 +25557,6 @@
       <c r="I785" s="2"/>
       <c r="J785" s="2"/>
       <c r="K785" s="2"/>
-      <c r="L785" s="2"/>
-      <c r="M785" s="2"/>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="2"/>
@@ -27150,8 +25570,6 @@
       <c r="I786" s="2"/>
       <c r="J786" s="2"/>
       <c r="K786" s="2"/>
-      <c r="L786" s="2"/>
-      <c r="M786" s="2"/>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="2"/>
@@ -27165,8 +25583,6 @@
       <c r="I787" s="2"/>
       <c r="J787" s="2"/>
       <c r="K787" s="2"/>
-      <c r="L787" s="2"/>
-      <c r="M787" s="2"/>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="2"/>
@@ -27180,8 +25596,6 @@
       <c r="I788" s="2"/>
       <c r="J788" s="2"/>
       <c r="K788" s="2"/>
-      <c r="L788" s="2"/>
-      <c r="M788" s="2"/>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="2"/>
@@ -27195,8 +25609,6 @@
       <c r="I789" s="2"/>
       <c r="J789" s="2"/>
       <c r="K789" s="2"/>
-      <c r="L789" s="2"/>
-      <c r="M789" s="2"/>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="2"/>
@@ -27210,8 +25622,6 @@
       <c r="I790" s="2"/>
       <c r="J790" s="2"/>
       <c r="K790" s="2"/>
-      <c r="L790" s="2"/>
-      <c r="M790" s="2"/>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="2"/>
@@ -27225,8 +25635,6 @@
       <c r="I791" s="2"/>
       <c r="J791" s="2"/>
       <c r="K791" s="2"/>
-      <c r="L791" s="2"/>
-      <c r="M791" s="2"/>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="2"/>
@@ -27240,8 +25648,6 @@
       <c r="I792" s="2"/>
       <c r="J792" s="2"/>
       <c r="K792" s="2"/>
-      <c r="L792" s="2"/>
-      <c r="M792" s="2"/>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="2"/>
@@ -27255,8 +25661,6 @@
       <c r="I793" s="2"/>
       <c r="J793" s="2"/>
       <c r="K793" s="2"/>
-      <c r="L793" s="2"/>
-      <c r="M793" s="2"/>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="2"/>
@@ -27270,8 +25674,6 @@
       <c r="I794" s="2"/>
       <c r="J794" s="2"/>
       <c r="K794" s="2"/>
-      <c r="L794" s="2"/>
-      <c r="M794" s="2"/>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="2"/>
@@ -27285,8 +25687,6 @@
       <c r="I795" s="2"/>
       <c r="J795" s="2"/>
       <c r="K795" s="2"/>
-      <c r="L795" s="2"/>
-      <c r="M795" s="2"/>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="2"/>
@@ -27300,8 +25700,6 @@
       <c r="I796" s="2"/>
       <c r="J796" s="2"/>
       <c r="K796" s="2"/>
-      <c r="L796" s="2"/>
-      <c r="M796" s="2"/>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="2"/>
@@ -27315,8 +25713,6 @@
       <c r="I797" s="2"/>
       <c r="J797" s="2"/>
       <c r="K797" s="2"/>
-      <c r="L797" s="2"/>
-      <c r="M797" s="2"/>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="2"/>
@@ -27330,8 +25726,6 @@
       <c r="I798" s="2"/>
       <c r="J798" s="2"/>
       <c r="K798" s="2"/>
-      <c r="L798" s="2"/>
-      <c r="M798" s="2"/>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="2"/>
@@ -27345,8 +25739,6 @@
       <c r="I799" s="2"/>
       <c r="J799" s="2"/>
       <c r="K799" s="2"/>
-      <c r="L799" s="2"/>
-      <c r="M799" s="2"/>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="2"/>
@@ -27360,8 +25752,6 @@
       <c r="I800" s="2"/>
       <c r="J800" s="2"/>
       <c r="K800" s="2"/>
-      <c r="L800" s="2"/>
-      <c r="M800" s="2"/>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="2"/>
@@ -27375,8 +25765,6 @@
       <c r="I801" s="2"/>
       <c r="J801" s="2"/>
       <c r="K801" s="2"/>
-      <c r="L801" s="2"/>
-      <c r="M801" s="2"/>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="2"/>
@@ -27390,8 +25778,6 @@
       <c r="I802" s="2"/>
       <c r="J802" s="2"/>
       <c r="K802" s="2"/>
-      <c r="L802" s="2"/>
-      <c r="M802" s="2"/>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="2"/>
@@ -27405,8 +25791,6 @@
       <c r="I803" s="2"/>
       <c r="J803" s="2"/>
       <c r="K803" s="2"/>
-      <c r="L803" s="2"/>
-      <c r="M803" s="2"/>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="2"/>
@@ -27420,8 +25804,6 @@
       <c r="I804" s="2"/>
       <c r="J804" s="2"/>
       <c r="K804" s="2"/>
-      <c r="L804" s="2"/>
-      <c r="M804" s="2"/>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="2"/>
@@ -27435,8 +25817,6 @@
       <c r="I805" s="2"/>
       <c r="J805" s="2"/>
       <c r="K805" s="2"/>
-      <c r="L805" s="2"/>
-      <c r="M805" s="2"/>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="2"/>
@@ -27450,8 +25830,6 @@
       <c r="I806" s="2"/>
       <c r="J806" s="2"/>
       <c r="K806" s="2"/>
-      <c r="L806" s="2"/>
-      <c r="M806" s="2"/>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="2"/>
@@ -27465,8 +25843,6 @@
       <c r="I807" s="2"/>
       <c r="J807" s="2"/>
       <c r="K807" s="2"/>
-      <c r="L807" s="2"/>
-      <c r="M807" s="2"/>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="2"/>
@@ -27480,8 +25856,6 @@
       <c r="I808" s="2"/>
       <c r="J808" s="2"/>
       <c r="K808" s="2"/>
-      <c r="L808" s="2"/>
-      <c r="M808" s="2"/>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="2"/>
@@ -27495,8 +25869,6 @@
       <c r="I809" s="2"/>
       <c r="J809" s="2"/>
       <c r="K809" s="2"/>
-      <c r="L809" s="2"/>
-      <c r="M809" s="2"/>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="2"/>
@@ -27510,8 +25882,6 @@
       <c r="I810" s="2"/>
       <c r="J810" s="2"/>
       <c r="K810" s="2"/>
-      <c r="L810" s="2"/>
-      <c r="M810" s="2"/>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="2"/>
@@ -27525,8 +25895,6 @@
       <c r="I811" s="2"/>
       <c r="J811" s="2"/>
       <c r="K811" s="2"/>
-      <c r="L811" s="2"/>
-      <c r="M811" s="2"/>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="2"/>
@@ -27540,8 +25908,6 @@
       <c r="I812" s="2"/>
       <c r="J812" s="2"/>
       <c r="K812" s="2"/>
-      <c r="L812" s="2"/>
-      <c r="M812" s="2"/>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="2"/>
@@ -27555,8 +25921,6 @@
       <c r="I813" s="2"/>
       <c r="J813" s="2"/>
       <c r="K813" s="2"/>
-      <c r="L813" s="2"/>
-      <c r="M813" s="2"/>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="2"/>
@@ -27570,8 +25934,6 @@
       <c r="I814" s="2"/>
       <c r="J814" s="2"/>
       <c r="K814" s="2"/>
-      <c r="L814" s="2"/>
-      <c r="M814" s="2"/>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="2"/>
@@ -27585,8 +25947,6 @@
       <c r="I815" s="2"/>
       <c r="J815" s="2"/>
       <c r="K815" s="2"/>
-      <c r="L815" s="2"/>
-      <c r="M815" s="2"/>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="2"/>
@@ -27600,8 +25960,6 @@
       <c r="I816" s="2"/>
       <c r="J816" s="2"/>
       <c r="K816" s="2"/>
-      <c r="L816" s="2"/>
-      <c r="M816" s="2"/>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="2"/>
@@ -27615,8 +25973,6 @@
       <c r="I817" s="2"/>
       <c r="J817" s="2"/>
       <c r="K817" s="2"/>
-      <c r="L817" s="2"/>
-      <c r="M817" s="2"/>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="2"/>
@@ -27630,8 +25986,6 @@
       <c r="I818" s="2"/>
       <c r="J818" s="2"/>
       <c r="K818" s="2"/>
-      <c r="L818" s="2"/>
-      <c r="M818" s="2"/>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="2"/>
@@ -27645,8 +25999,6 @@
       <c r="I819" s="2"/>
       <c r="J819" s="2"/>
       <c r="K819" s="2"/>
-      <c r="L819" s="2"/>
-      <c r="M819" s="2"/>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="2"/>
@@ -27660,8 +26012,6 @@
       <c r="I820" s="2"/>
       <c r="J820" s="2"/>
       <c r="K820" s="2"/>
-      <c r="L820" s="2"/>
-      <c r="M820" s="2"/>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="2"/>
@@ -27675,8 +26025,6 @@
       <c r="I821" s="2"/>
       <c r="J821" s="2"/>
       <c r="K821" s="2"/>
-      <c r="L821" s="2"/>
-      <c r="M821" s="2"/>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="2"/>
@@ -27690,8 +26038,6 @@
       <c r="I822" s="2"/>
       <c r="J822" s="2"/>
       <c r="K822" s="2"/>
-      <c r="L822" s="2"/>
-      <c r="M822" s="2"/>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="2"/>
@@ -27705,8 +26051,6 @@
       <c r="I823" s="2"/>
       <c r="J823" s="2"/>
       <c r="K823" s="2"/>
-      <c r="L823" s="2"/>
-      <c r="M823" s="2"/>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="2"/>
@@ -27720,8 +26064,6 @@
       <c r="I824" s="2"/>
       <c r="J824" s="2"/>
       <c r="K824" s="2"/>
-      <c r="L824" s="2"/>
-      <c r="M824" s="2"/>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="2"/>
@@ -27735,8 +26077,6 @@
       <c r="I825" s="2"/>
       <c r="J825" s="2"/>
       <c r="K825" s="2"/>
-      <c r="L825" s="2"/>
-      <c r="M825" s="2"/>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="2"/>
@@ -27750,8 +26090,6 @@
       <c r="I826" s="2"/>
       <c r="J826" s="2"/>
       <c r="K826" s="2"/>
-      <c r="L826" s="2"/>
-      <c r="M826" s="2"/>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="2"/>
@@ -27765,8 +26103,6 @@
       <c r="I827" s="2"/>
       <c r="J827" s="2"/>
       <c r="K827" s="2"/>
-      <c r="L827" s="2"/>
-      <c r="M827" s="2"/>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="2"/>
@@ -27780,8 +26116,6 @@
       <c r="I828" s="2"/>
       <c r="J828" s="2"/>
       <c r="K828" s="2"/>
-      <c r="L828" s="2"/>
-      <c r="M828" s="2"/>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="2"/>
@@ -27795,8 +26129,6 @@
       <c r="I829" s="2"/>
       <c r="J829" s="2"/>
       <c r="K829" s="2"/>
-      <c r="L829" s="2"/>
-      <c r="M829" s="2"/>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="2"/>
@@ -27810,8 +26142,6 @@
       <c r="I830" s="2"/>
       <c r="J830" s="2"/>
       <c r="K830" s="2"/>
-      <c r="L830" s="2"/>
-      <c r="M830" s="2"/>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="2"/>
@@ -27825,8 +26155,6 @@
       <c r="I831" s="2"/>
       <c r="J831" s="2"/>
       <c r="K831" s="2"/>
-      <c r="L831" s="2"/>
-      <c r="M831" s="2"/>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="2"/>
@@ -27840,8 +26168,6 @@
       <c r="I832" s="2"/>
       <c r="J832" s="2"/>
       <c r="K832" s="2"/>
-      <c r="L832" s="2"/>
-      <c r="M832" s="2"/>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="2"/>
@@ -27855,8 +26181,6 @@
       <c r="I833" s="2"/>
       <c r="J833" s="2"/>
       <c r="K833" s="2"/>
-      <c r="L833" s="2"/>
-      <c r="M833" s="2"/>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="2"/>
@@ -27870,8 +26194,6 @@
       <c r="I834" s="2"/>
       <c r="J834" s="2"/>
       <c r="K834" s="2"/>
-      <c r="L834" s="2"/>
-      <c r="M834" s="2"/>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="2"/>
@@ -27885,8 +26207,6 @@
       <c r="I835" s="2"/>
       <c r="J835" s="2"/>
       <c r="K835" s="2"/>
-      <c r="L835" s="2"/>
-      <c r="M835" s="2"/>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="2"/>
@@ -27900,8 +26220,6 @@
       <c r="I836" s="2"/>
       <c r="J836" s="2"/>
       <c r="K836" s="2"/>
-      <c r="L836" s="2"/>
-      <c r="M836" s="2"/>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="2"/>
@@ -27915,8 +26233,6 @@
       <c r="I837" s="2"/>
       <c r="J837" s="2"/>
       <c r="K837" s="2"/>
-      <c r="L837" s="2"/>
-      <c r="M837" s="2"/>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="2"/>
@@ -27930,8 +26246,6 @@
       <c r="I838" s="2"/>
       <c r="J838" s="2"/>
       <c r="K838" s="2"/>
-      <c r="L838" s="2"/>
-      <c r="M838" s="2"/>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="2"/>
@@ -27945,8 +26259,6 @@
       <c r="I839" s="2"/>
       <c r="J839" s="2"/>
       <c r="K839" s="2"/>
-      <c r="L839" s="2"/>
-      <c r="M839" s="2"/>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="2"/>
@@ -27960,8 +26272,6 @@
       <c r="I840" s="2"/>
       <c r="J840" s="2"/>
       <c r="K840" s="2"/>
-      <c r="L840" s="2"/>
-      <c r="M840" s="2"/>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="2"/>
@@ -27975,8 +26285,6 @@
       <c r="I841" s="2"/>
       <c r="J841" s="2"/>
       <c r="K841" s="2"/>
-      <c r="L841" s="2"/>
-      <c r="M841" s="2"/>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="2"/>
@@ -27990,8 +26298,6 @@
       <c r="I842" s="2"/>
       <c r="J842" s="2"/>
       <c r="K842" s="2"/>
-      <c r="L842" s="2"/>
-      <c r="M842" s="2"/>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="2"/>
@@ -28005,8 +26311,6 @@
       <c r="I843" s="2"/>
       <c r="J843" s="2"/>
       <c r="K843" s="2"/>
-      <c r="L843" s="2"/>
-      <c r="M843" s="2"/>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="2"/>
@@ -28020,8 +26324,6 @@
       <c r="I844" s="2"/>
       <c r="J844" s="2"/>
       <c r="K844" s="2"/>
-      <c r="L844" s="2"/>
-      <c r="M844" s="2"/>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="2"/>
@@ -28035,8 +26337,6 @@
       <c r="I845" s="2"/>
       <c r="J845" s="2"/>
       <c r="K845" s="2"/>
-      <c r="L845" s="2"/>
-      <c r="M845" s="2"/>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="2"/>
@@ -28050,8 +26350,6 @@
       <c r="I846" s="2"/>
       <c r="J846" s="2"/>
       <c r="K846" s="2"/>
-      <c r="L846" s="2"/>
-      <c r="M846" s="2"/>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="2"/>
@@ -28065,8 +26363,6 @@
       <c r="I847" s="2"/>
       <c r="J847" s="2"/>
       <c r="K847" s="2"/>
-      <c r="L847" s="2"/>
-      <c r="M847" s="2"/>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="2"/>
@@ -28080,8 +26376,6 @@
       <c r="I848" s="2"/>
       <c r="J848" s="2"/>
       <c r="K848" s="2"/>
-      <c r="L848" s="2"/>
-      <c r="M848" s="2"/>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="2"/>
@@ -28095,8 +26389,6 @@
       <c r="I849" s="2"/>
       <c r="J849" s="2"/>
       <c r="K849" s="2"/>
-      <c r="L849" s="2"/>
-      <c r="M849" s="2"/>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="2"/>
@@ -28110,8 +26402,6 @@
       <c r="I850" s="2"/>
       <c r="J850" s="2"/>
       <c r="K850" s="2"/>
-      <c r="L850" s="2"/>
-      <c r="M850" s="2"/>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="2"/>
@@ -28125,8 +26415,6 @@
       <c r="I851" s="2"/>
       <c r="J851" s="2"/>
       <c r="K851" s="2"/>
-      <c r="L851" s="2"/>
-      <c r="M851" s="2"/>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="2"/>
@@ -28140,8 +26428,6 @@
       <c r="I852" s="2"/>
       <c r="J852" s="2"/>
       <c r="K852" s="2"/>
-      <c r="L852" s="2"/>
-      <c r="M852" s="2"/>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="2"/>
@@ -28155,8 +26441,6 @@
       <c r="I853" s="2"/>
       <c r="J853" s="2"/>
       <c r="K853" s="2"/>
-      <c r="L853" s="2"/>
-      <c r="M853" s="2"/>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="2"/>
@@ -28170,8 +26454,6 @@
       <c r="I854" s="2"/>
       <c r="J854" s="2"/>
       <c r="K854" s="2"/>
-      <c r="L854" s="2"/>
-      <c r="M854" s="2"/>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="2"/>
@@ -28185,8 +26467,6 @@
       <c r="I855" s="2"/>
       <c r="J855" s="2"/>
       <c r="K855" s="2"/>
-      <c r="L855" s="2"/>
-      <c r="M855" s="2"/>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="2"/>
@@ -28200,8 +26480,6 @@
       <c r="I856" s="2"/>
       <c r="J856" s="2"/>
       <c r="K856" s="2"/>
-      <c r="L856" s="2"/>
-      <c r="M856" s="2"/>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="2"/>
@@ -28215,8 +26493,6 @@
       <c r="I857" s="2"/>
       <c r="J857" s="2"/>
       <c r="K857" s="2"/>
-      <c r="L857" s="2"/>
-      <c r="M857" s="2"/>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="2"/>
@@ -28230,8 +26506,6 @@
       <c r="I858" s="2"/>
       <c r="J858" s="2"/>
       <c r="K858" s="2"/>
-      <c r="L858" s="2"/>
-      <c r="M858" s="2"/>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="2"/>
@@ -28245,8 +26519,6 @@
       <c r="I859" s="2"/>
       <c r="J859" s="2"/>
       <c r="K859" s="2"/>
-      <c r="L859" s="2"/>
-      <c r="M859" s="2"/>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="2"/>
@@ -28260,8 +26532,6 @@
       <c r="I860" s="2"/>
       <c r="J860" s="2"/>
       <c r="K860" s="2"/>
-      <c r="L860" s="2"/>
-      <c r="M860" s="2"/>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="2"/>
@@ -28275,8 +26545,6 @@
       <c r="I861" s="2"/>
       <c r="J861" s="2"/>
       <c r="K861" s="2"/>
-      <c r="L861" s="2"/>
-      <c r="M861" s="2"/>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="2"/>
@@ -28290,8 +26558,6 @@
       <c r="I862" s="2"/>
       <c r="J862" s="2"/>
       <c r="K862" s="2"/>
-      <c r="L862" s="2"/>
-      <c r="M862" s="2"/>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="2"/>
@@ -28305,8 +26571,6 @@
       <c r="I863" s="2"/>
       <c r="J863" s="2"/>
       <c r="K863" s="2"/>
-      <c r="L863" s="2"/>
-      <c r="M863" s="2"/>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="2"/>
@@ -28320,8 +26584,6 @@
       <c r="I864" s="2"/>
       <c r="J864" s="2"/>
       <c r="K864" s="2"/>
-      <c r="L864" s="2"/>
-      <c r="M864" s="2"/>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="2"/>
@@ -28335,8 +26597,6 @@
       <c r="I865" s="2"/>
       <c r="J865" s="2"/>
       <c r="K865" s="2"/>
-      <c r="L865" s="2"/>
-      <c r="M865" s="2"/>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="2"/>
@@ -28350,8 +26610,6 @@
       <c r="I866" s="2"/>
       <c r="J866" s="2"/>
       <c r="K866" s="2"/>
-      <c r="L866" s="2"/>
-      <c r="M866" s="2"/>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="2"/>
@@ -28365,8 +26623,6 @@
       <c r="I867" s="2"/>
       <c r="J867" s="2"/>
       <c r="K867" s="2"/>
-      <c r="L867" s="2"/>
-      <c r="M867" s="2"/>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="2"/>
@@ -28380,8 +26636,6 @@
       <c r="I868" s="2"/>
       <c r="J868" s="2"/>
       <c r="K868" s="2"/>
-      <c r="L868" s="2"/>
-      <c r="M868" s="2"/>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="2"/>
@@ -28395,8 +26649,6 @@
       <c r="I869" s="2"/>
       <c r="J869" s="2"/>
       <c r="K869" s="2"/>
-      <c r="L869" s="2"/>
-      <c r="M869" s="2"/>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="2"/>
@@ -28410,8 +26662,6 @@
       <c r="I870" s="2"/>
       <c r="J870" s="2"/>
       <c r="K870" s="2"/>
-      <c r="L870" s="2"/>
-      <c r="M870" s="2"/>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="2"/>
@@ -28425,8 +26675,6 @@
       <c r="I871" s="2"/>
       <c r="J871" s="2"/>
       <c r="K871" s="2"/>
-      <c r="L871" s="2"/>
-      <c r="M871" s="2"/>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="2"/>
@@ -28440,8 +26688,6 @@
       <c r="I872" s="2"/>
       <c r="J872" s="2"/>
       <c r="K872" s="2"/>
-      <c r="L872" s="2"/>
-      <c r="M872" s="2"/>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="2"/>
@@ -28455,8 +26701,6 @@
       <c r="I873" s="2"/>
       <c r="J873" s="2"/>
       <c r="K873" s="2"/>
-      <c r="L873" s="2"/>
-      <c r="M873" s="2"/>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="2"/>
@@ -28470,8 +26714,6 @@
       <c r="I874" s="2"/>
       <c r="J874" s="2"/>
       <c r="K874" s="2"/>
-      <c r="L874" s="2"/>
-      <c r="M874" s="2"/>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="2"/>
@@ -28485,8 +26727,6 @@
       <c r="I875" s="2"/>
       <c r="J875" s="2"/>
       <c r="K875" s="2"/>
-      <c r="L875" s="2"/>
-      <c r="M875" s="2"/>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="2"/>
@@ -28500,8 +26740,6 @@
       <c r="I876" s="2"/>
       <c r="J876" s="2"/>
       <c r="K876" s="2"/>
-      <c r="L876" s="2"/>
-      <c r="M876" s="2"/>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="2"/>
@@ -28515,8 +26753,6 @@
       <c r="I877" s="2"/>
       <c r="J877" s="2"/>
       <c r="K877" s="2"/>
-      <c r="L877" s="2"/>
-      <c r="M877" s="2"/>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="2"/>
@@ -28530,8 +26766,6 @@
       <c r="I878" s="2"/>
       <c r="J878" s="2"/>
       <c r="K878" s="2"/>
-      <c r="L878" s="2"/>
-      <c r="M878" s="2"/>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="2"/>
@@ -28545,8 +26779,6 @@
       <c r="I879" s="2"/>
       <c r="J879" s="2"/>
       <c r="K879" s="2"/>
-      <c r="L879" s="2"/>
-      <c r="M879" s="2"/>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="2"/>
@@ -28560,8 +26792,6 @@
       <c r="I880" s="2"/>
       <c r="J880" s="2"/>
       <c r="K880" s="2"/>
-      <c r="L880" s="2"/>
-      <c r="M880" s="2"/>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="2"/>
@@ -28575,8 +26805,6 @@
       <c r="I881" s="2"/>
       <c r="J881" s="2"/>
       <c r="K881" s="2"/>
-      <c r="L881" s="2"/>
-      <c r="M881" s="2"/>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="2"/>
@@ -28590,8 +26818,6 @@
       <c r="I882" s="2"/>
       <c r="J882" s="2"/>
       <c r="K882" s="2"/>
-      <c r="L882" s="2"/>
-      <c r="M882" s="2"/>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="2"/>
@@ -28605,8 +26831,6 @@
       <c r="I883" s="2"/>
       <c r="J883" s="2"/>
       <c r="K883" s="2"/>
-      <c r="L883" s="2"/>
-      <c r="M883" s="2"/>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="2"/>
@@ -28620,8 +26844,6 @@
       <c r="I884" s="2"/>
       <c r="J884" s="2"/>
       <c r="K884" s="2"/>
-      <c r="L884" s="2"/>
-      <c r="M884" s="2"/>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="2"/>
@@ -28635,8 +26857,6 @@
       <c r="I885" s="2"/>
       <c r="J885" s="2"/>
       <c r="K885" s="2"/>
-      <c r="L885" s="2"/>
-      <c r="M885" s="2"/>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="2"/>
@@ -28650,8 +26870,6 @@
       <c r="I886" s="2"/>
       <c r="J886" s="2"/>
       <c r="K886" s="2"/>
-      <c r="L886" s="2"/>
-      <c r="M886" s="2"/>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="2"/>
@@ -28665,8 +26883,6 @@
       <c r="I887" s="2"/>
       <c r="J887" s="2"/>
       <c r="K887" s="2"/>
-      <c r="L887" s="2"/>
-      <c r="M887" s="2"/>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="2"/>
@@ -28680,8 +26896,6 @@
       <c r="I888" s="2"/>
       <c r="J888" s="2"/>
       <c r="K888" s="2"/>
-      <c r="L888" s="2"/>
-      <c r="M888" s="2"/>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="2"/>
@@ -28695,8 +26909,6 @@
       <c r="I889" s="2"/>
       <c r="J889" s="2"/>
       <c r="K889" s="2"/>
-      <c r="L889" s="2"/>
-      <c r="M889" s="2"/>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="2"/>
@@ -28710,8 +26922,6 @@
       <c r="I890" s="2"/>
       <c r="J890" s="2"/>
       <c r="K890" s="2"/>
-      <c r="L890" s="2"/>
-      <c r="M890" s="2"/>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="2"/>
@@ -28725,8 +26935,6 @@
       <c r="I891" s="2"/>
       <c r="J891" s="2"/>
       <c r="K891" s="2"/>
-      <c r="L891" s="2"/>
-      <c r="M891" s="2"/>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="2"/>
@@ -28740,8 +26948,6 @@
       <c r="I892" s="2"/>
       <c r="J892" s="2"/>
       <c r="K892" s="2"/>
-      <c r="L892" s="2"/>
-      <c r="M892" s="2"/>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="2"/>
@@ -28755,8 +26961,6 @@
       <c r="I893" s="2"/>
       <c r="J893" s="2"/>
       <c r="K893" s="2"/>
-      <c r="L893" s="2"/>
-      <c r="M893" s="2"/>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="2"/>
@@ -28770,8 +26974,6 @@
       <c r="I894" s="2"/>
       <c r="J894" s="2"/>
       <c r="K894" s="2"/>
-      <c r="L894" s="2"/>
-      <c r="M894" s="2"/>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="2"/>
@@ -28785,8 +26987,6 @@
       <c r="I895" s="2"/>
       <c r="J895" s="2"/>
       <c r="K895" s="2"/>
-      <c r="L895" s="2"/>
-      <c r="M895" s="2"/>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="2"/>
@@ -28800,8 +27000,6 @@
       <c r="I896" s="2"/>
       <c r="J896" s="2"/>
       <c r="K896" s="2"/>
-      <c r="L896" s="2"/>
-      <c r="M896" s="2"/>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="2"/>
@@ -28815,8 +27013,6 @@
       <c r="I897" s="2"/>
       <c r="J897" s="2"/>
       <c r="K897" s="2"/>
-      <c r="L897" s="2"/>
-      <c r="M897" s="2"/>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="2"/>
@@ -28830,8 +27026,6 @@
       <c r="I898" s="2"/>
       <c r="J898" s="2"/>
       <c r="K898" s="2"/>
-      <c r="L898" s="2"/>
-      <c r="M898" s="2"/>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="2"/>
@@ -28845,8 +27039,6 @@
       <c r="I899" s="2"/>
       <c r="J899" s="2"/>
       <c r="K899" s="2"/>
-      <c r="L899" s="2"/>
-      <c r="M899" s="2"/>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="2"/>
@@ -28860,8 +27052,6 @@
       <c r="I900" s="2"/>
       <c r="J900" s="2"/>
       <c r="K900" s="2"/>
-      <c r="L900" s="2"/>
-      <c r="M900" s="2"/>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="2"/>
@@ -28875,8 +27065,6 @@
       <c r="I901" s="2"/>
       <c r="J901" s="2"/>
       <c r="K901" s="2"/>
-      <c r="L901" s="2"/>
-      <c r="M901" s="2"/>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="2"/>
@@ -28890,8 +27078,6 @@
       <c r="I902" s="2"/>
       <c r="J902" s="2"/>
       <c r="K902" s="2"/>
-      <c r="L902" s="2"/>
-      <c r="M902" s="2"/>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="2"/>
@@ -28905,8 +27091,6 @@
       <c r="I903" s="2"/>
       <c r="J903" s="2"/>
       <c r="K903" s="2"/>
-      <c r="L903" s="2"/>
-      <c r="M903" s="2"/>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="2"/>
@@ -28920,8 +27104,6 @@
       <c r="I904" s="2"/>
       <c r="J904" s="2"/>
       <c r="K904" s="2"/>
-      <c r="L904" s="2"/>
-      <c r="M904" s="2"/>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="2"/>
@@ -28935,8 +27117,6 @@
       <c r="I905" s="2"/>
       <c r="J905" s="2"/>
       <c r="K905" s="2"/>
-      <c r="L905" s="2"/>
-      <c r="M905" s="2"/>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="2"/>
@@ -28950,8 +27130,6 @@
       <c r="I906" s="2"/>
       <c r="J906" s="2"/>
       <c r="K906" s="2"/>
-      <c r="L906" s="2"/>
-      <c r="M906" s="2"/>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="2"/>
@@ -28965,8 +27143,6 @@
       <c r="I907" s="2"/>
       <c r="J907" s="2"/>
       <c r="K907" s="2"/>
-      <c r="L907" s="2"/>
-      <c r="M907" s="2"/>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="2"/>
@@ -28980,8 +27156,6 @@
       <c r="I908" s="2"/>
       <c r="J908" s="2"/>
       <c r="K908" s="2"/>
-      <c r="L908" s="2"/>
-      <c r="M908" s="2"/>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="2"/>
@@ -28995,8 +27169,6 @@
       <c r="I909" s="2"/>
       <c r="J909" s="2"/>
       <c r="K909" s="2"/>
-      <c r="L909" s="2"/>
-      <c r="M909" s="2"/>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="2"/>
@@ -29010,8 +27182,6 @@
       <c r="I910" s="2"/>
       <c r="J910" s="2"/>
       <c r="K910" s="2"/>
-      <c r="L910" s="2"/>
-      <c r="M910" s="2"/>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="2"/>
@@ -29025,8 +27195,6 @@
       <c r="I911" s="2"/>
       <c r="J911" s="2"/>
       <c r="K911" s="2"/>
-      <c r="L911" s="2"/>
-      <c r="M911" s="2"/>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="2"/>
@@ -29040,8 +27208,6 @@
       <c r="I912" s="2"/>
       <c r="J912" s="2"/>
       <c r="K912" s="2"/>
-      <c r="L912" s="2"/>
-      <c r="M912" s="2"/>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="2"/>
@@ -29055,8 +27221,6 @@
       <c r="I913" s="2"/>
       <c r="J913" s="2"/>
       <c r="K913" s="2"/>
-      <c r="L913" s="2"/>
-      <c r="M913" s="2"/>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="2"/>
@@ -29070,8 +27234,6 @@
       <c r="I914" s="2"/>
       <c r="J914" s="2"/>
       <c r="K914" s="2"/>
-      <c r="L914" s="2"/>
-      <c r="M914" s="2"/>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="2"/>
@@ -29085,8 +27247,6 @@
       <c r="I915" s="2"/>
       <c r="J915" s="2"/>
       <c r="K915" s="2"/>
-      <c r="L915" s="2"/>
-      <c r="M915" s="2"/>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="2"/>
@@ -29100,8 +27260,6 @@
       <c r="I916" s="2"/>
       <c r="J916" s="2"/>
       <c r="K916" s="2"/>
-      <c r="L916" s="2"/>
-      <c r="M916" s="2"/>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="2"/>
@@ -29115,8 +27273,6 @@
       <c r="I917" s="2"/>
       <c r="J917" s="2"/>
       <c r="K917" s="2"/>
-      <c r="L917" s="2"/>
-      <c r="M917" s="2"/>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="2"/>
@@ -29130,8 +27286,6 @@
       <c r="I918" s="2"/>
       <c r="J918" s="2"/>
       <c r="K918" s="2"/>
-      <c r="L918" s="2"/>
-      <c r="M918" s="2"/>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="2"/>
@@ -29145,8 +27299,6 @@
       <c r="I919" s="2"/>
       <c r="J919" s="2"/>
       <c r="K919" s="2"/>
-      <c r="L919" s="2"/>
-      <c r="M919" s="2"/>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="2"/>
@@ -29160,8 +27312,6 @@
       <c r="I920" s="2"/>
       <c r="J920" s="2"/>
       <c r="K920" s="2"/>
-      <c r="L920" s="2"/>
-      <c r="M920" s="2"/>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="2"/>
@@ -29175,8 +27325,6 @@
       <c r="I921" s="2"/>
       <c r="J921" s="2"/>
       <c r="K921" s="2"/>
-      <c r="L921" s="2"/>
-      <c r="M921" s="2"/>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="2"/>
@@ -29190,8 +27338,6 @@
       <c r="I922" s="2"/>
       <c r="J922" s="2"/>
       <c r="K922" s="2"/>
-      <c r="L922" s="2"/>
-      <c r="M922" s="2"/>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="2"/>
@@ -29205,8 +27351,6 @@
       <c r="I923" s="2"/>
       <c r="J923" s="2"/>
       <c r="K923" s="2"/>
-      <c r="L923" s="2"/>
-      <c r="M923" s="2"/>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="2"/>
@@ -29220,8 +27364,6 @@
       <c r="I924" s="2"/>
       <c r="J924" s="2"/>
       <c r="K924" s="2"/>
-      <c r="L924" s="2"/>
-      <c r="M924" s="2"/>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="2"/>
@@ -29235,8 +27377,6 @@
       <c r="I925" s="2"/>
       <c r="J925" s="2"/>
       <c r="K925" s="2"/>
-      <c r="L925" s="2"/>
-      <c r="M925" s="2"/>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="2"/>
@@ -29250,8 +27390,6 @@
       <c r="I926" s="2"/>
       <c r="J926" s="2"/>
       <c r="K926" s="2"/>
-      <c r="L926" s="2"/>
-      <c r="M926" s="2"/>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="2"/>
@@ -29265,8 +27403,6 @@
       <c r="I927" s="2"/>
       <c r="J927" s="2"/>
       <c r="K927" s="2"/>
-      <c r="L927" s="2"/>
-      <c r="M927" s="2"/>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="2"/>
@@ -29280,8 +27416,6 @@
       <c r="I928" s="2"/>
       <c r="J928" s="2"/>
       <c r="K928" s="2"/>
-      <c r="L928" s="2"/>
-      <c r="M928" s="2"/>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="2"/>
@@ -29295,8 +27429,6 @@
       <c r="I929" s="2"/>
       <c r="J929" s="2"/>
       <c r="K929" s="2"/>
-      <c r="L929" s="2"/>
-      <c r="M929" s="2"/>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="2"/>
@@ -29310,8 +27442,6 @@
       <c r="I930" s="2"/>
       <c r="J930" s="2"/>
       <c r="K930" s="2"/>
-      <c r="L930" s="2"/>
-      <c r="M930" s="2"/>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="2"/>
@@ -29325,8 +27455,6 @@
       <c r="I931" s="2"/>
       <c r="J931" s="2"/>
       <c r="K931" s="2"/>
-      <c r="L931" s="2"/>
-      <c r="M931" s="2"/>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="2"/>
@@ -29340,8 +27468,6 @@
       <c r="I932" s="2"/>
       <c r="J932" s="2"/>
       <c r="K932" s="2"/>
-      <c r="L932" s="2"/>
-      <c r="M932" s="2"/>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="2"/>
@@ -29355,8 +27481,6 @@
       <c r="I933" s="2"/>
       <c r="J933" s="2"/>
       <c r="K933" s="2"/>
-      <c r="L933" s="2"/>
-      <c r="M933" s="2"/>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="2"/>
@@ -29370,8 +27494,6 @@
       <c r="I934" s="2"/>
       <c r="J934" s="2"/>
       <c r="K934" s="2"/>
-      <c r="L934" s="2"/>
-      <c r="M934" s="2"/>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="2"/>
@@ -29385,8 +27507,6 @@
       <c r="I935" s="2"/>
       <c r="J935" s="2"/>
       <c r="K935" s="2"/>
-      <c r="L935" s="2"/>
-      <c r="M935" s="2"/>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="2"/>
@@ -29400,8 +27520,6 @@
       <c r="I936" s="2"/>
       <c r="J936" s="2"/>
       <c r="K936" s="2"/>
-      <c r="L936" s="2"/>
-      <c r="M936" s="2"/>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="2"/>
@@ -29415,8 +27533,6 @@
       <c r="I937" s="2"/>
       <c r="J937" s="2"/>
       <c r="K937" s="2"/>
-      <c r="L937" s="2"/>
-      <c r="M937" s="2"/>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="2"/>
@@ -29430,8 +27546,6 @@
       <c r="I938" s="2"/>
       <c r="J938" s="2"/>
       <c r="K938" s="2"/>
-      <c r="L938" s="2"/>
-      <c r="M938" s="2"/>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="2"/>
@@ -29445,8 +27559,6 @@
       <c r="I939" s="2"/>
       <c r="J939" s="2"/>
       <c r="K939" s="2"/>
-      <c r="L939" s="2"/>
-      <c r="M939" s="2"/>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="2"/>
@@ -29460,8 +27572,6 @@
       <c r="I940" s="2"/>
       <c r="J940" s="2"/>
       <c r="K940" s="2"/>
-      <c r="L940" s="2"/>
-      <c r="M940" s="2"/>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="2"/>
@@ -29475,8 +27585,6 @@
       <c r="I941" s="2"/>
       <c r="J941" s="2"/>
       <c r="K941" s="2"/>
-      <c r="L941" s="2"/>
-      <c r="M941" s="2"/>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="2"/>
@@ -29490,8 +27598,6 @@
       <c r="I942" s="2"/>
       <c r="J942" s="2"/>
       <c r="K942" s="2"/>
-      <c r="L942" s="2"/>
-      <c r="M942" s="2"/>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="2"/>
@@ -29505,8 +27611,6 @@
       <c r="I943" s="2"/>
       <c r="J943" s="2"/>
       <c r="K943" s="2"/>
-      <c r="L943" s="2"/>
-      <c r="M943" s="2"/>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="2"/>
@@ -29520,8 +27624,6 @@
       <c r="I944" s="2"/>
       <c r="J944" s="2"/>
       <c r="K944" s="2"/>
-      <c r="L944" s="2"/>
-      <c r="M944" s="2"/>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="2"/>
@@ -29535,8 +27637,6 @@
       <c r="I945" s="2"/>
       <c r="J945" s="2"/>
       <c r="K945" s="2"/>
-      <c r="L945" s="2"/>
-      <c r="M945" s="2"/>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="2"/>
@@ -29550,8 +27650,6 @@
       <c r="I946" s="2"/>
       <c r="J946" s="2"/>
       <c r="K946" s="2"/>
-      <c r="L946" s="2"/>
-      <c r="M946" s="2"/>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="2"/>
@@ -29565,8 +27663,6 @@
       <c r="I947" s="2"/>
       <c r="J947" s="2"/>
       <c r="K947" s="2"/>
-      <c r="L947" s="2"/>
-      <c r="M947" s="2"/>
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="2"/>
@@ -29580,8 +27676,6 @@
       <c r="I948" s="2"/>
       <c r="J948" s="2"/>
       <c r="K948" s="2"/>
-      <c r="L948" s="2"/>
-      <c r="M948" s="2"/>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="2"/>
@@ -29595,8 +27689,6 @@
       <c r="I949" s="2"/>
       <c r="J949" s="2"/>
       <c r="K949" s="2"/>
-      <c r="L949" s="2"/>
-      <c r="M949" s="2"/>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="2"/>
@@ -29610,8 +27702,6 @@
       <c r="I950" s="2"/>
       <c r="J950" s="2"/>
       <c r="K950" s="2"/>
-      <c r="L950" s="2"/>
-      <c r="M950" s="2"/>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="2"/>
@@ -29625,8 +27715,6 @@
       <c r="I951" s="2"/>
       <c r="J951" s="2"/>
       <c r="K951" s="2"/>
-      <c r="L951" s="2"/>
-      <c r="M951" s="2"/>
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="2"/>
@@ -29640,8 +27728,6 @@
       <c r="I952" s="2"/>
       <c r="J952" s="2"/>
       <c r="K952" s="2"/>
-      <c r="L952" s="2"/>
-      <c r="M952" s="2"/>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="2"/>
@@ -29655,8 +27741,6 @@
       <c r="I953" s="2"/>
       <c r="J953" s="2"/>
       <c r="K953" s="2"/>
-      <c r="L953" s="2"/>
-      <c r="M953" s="2"/>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="2"/>
@@ -29670,8 +27754,6 @@
       <c r="I954" s="2"/>
       <c r="J954" s="2"/>
       <c r="K954" s="2"/>
-      <c r="L954" s="2"/>
-      <c r="M954" s="2"/>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="2"/>
@@ -29685,8 +27767,6 @@
       <c r="I955" s="2"/>
       <c r="J955" s="2"/>
       <c r="K955" s="2"/>
-      <c r="L955" s="2"/>
-      <c r="M955" s="2"/>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="2"/>
@@ -29700,8 +27780,6 @@
       <c r="I956" s="2"/>
       <c r="J956" s="2"/>
       <c r="K956" s="2"/>
-      <c r="L956" s="2"/>
-      <c r="M956" s="2"/>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="2"/>
@@ -29715,8 +27793,6 @@
       <c r="I957" s="2"/>
       <c r="J957" s="2"/>
       <c r="K957" s="2"/>
-      <c r="L957" s="2"/>
-      <c r="M957" s="2"/>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="2"/>
@@ -29730,8 +27806,6 @@
       <c r="I958" s="2"/>
       <c r="J958" s="2"/>
       <c r="K958" s="2"/>
-      <c r="L958" s="2"/>
-      <c r="M958" s="2"/>
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="2"/>
@@ -29745,8 +27819,6 @@
       <c r="I959" s="2"/>
       <c r="J959" s="2"/>
       <c r="K959" s="2"/>
-      <c r="L959" s="2"/>
-      <c r="M959" s="2"/>
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="2"/>
@@ -29760,8 +27832,6 @@
       <c r="I960" s="2"/>
       <c r="J960" s="2"/>
       <c r="K960" s="2"/>
-      <c r="L960" s="2"/>
-      <c r="M960" s="2"/>
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="2"/>
@@ -29775,8 +27845,6 @@
       <c r="I961" s="2"/>
       <c r="J961" s="2"/>
       <c r="K961" s="2"/>
-      <c r="L961" s="2"/>
-      <c r="M961" s="2"/>
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="2"/>
@@ -29790,8 +27858,6 @@
       <c r="I962" s="2"/>
       <c r="J962" s="2"/>
       <c r="K962" s="2"/>
-      <c r="L962" s="2"/>
-      <c r="M962" s="2"/>
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="2"/>
@@ -29805,8 +27871,6 @@
       <c r="I963" s="2"/>
       <c r="J963" s="2"/>
       <c r="K963" s="2"/>
-      <c r="L963" s="2"/>
-      <c r="M963" s="2"/>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="2"/>
@@ -29820,8 +27884,6 @@
       <c r="I964" s="2"/>
       <c r="J964" s="2"/>
       <c r="K964" s="2"/>
-      <c r="L964" s="2"/>
-      <c r="M964" s="2"/>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="2"/>
@@ -29835,8 +27897,6 @@
       <c r="I965" s="2"/>
       <c r="J965" s="2"/>
       <c r="K965" s="2"/>
-      <c r="L965" s="2"/>
-      <c r="M965" s="2"/>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="2"/>
@@ -29850,8 +27910,6 @@
       <c r="I966" s="2"/>
       <c r="J966" s="2"/>
       <c r="K966" s="2"/>
-      <c r="L966" s="2"/>
-      <c r="M966" s="2"/>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="2"/>
@@ -29865,8 +27923,6 @@
       <c r="I967" s="2"/>
       <c r="J967" s="2"/>
       <c r="K967" s="2"/>
-      <c r="L967" s="2"/>
-      <c r="M967" s="2"/>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="2"/>
@@ -29880,8 +27936,6 @@
       <c r="I968" s="2"/>
       <c r="J968" s="2"/>
       <c r="K968" s="2"/>
-      <c r="L968" s="2"/>
-      <c r="M968" s="2"/>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="2"/>
@@ -29895,8 +27949,6 @@
       <c r="I969" s="2"/>
       <c r="J969" s="2"/>
       <c r="K969" s="2"/>
-      <c r="L969" s="2"/>
-      <c r="M969" s="2"/>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="2"/>
@@ -29910,8 +27962,6 @@
       <c r="I970" s="2"/>
       <c r="J970" s="2"/>
       <c r="K970" s="2"/>
-      <c r="L970" s="2"/>
-      <c r="M970" s="2"/>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="2"/>
@@ -29925,8 +27975,6 @@
       <c r="I971" s="2"/>
       <c r="J971" s="2"/>
       <c r="K971" s="2"/>
-      <c r="L971" s="2"/>
-      <c r="M971" s="2"/>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="2"/>
@@ -29940,8 +27988,6 @@
       <c r="I972" s="2"/>
       <c r="J972" s="2"/>
       <c r="K972" s="2"/>
-      <c r="L972" s="2"/>
-      <c r="M972" s="2"/>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="2"/>
@@ -29955,8 +28001,6 @@
       <c r="I973" s="2"/>
       <c r="J973" s="2"/>
       <c r="K973" s="2"/>
-      <c r="L973" s="2"/>
-      <c r="M973" s="2"/>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="2"/>
@@ -29970,8 +28014,6 @@
       <c r="I974" s="2"/>
       <c r="J974" s="2"/>
       <c r="K974" s="2"/>
-      <c r="L974" s="2"/>
-      <c r="M974" s="2"/>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="2"/>
@@ -29985,8 +28027,6 @@
       <c r="I975" s="2"/>
       <c r="J975" s="2"/>
       <c r="K975" s="2"/>
-      <c r="L975" s="2"/>
-      <c r="M975" s="2"/>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="2"/>
@@ -30000,8 +28040,6 @@
       <c r="I976" s="2"/>
       <c r="J976" s="2"/>
       <c r="K976" s="2"/>
-      <c r="L976" s="2"/>
-      <c r="M976" s="2"/>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="2"/>
@@ -30015,8 +28053,6 @@
       <c r="I977" s="2"/>
       <c r="J977" s="2"/>
       <c r="K977" s="2"/>
-      <c r="L977" s="2"/>
-      <c r="M977" s="2"/>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="2"/>
@@ -30030,8 +28066,6 @@
       <c r="I978" s="2"/>
       <c r="J978" s="2"/>
       <c r="K978" s="2"/>
-      <c r="L978" s="2"/>
-      <c r="M978" s="2"/>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="2"/>
@@ -30045,8 +28079,6 @@
       <c r="I979" s="2"/>
       <c r="J979" s="2"/>
       <c r="K979" s="2"/>
-      <c r="L979" s="2"/>
-      <c r="M979" s="2"/>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="2"/>
@@ -30060,8 +28092,6 @@
       <c r="I980" s="2"/>
       <c r="J980" s="2"/>
       <c r="K980" s="2"/>
-      <c r="L980" s="2"/>
-      <c r="M980" s="2"/>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="2"/>
@@ -30075,8 +28105,6 @@
       <c r="I981" s="2"/>
       <c r="J981" s="2"/>
       <c r="K981" s="2"/>
-      <c r="L981" s="2"/>
-      <c r="M981" s="2"/>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="2"/>
@@ -30090,8 +28118,6 @@
       <c r="I982" s="2"/>
       <c r="J982" s="2"/>
       <c r="K982" s="2"/>
-      <c r="L982" s="2"/>
-      <c r="M982" s="2"/>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="2"/>
@@ -30105,8 +28131,6 @@
       <c r="I983" s="2"/>
       <c r="J983" s="2"/>
       <c r="K983" s="2"/>
-      <c r="L983" s="2"/>
-      <c r="M983" s="2"/>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="2"/>
@@ -30120,8 +28144,6 @@
       <c r="I984" s="2"/>
       <c r="J984" s="2"/>
       <c r="K984" s="2"/>
-      <c r="L984" s="2"/>
-      <c r="M984" s="2"/>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="2"/>
@@ -30135,8 +28157,6 @@
       <c r="I985" s="2"/>
       <c r="J985" s="2"/>
       <c r="K985" s="2"/>
-      <c r="L985" s="2"/>
-      <c r="M985" s="2"/>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="2"/>
@@ -30150,8 +28170,6 @@
       <c r="I986" s="2"/>
       <c r="J986" s="2"/>
       <c r="K986" s="2"/>
-      <c r="L986" s="2"/>
-      <c r="M986" s="2"/>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="2"/>
@@ -30165,8 +28183,6 @@
       <c r="I987" s="2"/>
       <c r="J987" s="2"/>
       <c r="K987" s="2"/>
-      <c r="L987" s="2"/>
-      <c r="M987" s="2"/>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="2"/>
@@ -30180,8 +28196,6 @@
       <c r="I988" s="2"/>
       <c r="J988" s="2"/>
       <c r="K988" s="2"/>
-      <c r="L988" s="2"/>
-      <c r="M988" s="2"/>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="2"/>
@@ -30195,8 +28209,6 @@
       <c r="I989" s="2"/>
       <c r="J989" s="2"/>
       <c r="K989" s="2"/>
-      <c r="L989" s="2"/>
-      <c r="M989" s="2"/>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="2"/>
@@ -30210,8 +28222,6 @@
       <c r="I990" s="2"/>
       <c r="J990" s="2"/>
       <c r="K990" s="2"/>
-      <c r="L990" s="2"/>
-      <c r="M990" s="2"/>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="2"/>
@@ -30225,8 +28235,6 @@
       <c r="I991" s="2"/>
       <c r="J991" s="2"/>
       <c r="K991" s="2"/>
-      <c r="L991" s="2"/>
-      <c r="M991" s="2"/>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="2"/>
@@ -30240,8 +28248,6 @@
       <c r="I992" s="2"/>
       <c r="J992" s="2"/>
       <c r="K992" s="2"/>
-      <c r="L992" s="2"/>
-      <c r="M992" s="2"/>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="2"/>
@@ -30255,8 +28261,6 @@
       <c r="I993" s="2"/>
       <c r="J993" s="2"/>
       <c r="K993" s="2"/>
-      <c r="L993" s="2"/>
-      <c r="M993" s="2"/>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="2"/>
@@ -30270,8 +28274,6 @@
       <c r="I994" s="2"/>
       <c r="J994" s="2"/>
       <c r="K994" s="2"/>
-      <c r="L994" s="2"/>
-      <c r="M994" s="2"/>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="2"/>
@@ -30285,8 +28287,6 @@
       <c r="I995" s="2"/>
       <c r="J995" s="2"/>
       <c r="K995" s="2"/>
-      <c r="L995" s="2"/>
-      <c r="M995" s="2"/>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="2"/>
@@ -30300,8 +28300,6 @@
       <c r="I996" s="2"/>
       <c r="J996" s="2"/>
       <c r="K996" s="2"/>
-      <c r="L996" s="2"/>
-      <c r="M996" s="2"/>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="2"/>
@@ -30315,8 +28313,6 @@
       <c r="I997" s="2"/>
       <c r="J997" s="2"/>
       <c r="K997" s="2"/>
-      <c r="L997" s="2"/>
-      <c r="M997" s="2"/>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="2"/>
@@ -30330,8 +28326,6 @@
       <c r="I998" s="2"/>
       <c r="J998" s="2"/>
       <c r="K998" s="2"/>
-      <c r="L998" s="2"/>
-      <c r="M998" s="2"/>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="2"/>
@@ -30345,8 +28339,6 @@
       <c r="I999" s="2"/>
       <c r="J999" s="2"/>
       <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="2"/>
@@ -30360,20 +28352,8 @@
       <c r="I1000" s="2"/>
       <c r="J1000" s="2"/>
       <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2:J1000" type="list">
-      <formula1>"Proposed term,Published term,Cancelled term"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F1000" type="list">
-      <formula1>"Individual,Type,Event,Event Type,Aspect,Aspect Type,Object,Object Type,Relator,Relation"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30395,7 +28375,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="75.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.37"/>
@@ -30403,28 +28383,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G3" s="4"/>
     </row>

--- a/src/main/resources/template/termit-import.xlsx
+++ b/src/main/resources/template/termit-import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Czech" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Název</t>
   </si>
@@ -103,12 +103,12 @@
   </si>
   <si>
     <t xml:space="preserve">- Pro vícehodnotové položky použijte jako oddělovač středník (;)
-- Pro referencování jiných pojmů použijte jejich název (např. související pojmy, pojmy se stejným významem)
+- Pro referencování jiných pojmů použijte jejich název (např. Nadřazené pojmy, související pojmy)
 - Pro přidání dalšího jazyka zkopírujte sheet "English" a pojmenujte ho názvem jazyku, který daný sheet reprezentuje</t>
   </si>
   <si>
     <t xml:space="preserve">- Use a semicolon (;) to separate values in multi-valued attributes
-- Use labels of terms you want to reference (e.g., related terms, exact matches)
+- Use labels of terms you want to reference (e.g., broader terms, related terms)
 - To add translations in another language, copy the "English" sheet and label it using the name of the language the sheet will represent</t>
   </si>
   <si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">- Use English column labels for sheets in languages other than Czech and English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Import použije první dostupný stav a typ. Pokud se tedy v různých sheetech vyskytují různé hodnoty stavu a typu, jsou použity první z ních.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- The import with use the first available value of state and type. Thus if multiple sheets contain different values of state and type, the first ones are used.</t>
   </si>
 </sst>
 </file>
@@ -206,7 +212,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,8 +225,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -254,7 +268,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.27"/>
@@ -15318,11 +15332,11 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
@@ -28371,48 +28385,55 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="75.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="75.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="75.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.37"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="4"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/template/termit-import.xlsx
+++ b/src/main/resources/template/termit-import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Czech" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Název</t>
   </si>
@@ -78,6 +78,9 @@
     <t xml:space="preserve">Scope note</t>
   </si>
   <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
   </si>
   <si>
     <t xml:space="preserve">Related terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State</t>
   </si>
   <si>
     <t xml:space="preserve">Notation</t>
@@ -265,10 +271,10 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.27"/>
@@ -15330,19 +15336,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15379,6 +15385,12 @@
       <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
@@ -15392,6 +15404,8 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -15405,6 +15419,8 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
@@ -15418,6 +15434,8 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
@@ -15431,6 +15449,8 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
@@ -15444,6 +15464,8 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
@@ -15457,6 +15479,8 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
@@ -15470,6 +15494,8 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -15483,6 +15509,8 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
@@ -15496,6 +15524,8 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
@@ -15509,6 +15539,8 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
@@ -15522,6 +15554,8 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
@@ -15535,6 +15569,8 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
@@ -15548,6 +15584,8 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
@@ -15561,6 +15599,8 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
@@ -15574,6 +15614,8 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
@@ -15587,6 +15629,8 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
@@ -15600,6 +15644,8 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
@@ -15613,6 +15659,8 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
@@ -15626,6 +15674,8 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
@@ -15639,6 +15689,8 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
@@ -15652,6 +15704,8 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
@@ -15665,6 +15719,8 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
@@ -15678,6 +15734,8 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
@@ -15691,6 +15749,8 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
@@ -15704,6 +15764,8 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
@@ -15717,6 +15779,8 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
@@ -15730,6 +15794,8 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
@@ -15743,6 +15809,8 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
@@ -15756,6 +15824,8 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
@@ -15769,6 +15839,8 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
@@ -15782,6 +15854,8 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
@@ -15795,6 +15869,8 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
@@ -15808,6 +15884,8 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
@@ -15821,6 +15899,8 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
@@ -15834,6 +15914,8 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
@@ -15847,6 +15929,8 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
@@ -15860,6 +15944,8 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
@@ -15873,6 +15959,8 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
@@ -15886,6 +15974,8 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
@@ -15899,6 +15989,8 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
@@ -15912,6 +16004,8 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
@@ -15925,6 +16019,8 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
@@ -15938,6 +16034,8 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
@@ -15951,6 +16049,8 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
@@ -15964,6 +16064,8 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
@@ -15977,6 +16079,8 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
@@ -15990,6 +16094,8 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
@@ -16003,6 +16109,8 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
@@ -16016,6 +16124,8 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
@@ -16029,6 +16139,8 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
@@ -16042,6 +16154,8 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
@@ -16055,6 +16169,8 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
@@ -16068,6 +16184,8 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
@@ -16081,6 +16199,8 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
@@ -16094,6 +16214,8 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
@@ -16107,6 +16229,8 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
@@ -16120,6 +16244,8 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
@@ -16133,6 +16259,8 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
@@ -16146,6 +16274,8 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
@@ -16159,6 +16289,8 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
@@ -16172,6 +16304,8 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
@@ -16185,6 +16319,8 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
@@ -16198,6 +16334,8 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
@@ -16211,6 +16349,8 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
@@ -16224,6 +16364,8 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
@@ -16237,6 +16379,8 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
@@ -16250,6 +16394,8 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
@@ -16263,6 +16409,8 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
@@ -16276,6 +16424,8 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
@@ -16289,6 +16439,8 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
@@ -16302,6 +16454,8 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
@@ -16315,6 +16469,8 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
@@ -16328,6 +16484,8 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
@@ -16341,6 +16499,8 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
@@ -16354,6 +16514,8 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
@@ -16367,6 +16529,8 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
@@ -16380,6 +16544,8 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
@@ -16393,6 +16559,8 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
@@ -16406,6 +16574,8 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
@@ -16419,6 +16589,8 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
@@ -16432,6 +16604,8 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
@@ -16445,6 +16619,8 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
@@ -16458,6 +16634,8 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
@@ -16471,6 +16649,8 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
@@ -16484,6 +16664,8 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
@@ -16497,6 +16679,8 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
@@ -16510,6 +16694,8 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
@@ -16523,6 +16709,8 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
@@ -16536,6 +16724,8 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
@@ -16549,6 +16739,8 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
@@ -16562,6 +16754,8 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
@@ -16575,6 +16769,8 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
@@ -16588,6 +16784,8 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
@@ -16601,6 +16799,8 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
@@ -16614,6 +16814,8 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
@@ -16627,6 +16829,8 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
@@ -16640,6 +16844,8 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
@@ -16653,6 +16859,8 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
@@ -16666,6 +16874,8 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
@@ -16679,6 +16889,8 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
@@ -16692,6 +16904,8 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
@@ -16705,6 +16919,8 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
@@ -16718,6 +16934,8 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
@@ -16731,6 +16949,8 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
@@ -16744,6 +16964,8 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
@@ -16757,6 +16979,8 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
@@ -16770,6 +16994,8 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
@@ -16783,6 +17009,8 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
@@ -16796,6 +17024,8 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
@@ -16809,6 +17039,8 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
@@ -16822,6 +17054,8 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
@@ -16835,6 +17069,8 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
@@ -16848,6 +17084,8 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
@@ -16861,6 +17099,8 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
@@ -16874,6 +17114,8 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
@@ -16887,6 +17129,8 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
@@ -16900,6 +17144,8 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
@@ -16913,6 +17159,8 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
@@ -16926,6 +17174,8 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
@@ -16939,6 +17189,8 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
@@ -16952,6 +17204,8 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
@@ -16965,6 +17219,8 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
@@ -16978,6 +17234,8 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
@@ -16991,6 +17249,8 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
@@ -17004,6 +17264,8 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
@@ -17017,6 +17279,8 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
@@ -17030,6 +17294,8 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2"/>
@@ -17043,6 +17309,8 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
@@ -17056,6 +17324,8 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
@@ -17069,6 +17339,8 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2"/>
@@ -17082,6 +17354,8 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2"/>
@@ -17095,6 +17369,8 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
@@ -17108,6 +17384,8 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2"/>
@@ -17121,6 +17399,8 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
@@ -17134,6 +17414,8 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
@@ -17147,6 +17429,8 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2"/>
@@ -17160,6 +17444,8 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2"/>
@@ -17173,6 +17459,8 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2"/>
@@ -17186,6 +17474,8 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2"/>
@@ -17199,6 +17489,8 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2"/>
@@ -17212,6 +17504,8 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
@@ -17225,6 +17519,8 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2"/>
@@ -17238,6 +17534,8 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2"/>
@@ -17251,6 +17549,8 @@
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2"/>
@@ -17264,6 +17564,8 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2"/>
@@ -17277,6 +17579,8 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2"/>
@@ -17290,6 +17594,8 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2"/>
@@ -17303,6 +17609,8 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2"/>
@@ -17316,6 +17624,8 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2"/>
@@ -17329,6 +17639,8 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2"/>
@@ -17342,6 +17654,8 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2"/>
@@ -17355,6 +17669,8 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2"/>
@@ -17368,6 +17684,8 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2"/>
@@ -17381,6 +17699,8 @@
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2"/>
@@ -17394,6 +17714,8 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2"/>
@@ -17407,6 +17729,8 @@
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2"/>
@@ -17420,6 +17744,8 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2"/>
@@ -17433,6 +17759,8 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2"/>
@@ -17446,6 +17774,8 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2"/>
@@ -17459,6 +17789,8 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2"/>
@@ -17472,6 +17804,8 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
@@ -17485,6 +17819,8 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
@@ -17498,6 +17834,8 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2"/>
@@ -17511,6 +17849,8 @@
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2"/>
@@ -17524,6 +17864,8 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
@@ -17537,6 +17879,8 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
@@ -17550,6 +17894,8 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2"/>
@@ -17563,6 +17909,8 @@
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2"/>
@@ -17576,6 +17924,8 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2"/>
@@ -17589,6 +17939,8 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2"/>
@@ -17602,6 +17954,8 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2"/>
@@ -17615,6 +17969,8 @@
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2"/>
@@ -17628,6 +17984,8 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2"/>
@@ -17641,6 +17999,8 @@
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2"/>
@@ -17654,6 +18014,8 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2"/>
@@ -17667,6 +18029,8 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
@@ -17680,6 +18044,8 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
@@ -17693,6 +18059,8 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2"/>
@@ -17706,6 +18074,8 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2"/>
@@ -17719,6 +18089,8 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
@@ -17732,6 +18104,8 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2"/>
@@ -17745,6 +18119,8 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2"/>
@@ -17758,6 +18134,8 @@
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
@@ -17771,6 +18149,8 @@
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2"/>
@@ -17784,6 +18164,8 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2"/>
@@ -17797,6 +18179,8 @@
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2"/>
@@ -17810,6 +18194,8 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2"/>
@@ -17823,6 +18209,8 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2"/>
@@ -17836,6 +18224,8 @@
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2"/>
@@ -17849,6 +18239,8 @@
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2"/>
@@ -17862,6 +18254,8 @@
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
@@ -17875,6 +18269,8 @@
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2"/>
@@ -17888,6 +18284,8 @@
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2"/>
@@ -17901,6 +18299,8 @@
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2"/>
@@ -17914,6 +18314,8 @@
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2"/>
@@ -17927,6 +18329,8 @@
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2"/>
@@ -17940,6 +18344,8 @@
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2"/>
@@ -17953,6 +18359,8 @@
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2"/>
@@ -17966,6 +18374,8 @@
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2"/>
@@ -17979,6 +18389,8 @@
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2"/>
@@ -17992,6 +18404,8 @@
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2"/>
@@ -18005,6 +18419,8 @@
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2"/>
@@ -18018,6 +18434,8 @@
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2"/>
@@ -18031,6 +18449,8 @@
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2"/>
@@ -18044,6 +18464,8 @@
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2"/>
@@ -18057,6 +18479,8 @@
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2"/>
@@ -18070,6 +18494,8 @@
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2"/>
@@ -18083,6 +18509,8 @@
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2"/>
@@ -18096,6 +18524,8 @@
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2"/>
@@ -18109,6 +18539,8 @@
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2"/>
@@ -18122,6 +18554,8 @@
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2"/>
@@ -18135,6 +18569,8 @@
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2"/>
@@ -18148,6 +18584,8 @@
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2"/>
@@ -18161,6 +18599,8 @@
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2"/>
@@ -18174,6 +18614,8 @@
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2"/>
@@ -18187,6 +18629,8 @@
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2"/>
@@ -18200,6 +18644,8 @@
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2"/>
@@ -18213,6 +18659,8 @@
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="2"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2"/>
@@ -18226,6 +18674,8 @@
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
+      <c r="M220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2"/>
@@ -18239,6 +18689,8 @@
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+      <c r="M221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
@@ -18252,6 +18704,8 @@
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
+      <c r="L222" s="2"/>
+      <c r="M222" s="2"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2"/>
@@ -18265,6 +18719,8 @@
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
+      <c r="L223" s="2"/>
+      <c r="M223" s="2"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2"/>
@@ -18278,6 +18734,8 @@
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
+      <c r="L224" s="2"/>
+      <c r="M224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2"/>
@@ -18291,6 +18749,8 @@
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2"/>
@@ -18304,6 +18764,8 @@
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
+      <c r="M226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2"/>
@@ -18317,6 +18779,8 @@
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
+      <c r="L227" s="2"/>
+      <c r="M227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2"/>
@@ -18330,6 +18794,8 @@
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2"/>
@@ -18343,6 +18809,8 @@
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2"/>
@@ -18356,6 +18824,8 @@
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2"/>
@@ -18369,6 +18839,8 @@
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="2"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
@@ -18382,6 +18854,8 @@
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2"/>
@@ -18395,6 +18869,8 @@
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2"/>
@@ -18408,6 +18884,8 @@
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2"/>
@@ -18421,6 +18899,8 @@
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2"/>
@@ -18434,6 +18914,8 @@
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2"/>
@@ -18447,6 +18929,8 @@
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
+      <c r="L237" s="2"/>
+      <c r="M237" s="2"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2"/>
@@ -18460,6 +18944,8 @@
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="M238" s="2"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2"/>
@@ -18473,6 +18959,8 @@
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
+      <c r="M239" s="2"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2"/>
@@ -18486,6 +18974,8 @@
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
+      <c r="L240" s="2"/>
+      <c r="M240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2"/>
@@ -18499,6 +18989,8 @@
       <c r="I241" s="2"/>
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2"/>
@@ -18512,6 +19004,8 @@
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="2"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2"/>
@@ -18525,6 +19019,8 @@
       <c r="I243" s="2"/>
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
+      <c r="L243" s="2"/>
+      <c r="M243" s="2"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2"/>
@@ -18538,6 +19034,8 @@
       <c r="I244" s="2"/>
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
+      <c r="L244" s="2"/>
+      <c r="M244" s="2"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2"/>
@@ -18551,6 +19049,8 @@
       <c r="I245" s="2"/>
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
+      <c r="L245" s="2"/>
+      <c r="M245" s="2"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2"/>
@@ -18564,6 +19064,8 @@
       <c r="I246" s="2"/>
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
+      <c r="L246" s="2"/>
+      <c r="M246" s="2"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2"/>
@@ -18577,6 +19079,8 @@
       <c r="I247" s="2"/>
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
+      <c r="L247" s="2"/>
+      <c r="M247" s="2"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="2"/>
@@ -18590,6 +19094,8 @@
       <c r="I248" s="2"/>
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
+      <c r="L248" s="2"/>
+      <c r="M248" s="2"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2"/>
@@ -18603,6 +19109,8 @@
       <c r="I249" s="2"/>
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
+      <c r="L249" s="2"/>
+      <c r="M249" s="2"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="2"/>
@@ -18616,6 +19124,8 @@
       <c r="I250" s="2"/>
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
+      <c r="L250" s="2"/>
+      <c r="M250" s="2"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2"/>
@@ -18629,6 +19139,8 @@
       <c r="I251" s="2"/>
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
+      <c r="L251" s="2"/>
+      <c r="M251" s="2"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="2"/>
@@ -18642,6 +19154,8 @@
       <c r="I252" s="2"/>
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
+      <c r="L252" s="2"/>
+      <c r="M252" s="2"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="2"/>
@@ -18655,6 +19169,8 @@
       <c r="I253" s="2"/>
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
+      <c r="L253" s="2"/>
+      <c r="M253" s="2"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="2"/>
@@ -18668,6 +19184,8 @@
       <c r="I254" s="2"/>
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
+      <c r="L254" s="2"/>
+      <c r="M254" s="2"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="2"/>
@@ -18681,6 +19199,8 @@
       <c r="I255" s="2"/>
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
+      <c r="L255" s="2"/>
+      <c r="M255" s="2"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="2"/>
@@ -18694,6 +19214,8 @@
       <c r="I256" s="2"/>
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
+      <c r="L256" s="2"/>
+      <c r="M256" s="2"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2"/>
@@ -18707,6 +19229,8 @@
       <c r="I257" s="2"/>
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
+      <c r="L257" s="2"/>
+      <c r="M257" s="2"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2"/>
@@ -18720,6 +19244,8 @@
       <c r="I258" s="2"/>
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
+      <c r="L258" s="2"/>
+      <c r="M258" s="2"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2"/>
@@ -18733,6 +19259,8 @@
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
+      <c r="L259" s="2"/>
+      <c r="M259" s="2"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2"/>
@@ -18746,6 +19274,8 @@
       <c r="I260" s="2"/>
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
+      <c r="L260" s="2"/>
+      <c r="M260" s="2"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2"/>
@@ -18759,6 +19289,8 @@
       <c r="I261" s="2"/>
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
+      <c r="L261" s="2"/>
+      <c r="M261" s="2"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2"/>
@@ -18772,6 +19304,8 @@
       <c r="I262" s="2"/>
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
+      <c r="L262" s="2"/>
+      <c r="M262" s="2"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2"/>
@@ -18785,6 +19319,8 @@
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
+      <c r="L263" s="2"/>
+      <c r="M263" s="2"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2"/>
@@ -18798,6 +19334,8 @@
       <c r="I264" s="2"/>
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
+      <c r="L264" s="2"/>
+      <c r="M264" s="2"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="2"/>
@@ -18811,6 +19349,8 @@
       <c r="I265" s="2"/>
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
+      <c r="L265" s="2"/>
+      <c r="M265" s="2"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2"/>
@@ -18824,6 +19364,8 @@
       <c r="I266" s="2"/>
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
+      <c r="L266" s="2"/>
+      <c r="M266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2"/>
@@ -18837,6 +19379,8 @@
       <c r="I267" s="2"/>
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
+      <c r="L267" s="2"/>
+      <c r="M267" s="2"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="2"/>
@@ -18850,6 +19394,8 @@
       <c r="I268" s="2"/>
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
+      <c r="L268" s="2"/>
+      <c r="M268" s="2"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2"/>
@@ -18863,6 +19409,8 @@
       <c r="I269" s="2"/>
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
+      <c r="L269" s="2"/>
+      <c r="M269" s="2"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="2"/>
@@ -18876,6 +19424,8 @@
       <c r="I270" s="2"/>
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
+      <c r="L270" s="2"/>
+      <c r="M270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2"/>
@@ -18889,6 +19439,8 @@
       <c r="I271" s="2"/>
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
+      <c r="L271" s="2"/>
+      <c r="M271" s="2"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2"/>
@@ -18902,6 +19454,8 @@
       <c r="I272" s="2"/>
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
+      <c r="L272" s="2"/>
+      <c r="M272" s="2"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="2"/>
@@ -18915,6 +19469,8 @@
       <c r="I273" s="2"/>
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
+      <c r="L273" s="2"/>
+      <c r="M273" s="2"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2"/>
@@ -18928,6 +19484,8 @@
       <c r="I274" s="2"/>
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
+      <c r="L274" s="2"/>
+      <c r="M274" s="2"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2"/>
@@ -18941,6 +19499,8 @@
       <c r="I275" s="2"/>
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
+      <c r="L275" s="2"/>
+      <c r="M275" s="2"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="2"/>
@@ -18954,6 +19514,8 @@
       <c r="I276" s="2"/>
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
+      <c r="L276" s="2"/>
+      <c r="M276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2"/>
@@ -18967,6 +19529,8 @@
       <c r="I277" s="2"/>
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
+      <c r="L277" s="2"/>
+      <c r="M277" s="2"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2"/>
@@ -18980,6 +19544,8 @@
       <c r="I278" s="2"/>
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
+      <c r="L278" s="2"/>
+      <c r="M278" s="2"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2"/>
@@ -18993,6 +19559,8 @@
       <c r="I279" s="2"/>
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
+      <c r="L279" s="2"/>
+      <c r="M279" s="2"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2"/>
@@ -19006,6 +19574,8 @@
       <c r="I280" s="2"/>
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
+      <c r="L280" s="2"/>
+      <c r="M280" s="2"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="2"/>
@@ -19019,6 +19589,8 @@
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
+      <c r="L281" s="2"/>
+      <c r="M281" s="2"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2"/>
@@ -19032,6 +19604,8 @@
       <c r="I282" s="2"/>
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
+      <c r="L282" s="2"/>
+      <c r="M282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2"/>
@@ -19045,6 +19619,8 @@
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
+      <c r="L283" s="2"/>
+      <c r="M283" s="2"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2"/>
@@ -19058,6 +19634,8 @@
       <c r="I284" s="2"/>
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
+      <c r="L284" s="2"/>
+      <c r="M284" s="2"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="2"/>
@@ -19071,6 +19649,8 @@
       <c r="I285" s="2"/>
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
+      <c r="L285" s="2"/>
+      <c r="M285" s="2"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="2"/>
@@ -19084,6 +19664,8 @@
       <c r="I286" s="2"/>
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
+      <c r="L286" s="2"/>
+      <c r="M286" s="2"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2"/>
@@ -19097,6 +19679,8 @@
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
+      <c r="L287" s="2"/>
+      <c r="M287" s="2"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2"/>
@@ -19110,6 +19694,8 @@
       <c r="I288" s="2"/>
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
+      <c r="L288" s="2"/>
+      <c r="M288" s="2"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2"/>
@@ -19123,6 +19709,8 @@
       <c r="I289" s="2"/>
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
+      <c r="L289" s="2"/>
+      <c r="M289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2"/>
@@ -19136,6 +19724,8 @@
       <c r="I290" s="2"/>
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
+      <c r="L290" s="2"/>
+      <c r="M290" s="2"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2"/>
@@ -19149,6 +19739,8 @@
       <c r="I291" s="2"/>
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
+      <c r="L291" s="2"/>
+      <c r="M291" s="2"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2"/>
@@ -19162,6 +19754,8 @@
       <c r="I292" s="2"/>
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
+      <c r="L292" s="2"/>
+      <c r="M292" s="2"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2"/>
@@ -19175,6 +19769,8 @@
       <c r="I293" s="2"/>
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
+      <c r="L293" s="2"/>
+      <c r="M293" s="2"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2"/>
@@ -19188,6 +19784,8 @@
       <c r="I294" s="2"/>
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
+      <c r="L294" s="2"/>
+      <c r="M294" s="2"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2"/>
@@ -19201,6 +19799,8 @@
       <c r="I295" s="2"/>
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
+      <c r="L295" s="2"/>
+      <c r="M295" s="2"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="2"/>
@@ -19214,6 +19814,8 @@
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
+      <c r="L296" s="2"/>
+      <c r="M296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="2"/>
@@ -19227,6 +19829,8 @@
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
+      <c r="L297" s="2"/>
+      <c r="M297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2"/>
@@ -19240,6 +19844,8 @@
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
+      <c r="L298" s="2"/>
+      <c r="M298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2"/>
@@ -19253,6 +19859,8 @@
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
+      <c r="L299" s="2"/>
+      <c r="M299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2"/>
@@ -19266,6 +19874,8 @@
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
+      <c r="L300" s="2"/>
+      <c r="M300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="2"/>
@@ -19279,6 +19889,8 @@
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
+      <c r="L301" s="2"/>
+      <c r="M301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2"/>
@@ -19292,6 +19904,8 @@
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
+      <c r="L302" s="2"/>
+      <c r="M302" s="2"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2"/>
@@ -19305,6 +19919,8 @@
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
+      <c r="L303" s="2"/>
+      <c r="M303" s="2"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2"/>
@@ -19318,6 +19934,8 @@
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
+      <c r="L304" s="2"/>
+      <c r="M304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2"/>
@@ -19331,6 +19949,8 @@
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
+      <c r="L305" s="2"/>
+      <c r="M305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2"/>
@@ -19344,6 +19964,8 @@
       <c r="I306" s="2"/>
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
+      <c r="L306" s="2"/>
+      <c r="M306" s="2"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2"/>
@@ -19357,6 +19979,8 @@
       <c r="I307" s="2"/>
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
+      <c r="L307" s="2"/>
+      <c r="M307" s="2"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2"/>
@@ -19370,6 +19994,8 @@
       <c r="I308" s="2"/>
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
+      <c r="L308" s="2"/>
+      <c r="M308" s="2"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2"/>
@@ -19383,6 +20009,8 @@
       <c r="I309" s="2"/>
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
+      <c r="L309" s="2"/>
+      <c r="M309" s="2"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2"/>
@@ -19396,6 +20024,8 @@
       <c r="I310" s="2"/>
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
+      <c r="L310" s="2"/>
+      <c r="M310" s="2"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2"/>
@@ -19409,6 +20039,8 @@
       <c r="I311" s="2"/>
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
+      <c r="L311" s="2"/>
+      <c r="M311" s="2"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="2"/>
@@ -19422,6 +20054,8 @@
       <c r="I312" s="2"/>
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
+      <c r="L312" s="2"/>
+      <c r="M312" s="2"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2"/>
@@ -19435,6 +20069,8 @@
       <c r="I313" s="2"/>
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
+      <c r="L313" s="2"/>
+      <c r="M313" s="2"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2"/>
@@ -19448,6 +20084,8 @@
       <c r="I314" s="2"/>
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
+      <c r="L314" s="2"/>
+      <c r="M314" s="2"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="2"/>
@@ -19461,6 +20099,8 @@
       <c r="I315" s="2"/>
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
+      <c r="L315" s="2"/>
+      <c r="M315" s="2"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2"/>
@@ -19474,6 +20114,8 @@
       <c r="I316" s="2"/>
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
+      <c r="L316" s="2"/>
+      <c r="M316" s="2"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2"/>
@@ -19487,6 +20129,8 @@
       <c r="I317" s="2"/>
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
+      <c r="L317" s="2"/>
+      <c r="M317" s="2"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2"/>
@@ -19500,6 +20144,8 @@
       <c r="I318" s="2"/>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
+      <c r="L318" s="2"/>
+      <c r="M318" s="2"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2"/>
@@ -19513,6 +20159,8 @@
       <c r="I319" s="2"/>
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
+      <c r="L319" s="2"/>
+      <c r="M319" s="2"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="2"/>
@@ -19526,6 +20174,8 @@
       <c r="I320" s="2"/>
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
+      <c r="L320" s="2"/>
+      <c r="M320" s="2"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2"/>
@@ -19539,6 +20189,8 @@
       <c r="I321" s="2"/>
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
+      <c r="L321" s="2"/>
+      <c r="M321" s="2"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2"/>
@@ -19552,6 +20204,8 @@
       <c r="I322" s="2"/>
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
+      <c r="L322" s="2"/>
+      <c r="M322" s="2"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2"/>
@@ -19565,6 +20219,8 @@
       <c r="I323" s="2"/>
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
+      <c r="L323" s="2"/>
+      <c r="M323" s="2"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2"/>
@@ -19578,6 +20234,8 @@
       <c r="I324" s="2"/>
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
+      <c r="L324" s="2"/>
+      <c r="M324" s="2"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="2"/>
@@ -19591,6 +20249,8 @@
       <c r="I325" s="2"/>
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
+      <c r="L325" s="2"/>
+      <c r="M325" s="2"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2"/>
@@ -19604,6 +20264,8 @@
       <c r="I326" s="2"/>
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
+      <c r="L326" s="2"/>
+      <c r="M326" s="2"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="2"/>
@@ -19617,6 +20279,8 @@
       <c r="I327" s="2"/>
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
+      <c r="L327" s="2"/>
+      <c r="M327" s="2"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="2"/>
@@ -19630,6 +20294,8 @@
       <c r="I328" s="2"/>
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
+      <c r="L328" s="2"/>
+      <c r="M328" s="2"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="2"/>
@@ -19643,6 +20309,8 @@
       <c r="I329" s="2"/>
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
+      <c r="L329" s="2"/>
+      <c r="M329" s="2"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="2"/>
@@ -19656,6 +20324,8 @@
       <c r="I330" s="2"/>
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
+      <c r="L330" s="2"/>
+      <c r="M330" s="2"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2"/>
@@ -19669,6 +20339,8 @@
       <c r="I331" s="2"/>
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
+      <c r="L331" s="2"/>
+      <c r="M331" s="2"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="2"/>
@@ -19682,6 +20354,8 @@
       <c r="I332" s="2"/>
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
+      <c r="L332" s="2"/>
+      <c r="M332" s="2"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="2"/>
@@ -19695,6 +20369,8 @@
       <c r="I333" s="2"/>
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
+      <c r="L333" s="2"/>
+      <c r="M333" s="2"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2"/>
@@ -19708,6 +20384,8 @@
       <c r="I334" s="2"/>
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
+      <c r="L334" s="2"/>
+      <c r="M334" s="2"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2"/>
@@ -19721,6 +20399,8 @@
       <c r="I335" s="2"/>
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
+      <c r="L335" s="2"/>
+      <c r="M335" s="2"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="2"/>
@@ -19734,6 +20414,8 @@
       <c r="I336" s="2"/>
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
+      <c r="L336" s="2"/>
+      <c r="M336" s="2"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="2"/>
@@ -19747,6 +20429,8 @@
       <c r="I337" s="2"/>
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
+      <c r="L337" s="2"/>
+      <c r="M337" s="2"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2"/>
@@ -19760,6 +20444,8 @@
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
+      <c r="L338" s="2"/>
+      <c r="M338" s="2"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="2"/>
@@ -19773,6 +20459,8 @@
       <c r="I339" s="2"/>
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
+      <c r="L339" s="2"/>
+      <c r="M339" s="2"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2"/>
@@ -19786,6 +20474,8 @@
       <c r="I340" s="2"/>
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
+      <c r="L340" s="2"/>
+      <c r="M340" s="2"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="2"/>
@@ -19799,6 +20489,8 @@
       <c r="I341" s="2"/>
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
+      <c r="L341" s="2"/>
+      <c r="M341" s="2"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2"/>
@@ -19812,6 +20504,8 @@
       <c r="I342" s="2"/>
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
+      <c r="L342" s="2"/>
+      <c r="M342" s="2"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2"/>
@@ -19825,6 +20519,8 @@
       <c r="I343" s="2"/>
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
+      <c r="L343" s="2"/>
+      <c r="M343" s="2"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2"/>
@@ -19838,6 +20534,8 @@
       <c r="I344" s="2"/>
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
+      <c r="L344" s="2"/>
+      <c r="M344" s="2"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2"/>
@@ -19851,6 +20549,8 @@
       <c r="I345" s="2"/>
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
+      <c r="L345" s="2"/>
+      <c r="M345" s="2"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2"/>
@@ -19864,6 +20564,8 @@
       <c r="I346" s="2"/>
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
+      <c r="L346" s="2"/>
+      <c r="M346" s="2"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="2"/>
@@ -19877,6 +20579,8 @@
       <c r="I347" s="2"/>
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
+      <c r="L347" s="2"/>
+      <c r="M347" s="2"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2"/>
@@ -19890,6 +20594,8 @@
       <c r="I348" s="2"/>
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
+      <c r="L348" s="2"/>
+      <c r="M348" s="2"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2"/>
@@ -19903,6 +20609,8 @@
       <c r="I349" s="2"/>
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
+      <c r="L349" s="2"/>
+      <c r="M349" s="2"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2"/>
@@ -19916,6 +20624,8 @@
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
+      <c r="L350" s="2"/>
+      <c r="M350" s="2"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="2"/>
@@ -19929,6 +20639,8 @@
       <c r="I351" s="2"/>
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
+      <c r="L351" s="2"/>
+      <c r="M351" s="2"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="2"/>
@@ -19942,6 +20654,8 @@
       <c r="I352" s="2"/>
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
+      <c r="L352" s="2"/>
+      <c r="M352" s="2"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2"/>
@@ -19955,6 +20669,8 @@
       <c r="I353" s="2"/>
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
+      <c r="L353" s="2"/>
+      <c r="M353" s="2"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="2"/>
@@ -19968,6 +20684,8 @@
       <c r="I354" s="2"/>
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
+      <c r="L354" s="2"/>
+      <c r="M354" s="2"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2"/>
@@ -19981,6 +20699,8 @@
       <c r="I355" s="2"/>
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
+      <c r="L355" s="2"/>
+      <c r="M355" s="2"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2"/>
@@ -19994,6 +20714,8 @@
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
+      <c r="L356" s="2"/>
+      <c r="M356" s="2"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="2"/>
@@ -20007,6 +20729,8 @@
       <c r="I357" s="2"/>
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
+      <c r="L357" s="2"/>
+      <c r="M357" s="2"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2"/>
@@ -20020,6 +20744,8 @@
       <c r="I358" s="2"/>
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
+      <c r="L358" s="2"/>
+      <c r="M358" s="2"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2"/>
@@ -20033,6 +20759,8 @@
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
+      <c r="L359" s="2"/>
+      <c r="M359" s="2"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2"/>
@@ -20046,6 +20774,8 @@
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
+      <c r="L360" s="2"/>
+      <c r="M360" s="2"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2"/>
@@ -20059,6 +20789,8 @@
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
+      <c r="L361" s="2"/>
+      <c r="M361" s="2"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2"/>
@@ -20072,6 +20804,8 @@
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
+      <c r="L362" s="2"/>
+      <c r="M362" s="2"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2"/>
@@ -20085,6 +20819,8 @@
       <c r="I363" s="2"/>
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
+      <c r="L363" s="2"/>
+      <c r="M363" s="2"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2"/>
@@ -20098,6 +20834,8 @@
       <c r="I364" s="2"/>
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
+      <c r="L364" s="2"/>
+      <c r="M364" s="2"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="2"/>
@@ -20111,6 +20849,8 @@
       <c r="I365" s="2"/>
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
+      <c r="L365" s="2"/>
+      <c r="M365" s="2"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="2"/>
@@ -20124,6 +20864,8 @@
       <c r="I366" s="2"/>
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
+      <c r="L366" s="2"/>
+      <c r="M366" s="2"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2"/>
@@ -20137,6 +20879,8 @@
       <c r="I367" s="2"/>
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
+      <c r="L367" s="2"/>
+      <c r="M367" s="2"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2"/>
@@ -20150,6 +20894,8 @@
       <c r="I368" s="2"/>
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
+      <c r="L368" s="2"/>
+      <c r="M368" s="2"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2"/>
@@ -20163,6 +20909,8 @@
       <c r="I369" s="2"/>
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
+      <c r="L369" s="2"/>
+      <c r="M369" s="2"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2"/>
@@ -20176,6 +20924,8 @@
       <c r="I370" s="2"/>
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
+      <c r="L370" s="2"/>
+      <c r="M370" s="2"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2"/>
@@ -20189,6 +20939,8 @@
       <c r="I371" s="2"/>
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
+      <c r="L371" s="2"/>
+      <c r="M371" s="2"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2"/>
@@ -20202,6 +20954,8 @@
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
+      <c r="L372" s="2"/>
+      <c r="M372" s="2"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2"/>
@@ -20215,6 +20969,8 @@
       <c r="I373" s="2"/>
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
+      <c r="L373" s="2"/>
+      <c r="M373" s="2"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2"/>
@@ -20228,6 +20984,8 @@
       <c r="I374" s="2"/>
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
+      <c r="L374" s="2"/>
+      <c r="M374" s="2"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2"/>
@@ -20241,6 +20999,8 @@
       <c r="I375" s="2"/>
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
+      <c r="L375" s="2"/>
+      <c r="M375" s="2"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2"/>
@@ -20254,6 +21014,8 @@
       <c r="I376" s="2"/>
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
+      <c r="L376" s="2"/>
+      <c r="M376" s="2"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2"/>
@@ -20267,6 +21029,8 @@
       <c r="I377" s="2"/>
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
+      <c r="L377" s="2"/>
+      <c r="M377" s="2"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2"/>
@@ -20280,6 +21044,8 @@
       <c r="I378" s="2"/>
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
+      <c r="L378" s="2"/>
+      <c r="M378" s="2"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2"/>
@@ -20293,6 +21059,8 @@
       <c r="I379" s="2"/>
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
+      <c r="L379" s="2"/>
+      <c r="M379" s="2"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2"/>
@@ -20306,6 +21074,8 @@
       <c r="I380" s="2"/>
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
+      <c r="L380" s="2"/>
+      <c r="M380" s="2"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2"/>
@@ -20319,6 +21089,8 @@
       <c r="I381" s="2"/>
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
+      <c r="L381" s="2"/>
+      <c r="M381" s="2"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2"/>
@@ -20332,6 +21104,8 @@
       <c r="I382" s="2"/>
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
+      <c r="L382" s="2"/>
+      <c r="M382" s="2"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2"/>
@@ -20345,6 +21119,8 @@
       <c r="I383" s="2"/>
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
+      <c r="L383" s="2"/>
+      <c r="M383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2"/>
@@ -20358,6 +21134,8 @@
       <c r="I384" s="2"/>
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
+      <c r="L384" s="2"/>
+      <c r="M384" s="2"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2"/>
@@ -20371,6 +21149,8 @@
       <c r="I385" s="2"/>
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
+      <c r="L385" s="2"/>
+      <c r="M385" s="2"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2"/>
@@ -20384,6 +21164,8 @@
       <c r="I386" s="2"/>
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
+      <c r="L386" s="2"/>
+      <c r="M386" s="2"/>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2"/>
@@ -20397,6 +21179,8 @@
       <c r="I387" s="2"/>
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
+      <c r="L387" s="2"/>
+      <c r="M387" s="2"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2"/>
@@ -20410,6 +21194,8 @@
       <c r="I388" s="2"/>
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
+      <c r="L388" s="2"/>
+      <c r="M388" s="2"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="2"/>
@@ -20423,6 +21209,8 @@
       <c r="I389" s="2"/>
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
+      <c r="L389" s="2"/>
+      <c r="M389" s="2"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2"/>
@@ -20436,6 +21224,8 @@
       <c r="I390" s="2"/>
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
+      <c r="L390" s="2"/>
+      <c r="M390" s="2"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2"/>
@@ -20449,6 +21239,8 @@
       <c r="I391" s="2"/>
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
+      <c r="L391" s="2"/>
+      <c r="M391" s="2"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="2"/>
@@ -20462,6 +21254,8 @@
       <c r="I392" s="2"/>
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
+      <c r="L392" s="2"/>
+      <c r="M392" s="2"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="2"/>
@@ -20475,6 +21269,8 @@
       <c r="I393" s="2"/>
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
+      <c r="L393" s="2"/>
+      <c r="M393" s="2"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2"/>
@@ -20488,6 +21284,8 @@
       <c r="I394" s="2"/>
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
+      <c r="L394" s="2"/>
+      <c r="M394" s="2"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2"/>
@@ -20501,6 +21299,8 @@
       <c r="I395" s="2"/>
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
+      <c r="L395" s="2"/>
+      <c r="M395" s="2"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2"/>
@@ -20514,6 +21314,8 @@
       <c r="I396" s="2"/>
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
+      <c r="L396" s="2"/>
+      <c r="M396" s="2"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2"/>
@@ -20527,6 +21329,8 @@
       <c r="I397" s="2"/>
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
+      <c r="L397" s="2"/>
+      <c r="M397" s="2"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2"/>
@@ -20540,6 +21344,8 @@
       <c r="I398" s="2"/>
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
+      <c r="L398" s="2"/>
+      <c r="M398" s="2"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="2"/>
@@ -20553,6 +21359,8 @@
       <c r="I399" s="2"/>
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
+      <c r="L399" s="2"/>
+      <c r="M399" s="2"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2"/>
@@ -20566,6 +21374,8 @@
       <c r="I400" s="2"/>
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
+      <c r="L400" s="2"/>
+      <c r="M400" s="2"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2"/>
@@ -20579,6 +21389,8 @@
       <c r="I401" s="2"/>
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
+      <c r="L401" s="2"/>
+      <c r="M401" s="2"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2"/>
@@ -20592,6 +21404,8 @@
       <c r="I402" s="2"/>
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
+      <c r="L402" s="2"/>
+      <c r="M402" s="2"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2"/>
@@ -20605,6 +21419,8 @@
       <c r="I403" s="2"/>
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
+      <c r="L403" s="2"/>
+      <c r="M403" s="2"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2"/>
@@ -20618,6 +21434,8 @@
       <c r="I404" s="2"/>
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
+      <c r="L404" s="2"/>
+      <c r="M404" s="2"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2"/>
@@ -20631,6 +21449,8 @@
       <c r="I405" s="2"/>
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
+      <c r="L405" s="2"/>
+      <c r="M405" s="2"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2"/>
@@ -20644,6 +21464,8 @@
       <c r="I406" s="2"/>
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
+      <c r="L406" s="2"/>
+      <c r="M406" s="2"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="2"/>
@@ -20657,6 +21479,8 @@
       <c r="I407" s="2"/>
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
+      <c r="L407" s="2"/>
+      <c r="M407" s="2"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="2"/>
@@ -20670,6 +21494,8 @@
       <c r="I408" s="2"/>
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
+      <c r="L408" s="2"/>
+      <c r="M408" s="2"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2"/>
@@ -20683,6 +21509,8 @@
       <c r="I409" s="2"/>
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
+      <c r="L409" s="2"/>
+      <c r="M409" s="2"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2"/>
@@ -20696,6 +21524,8 @@
       <c r="I410" s="2"/>
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
+      <c r="L410" s="2"/>
+      <c r="M410" s="2"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2"/>
@@ -20709,6 +21539,8 @@
       <c r="I411" s="2"/>
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
+      <c r="L411" s="2"/>
+      <c r="M411" s="2"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2"/>
@@ -20722,6 +21554,8 @@
       <c r="I412" s="2"/>
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
+      <c r="L412" s="2"/>
+      <c r="M412" s="2"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2"/>
@@ -20735,6 +21569,8 @@
       <c r="I413" s="2"/>
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
+      <c r="L413" s="2"/>
+      <c r="M413" s="2"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2"/>
@@ -20748,6 +21584,8 @@
       <c r="I414" s="2"/>
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
+      <c r="L414" s="2"/>
+      <c r="M414" s="2"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2"/>
@@ -20761,6 +21599,8 @@
       <c r="I415" s="2"/>
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
+      <c r="L415" s="2"/>
+      <c r="M415" s="2"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="2"/>
@@ -20774,6 +21614,8 @@
       <c r="I416" s="2"/>
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
+      <c r="L416" s="2"/>
+      <c r="M416" s="2"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2"/>
@@ -20787,6 +21629,8 @@
       <c r="I417" s="2"/>
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
+      <c r="L417" s="2"/>
+      <c r="M417" s="2"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2"/>
@@ -20800,6 +21644,8 @@
       <c r="I418" s="2"/>
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
+      <c r="L418" s="2"/>
+      <c r="M418" s="2"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2"/>
@@ -20813,6 +21659,8 @@
       <c r="I419" s="2"/>
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
+      <c r="L419" s="2"/>
+      <c r="M419" s="2"/>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2"/>
@@ -20826,6 +21674,8 @@
       <c r="I420" s="2"/>
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
+      <c r="L420" s="2"/>
+      <c r="M420" s="2"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2"/>
@@ -20839,6 +21689,8 @@
       <c r="I421" s="2"/>
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
+      <c r="L421" s="2"/>
+      <c r="M421" s="2"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2"/>
@@ -20852,6 +21704,8 @@
       <c r="I422" s="2"/>
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
+      <c r="L422" s="2"/>
+      <c r="M422" s="2"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="2"/>
@@ -20865,6 +21719,8 @@
       <c r="I423" s="2"/>
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
+      <c r="L423" s="2"/>
+      <c r="M423" s="2"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2"/>
@@ -20878,6 +21734,8 @@
       <c r="I424" s="2"/>
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
+      <c r="L424" s="2"/>
+      <c r="M424" s="2"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2"/>
@@ -20891,6 +21749,8 @@
       <c r="I425" s="2"/>
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
+      <c r="L425" s="2"/>
+      <c r="M425" s="2"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2"/>
@@ -20904,6 +21764,8 @@
       <c r="I426" s="2"/>
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
+      <c r="L426" s="2"/>
+      <c r="M426" s="2"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2"/>
@@ -20917,6 +21779,8 @@
       <c r="I427" s="2"/>
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
+      <c r="L427" s="2"/>
+      <c r="M427" s="2"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2"/>
@@ -20930,6 +21794,8 @@
       <c r="I428" s="2"/>
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
+      <c r="L428" s="2"/>
+      <c r="M428" s="2"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2"/>
@@ -20943,6 +21809,8 @@
       <c r="I429" s="2"/>
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
+      <c r="L429" s="2"/>
+      <c r="M429" s="2"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2"/>
@@ -20956,6 +21824,8 @@
       <c r="I430" s="2"/>
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
+      <c r="L430" s="2"/>
+      <c r="M430" s="2"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2"/>
@@ -20969,6 +21839,8 @@
       <c r="I431" s="2"/>
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
+      <c r="L431" s="2"/>
+      <c r="M431" s="2"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2"/>
@@ -20982,6 +21854,8 @@
       <c r="I432" s="2"/>
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
+      <c r="L432" s="2"/>
+      <c r="M432" s="2"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2"/>
@@ -20995,6 +21869,8 @@
       <c r="I433" s="2"/>
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
+      <c r="L433" s="2"/>
+      <c r="M433" s="2"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2"/>
@@ -21008,6 +21884,8 @@
       <c r="I434" s="2"/>
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
+      <c r="L434" s="2"/>
+      <c r="M434" s="2"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2"/>
@@ -21021,6 +21899,8 @@
       <c r="I435" s="2"/>
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
+      <c r="L435" s="2"/>
+      <c r="M435" s="2"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2"/>
@@ -21034,6 +21914,8 @@
       <c r="I436" s="2"/>
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
+      <c r="L436" s="2"/>
+      <c r="M436" s="2"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2"/>
@@ -21047,6 +21929,8 @@
       <c r="I437" s="2"/>
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
+      <c r="L437" s="2"/>
+      <c r="M437" s="2"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2"/>
@@ -21060,6 +21944,8 @@
       <c r="I438" s="2"/>
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
+      <c r="L438" s="2"/>
+      <c r="M438" s="2"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2"/>
@@ -21073,6 +21959,8 @@
       <c r="I439" s="2"/>
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
+      <c r="L439" s="2"/>
+      <c r="M439" s="2"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2"/>
@@ -21086,6 +21974,8 @@
       <c r="I440" s="2"/>
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
+      <c r="L440" s="2"/>
+      <c r="M440" s="2"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2"/>
@@ -21099,6 +21989,8 @@
       <c r="I441" s="2"/>
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
+      <c r="L441" s="2"/>
+      <c r="M441" s="2"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2"/>
@@ -21112,6 +22004,8 @@
       <c r="I442" s="2"/>
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
+      <c r="L442" s="2"/>
+      <c r="M442" s="2"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2"/>
@@ -21125,6 +22019,8 @@
       <c r="I443" s="2"/>
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
+      <c r="L443" s="2"/>
+      <c r="M443" s="2"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2"/>
@@ -21138,6 +22034,8 @@
       <c r="I444" s="2"/>
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
+      <c r="L444" s="2"/>
+      <c r="M444" s="2"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2"/>
@@ -21151,6 +22049,8 @@
       <c r="I445" s="2"/>
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
+      <c r="L445" s="2"/>
+      <c r="M445" s="2"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2"/>
@@ -21164,6 +22064,8 @@
       <c r="I446" s="2"/>
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
+      <c r="L446" s="2"/>
+      <c r="M446" s="2"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2"/>
@@ -21177,6 +22079,8 @@
       <c r="I447" s="2"/>
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
+      <c r="L447" s="2"/>
+      <c r="M447" s="2"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2"/>
@@ -21190,6 +22094,8 @@
       <c r="I448" s="2"/>
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
+      <c r="L448" s="2"/>
+      <c r="M448" s="2"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2"/>
@@ -21203,6 +22109,8 @@
       <c r="I449" s="2"/>
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
+      <c r="L449" s="2"/>
+      <c r="M449" s="2"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2"/>
@@ -21216,6 +22124,8 @@
       <c r="I450" s="2"/>
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
+      <c r="L450" s="2"/>
+      <c r="M450" s="2"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2"/>
@@ -21229,6 +22139,8 @@
       <c r="I451" s="2"/>
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
+      <c r="L451" s="2"/>
+      <c r="M451" s="2"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2"/>
@@ -21242,6 +22154,8 @@
       <c r="I452" s="2"/>
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
+      <c r="L452" s="2"/>
+      <c r="M452" s="2"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2"/>
@@ -21255,6 +22169,8 @@
       <c r="I453" s="2"/>
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
+      <c r="L453" s="2"/>
+      <c r="M453" s="2"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2"/>
@@ -21268,6 +22184,8 @@
       <c r="I454" s="2"/>
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
+      <c r="L454" s="2"/>
+      <c r="M454" s="2"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2"/>
@@ -21281,6 +22199,8 @@
       <c r="I455" s="2"/>
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
+      <c r="L455" s="2"/>
+      <c r="M455" s="2"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2"/>
@@ -21294,6 +22214,8 @@
       <c r="I456" s="2"/>
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
+      <c r="L456" s="2"/>
+      <c r="M456" s="2"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2"/>
@@ -21307,6 +22229,8 @@
       <c r="I457" s="2"/>
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
+      <c r="L457" s="2"/>
+      <c r="M457" s="2"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2"/>
@@ -21320,6 +22244,8 @@
       <c r="I458" s="2"/>
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
+      <c r="L458" s="2"/>
+      <c r="M458" s="2"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2"/>
@@ -21333,6 +22259,8 @@
       <c r="I459" s="2"/>
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
+      <c r="L459" s="2"/>
+      <c r="M459" s="2"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2"/>
@@ -21346,6 +22274,8 @@
       <c r="I460" s="2"/>
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
+      <c r="L460" s="2"/>
+      <c r="M460" s="2"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2"/>
@@ -21359,6 +22289,8 @@
       <c r="I461" s="2"/>
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
+      <c r="L461" s="2"/>
+      <c r="M461" s="2"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2"/>
@@ -21372,6 +22304,8 @@
       <c r="I462" s="2"/>
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
+      <c r="L462" s="2"/>
+      <c r="M462" s="2"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2"/>
@@ -21385,6 +22319,8 @@
       <c r="I463" s="2"/>
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
+      <c r="L463" s="2"/>
+      <c r="M463" s="2"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2"/>
@@ -21398,6 +22334,8 @@
       <c r="I464" s="2"/>
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
+      <c r="L464" s="2"/>
+      <c r="M464" s="2"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2"/>
@@ -21411,6 +22349,8 @@
       <c r="I465" s="2"/>
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
+      <c r="L465" s="2"/>
+      <c r="M465" s="2"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2"/>
@@ -21424,6 +22364,8 @@
       <c r="I466" s="2"/>
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
+      <c r="L466" s="2"/>
+      <c r="M466" s="2"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2"/>
@@ -21437,6 +22379,8 @@
       <c r="I467" s="2"/>
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
+      <c r="L467" s="2"/>
+      <c r="M467" s="2"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2"/>
@@ -21450,6 +22394,8 @@
       <c r="I468" s="2"/>
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
+      <c r="L468" s="2"/>
+      <c r="M468" s="2"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2"/>
@@ -21463,6 +22409,8 @@
       <c r="I469" s="2"/>
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
+      <c r="L469" s="2"/>
+      <c r="M469" s="2"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="2"/>
@@ -21476,6 +22424,8 @@
       <c r="I470" s="2"/>
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
+      <c r="L470" s="2"/>
+      <c r="M470" s="2"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2"/>
@@ -21489,6 +22439,8 @@
       <c r="I471" s="2"/>
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
+      <c r="L471" s="2"/>
+      <c r="M471" s="2"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2"/>
@@ -21502,6 +22454,8 @@
       <c r="I472" s="2"/>
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
+      <c r="L472" s="2"/>
+      <c r="M472" s="2"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="2"/>
@@ -21515,6 +22469,8 @@
       <c r="I473" s="2"/>
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
+      <c r="L473" s="2"/>
+      <c r="M473" s="2"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2"/>
@@ -21528,6 +22484,8 @@
       <c r="I474" s="2"/>
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
+      <c r="L474" s="2"/>
+      <c r="M474" s="2"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2"/>
@@ -21541,6 +22499,8 @@
       <c r="I475" s="2"/>
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
+      <c r="L475" s="2"/>
+      <c r="M475" s="2"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2"/>
@@ -21554,6 +22514,8 @@
       <c r="I476" s="2"/>
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
+      <c r="L476" s="2"/>
+      <c r="M476" s="2"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2"/>
@@ -21567,6 +22529,8 @@
       <c r="I477" s="2"/>
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
+      <c r="L477" s="2"/>
+      <c r="M477" s="2"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2"/>
@@ -21580,6 +22544,8 @@
       <c r="I478" s="2"/>
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
+      <c r="L478" s="2"/>
+      <c r="M478" s="2"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2"/>
@@ -21593,6 +22559,8 @@
       <c r="I479" s="2"/>
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
+      <c r="L479" s="2"/>
+      <c r="M479" s="2"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="2"/>
@@ -21606,6 +22574,8 @@
       <c r="I480" s="2"/>
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
+      <c r="L480" s="2"/>
+      <c r="M480" s="2"/>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2"/>
@@ -21619,6 +22589,8 @@
       <c r="I481" s="2"/>
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
+      <c r="L481" s="2"/>
+      <c r="M481" s="2"/>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2"/>
@@ -21632,6 +22604,8 @@
       <c r="I482" s="2"/>
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
+      <c r="L482" s="2"/>
+      <c r="M482" s="2"/>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2"/>
@@ -21645,6 +22619,8 @@
       <c r="I483" s="2"/>
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
+      <c r="L483" s="2"/>
+      <c r="M483" s="2"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2"/>
@@ -21658,6 +22634,8 @@
       <c r="I484" s="2"/>
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
+      <c r="L484" s="2"/>
+      <c r="M484" s="2"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2"/>
@@ -21671,6 +22649,8 @@
       <c r="I485" s="2"/>
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
+      <c r="L485" s="2"/>
+      <c r="M485" s="2"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2"/>
@@ -21684,6 +22664,8 @@
       <c r="I486" s="2"/>
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
+      <c r="L486" s="2"/>
+      <c r="M486" s="2"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2"/>
@@ -21697,6 +22679,8 @@
       <c r="I487" s="2"/>
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
+      <c r="L487" s="2"/>
+      <c r="M487" s="2"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2"/>
@@ -21710,6 +22694,8 @@
       <c r="I488" s="2"/>
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
+      <c r="L488" s="2"/>
+      <c r="M488" s="2"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2"/>
@@ -21723,6 +22709,8 @@
       <c r="I489" s="2"/>
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
+      <c r="L489" s="2"/>
+      <c r="M489" s="2"/>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2"/>
@@ -21736,6 +22724,8 @@
       <c r="I490" s="2"/>
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
+      <c r="L490" s="2"/>
+      <c r="M490" s="2"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2"/>
@@ -21749,6 +22739,8 @@
       <c r="I491" s="2"/>
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
+      <c r="L491" s="2"/>
+      <c r="M491" s="2"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2"/>
@@ -21762,6 +22754,8 @@
       <c r="I492" s="2"/>
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
+      <c r="L492" s="2"/>
+      <c r="M492" s="2"/>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2"/>
@@ -21775,6 +22769,8 @@
       <c r="I493" s="2"/>
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
+      <c r="L493" s="2"/>
+      <c r="M493" s="2"/>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2"/>
@@ -21788,6 +22784,8 @@
       <c r="I494" s="2"/>
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
+      <c r="L494" s="2"/>
+      <c r="M494" s="2"/>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2"/>
@@ -21801,6 +22799,8 @@
       <c r="I495" s="2"/>
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
+      <c r="L495" s="2"/>
+      <c r="M495" s="2"/>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2"/>
@@ -21814,6 +22814,8 @@
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
+      <c r="L496" s="2"/>
+      <c r="M496" s="2"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2"/>
@@ -21827,6 +22829,8 @@
       <c r="I497" s="2"/>
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
+      <c r="L497" s="2"/>
+      <c r="M497" s="2"/>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2"/>
@@ -21840,6 +22844,8 @@
       <c r="I498" s="2"/>
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
+      <c r="L498" s="2"/>
+      <c r="M498" s="2"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2"/>
@@ -21853,6 +22859,8 @@
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
+      <c r="L499" s="2"/>
+      <c r="M499" s="2"/>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2"/>
@@ -21866,6 +22874,8 @@
       <c r="I500" s="2"/>
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
+      <c r="L500" s="2"/>
+      <c r="M500" s="2"/>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="2"/>
@@ -21879,6 +22889,8 @@
       <c r="I501" s="2"/>
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
+      <c r="L501" s="2"/>
+      <c r="M501" s="2"/>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2"/>
@@ -21892,6 +22904,8 @@
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
+      <c r="L502" s="2"/>
+      <c r="M502" s="2"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="2"/>
@@ -21905,6 +22919,8 @@
       <c r="I503" s="2"/>
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
+      <c r="L503" s="2"/>
+      <c r="M503" s="2"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="2"/>
@@ -21918,6 +22934,8 @@
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
+      <c r="L504" s="2"/>
+      <c r="M504" s="2"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2"/>
@@ -21931,6 +22949,8 @@
       <c r="I505" s="2"/>
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
+      <c r="L505" s="2"/>
+      <c r="M505" s="2"/>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2"/>
@@ -21944,6 +22964,8 @@
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
+      <c r="L506" s="2"/>
+      <c r="M506" s="2"/>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2"/>
@@ -21957,6 +22979,8 @@
       <c r="I507" s="2"/>
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
+      <c r="L507" s="2"/>
+      <c r="M507" s="2"/>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2"/>
@@ -21970,6 +22994,8 @@
       <c r="I508" s="2"/>
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
+      <c r="L508" s="2"/>
+      <c r="M508" s="2"/>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="2"/>
@@ -21983,6 +23009,8 @@
       <c r="I509" s="2"/>
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
+      <c r="L509" s="2"/>
+      <c r="M509" s="2"/>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="2"/>
@@ -21996,6 +23024,8 @@
       <c r="I510" s="2"/>
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
+      <c r="L510" s="2"/>
+      <c r="M510" s="2"/>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="2"/>
@@ -22009,6 +23039,8 @@
       <c r="I511" s="2"/>
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
+      <c r="L511" s="2"/>
+      <c r="M511" s="2"/>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="2"/>
@@ -22022,6 +23054,8 @@
       <c r="I512" s="2"/>
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
+      <c r="L512" s="2"/>
+      <c r="M512" s="2"/>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="2"/>
@@ -22035,6 +23069,8 @@
       <c r="I513" s="2"/>
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
+      <c r="L513" s="2"/>
+      <c r="M513" s="2"/>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="2"/>
@@ -22048,6 +23084,8 @@
       <c r="I514" s="2"/>
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
+      <c r="L514" s="2"/>
+      <c r="M514" s="2"/>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="2"/>
@@ -22061,6 +23099,8 @@
       <c r="I515" s="2"/>
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
+      <c r="L515" s="2"/>
+      <c r="M515" s="2"/>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="2"/>
@@ -22074,6 +23114,8 @@
       <c r="I516" s="2"/>
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
+      <c r="L516" s="2"/>
+      <c r="M516" s="2"/>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="2"/>
@@ -22087,6 +23129,8 @@
       <c r="I517" s="2"/>
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
+      <c r="L517" s="2"/>
+      <c r="M517" s="2"/>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="2"/>
@@ -22100,6 +23144,8 @@
       <c r="I518" s="2"/>
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
+      <c r="L518" s="2"/>
+      <c r="M518" s="2"/>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="2"/>
@@ -22113,6 +23159,8 @@
       <c r="I519" s="2"/>
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
+      <c r="L519" s="2"/>
+      <c r="M519" s="2"/>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="2"/>
@@ -22126,6 +23174,8 @@
       <c r="I520" s="2"/>
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
+      <c r="L520" s="2"/>
+      <c r="M520" s="2"/>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="2"/>
@@ -22139,6 +23189,8 @@
       <c r="I521" s="2"/>
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
+      <c r="L521" s="2"/>
+      <c r="M521" s="2"/>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="2"/>
@@ -22152,6 +23204,8 @@
       <c r="I522" s="2"/>
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
+      <c r="L522" s="2"/>
+      <c r="M522" s="2"/>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="2"/>
@@ -22165,6 +23219,8 @@
       <c r="I523" s="2"/>
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
+      <c r="L523" s="2"/>
+      <c r="M523" s="2"/>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="2"/>
@@ -22178,6 +23234,8 @@
       <c r="I524" s="2"/>
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
+      <c r="L524" s="2"/>
+      <c r="M524" s="2"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="2"/>
@@ -22191,6 +23249,8 @@
       <c r="I525" s="2"/>
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
+      <c r="L525" s="2"/>
+      <c r="M525" s="2"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2"/>
@@ -22204,6 +23264,8 @@
       <c r="I526" s="2"/>
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
+      <c r="L526" s="2"/>
+      <c r="M526" s="2"/>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="2"/>
@@ -22217,6 +23279,8 @@
       <c r="I527" s="2"/>
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
+      <c r="L527" s="2"/>
+      <c r="M527" s="2"/>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="2"/>
@@ -22230,6 +23294,8 @@
       <c r="I528" s="2"/>
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
+      <c r="L528" s="2"/>
+      <c r="M528" s="2"/>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="2"/>
@@ -22243,6 +23309,8 @@
       <c r="I529" s="2"/>
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
+      <c r="L529" s="2"/>
+      <c r="M529" s="2"/>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="2"/>
@@ -22256,6 +23324,8 @@
       <c r="I530" s="2"/>
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
+      <c r="L530" s="2"/>
+      <c r="M530" s="2"/>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="2"/>
@@ -22269,6 +23339,8 @@
       <c r="I531" s="2"/>
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
+      <c r="L531" s="2"/>
+      <c r="M531" s="2"/>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="2"/>
@@ -22282,6 +23354,8 @@
       <c r="I532" s="2"/>
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
+      <c r="L532" s="2"/>
+      <c r="M532" s="2"/>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="2"/>
@@ -22295,6 +23369,8 @@
       <c r="I533" s="2"/>
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
+      <c r="L533" s="2"/>
+      <c r="M533" s="2"/>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2"/>
@@ -22308,6 +23384,8 @@
       <c r="I534" s="2"/>
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
+      <c r="L534" s="2"/>
+      <c r="M534" s="2"/>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="2"/>
@@ -22321,6 +23399,8 @@
       <c r="I535" s="2"/>
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
+      <c r="L535" s="2"/>
+      <c r="M535" s="2"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="2"/>
@@ -22334,6 +23414,8 @@
       <c r="I536" s="2"/>
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
+      <c r="L536" s="2"/>
+      <c r="M536" s="2"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="2"/>
@@ -22347,6 +23429,8 @@
       <c r="I537" s="2"/>
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
+      <c r="L537" s="2"/>
+      <c r="M537" s="2"/>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="2"/>
@@ -22360,6 +23444,8 @@
       <c r="I538" s="2"/>
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
+      <c r="L538" s="2"/>
+      <c r="M538" s="2"/>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="2"/>
@@ -22373,6 +23459,8 @@
       <c r="I539" s="2"/>
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
+      <c r="L539" s="2"/>
+      <c r="M539" s="2"/>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2"/>
@@ -22386,6 +23474,8 @@
       <c r="I540" s="2"/>
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
+      <c r="L540" s="2"/>
+      <c r="M540" s="2"/>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="2"/>
@@ -22399,6 +23489,8 @@
       <c r="I541" s="2"/>
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
+      <c r="L541" s="2"/>
+      <c r="M541" s="2"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="2"/>
@@ -22412,6 +23504,8 @@
       <c r="I542" s="2"/>
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
+      <c r="L542" s="2"/>
+      <c r="M542" s="2"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="2"/>
@@ -22425,6 +23519,8 @@
       <c r="I543" s="2"/>
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
+      <c r="L543" s="2"/>
+      <c r="M543" s="2"/>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="2"/>
@@ -22438,6 +23534,8 @@
       <c r="I544" s="2"/>
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
+      <c r="L544" s="2"/>
+      <c r="M544" s="2"/>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="2"/>
@@ -22451,6 +23549,8 @@
       <c r="I545" s="2"/>
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
+      <c r="L545" s="2"/>
+      <c r="M545" s="2"/>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="2"/>
@@ -22464,6 +23564,8 @@
       <c r="I546" s="2"/>
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
+      <c r="L546" s="2"/>
+      <c r="M546" s="2"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2"/>
@@ -22477,6 +23579,8 @@
       <c r="I547" s="2"/>
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
+      <c r="L547" s="2"/>
+      <c r="M547" s="2"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="2"/>
@@ -22490,6 +23594,8 @@
       <c r="I548" s="2"/>
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
+      <c r="L548" s="2"/>
+      <c r="M548" s="2"/>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="2"/>
@@ -22503,6 +23609,8 @@
       <c r="I549" s="2"/>
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
+      <c r="L549" s="2"/>
+      <c r="M549" s="2"/>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="2"/>
@@ -22516,6 +23624,8 @@
       <c r="I550" s="2"/>
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
+      <c r="L550" s="2"/>
+      <c r="M550" s="2"/>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="2"/>
@@ -22529,6 +23639,8 @@
       <c r="I551" s="2"/>
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
+      <c r="L551" s="2"/>
+      <c r="M551" s="2"/>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="2"/>
@@ -22542,6 +23654,8 @@
       <c r="I552" s="2"/>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
+      <c r="L552" s="2"/>
+      <c r="M552" s="2"/>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="2"/>
@@ -22555,6 +23669,8 @@
       <c r="I553" s="2"/>
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
+      <c r="L553" s="2"/>
+      <c r="M553" s="2"/>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="2"/>
@@ -22568,6 +23684,8 @@
       <c r="I554" s="2"/>
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
+      <c r="L554" s="2"/>
+      <c r="M554" s="2"/>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="2"/>
@@ -22581,6 +23699,8 @@
       <c r="I555" s="2"/>
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
+      <c r="L555" s="2"/>
+      <c r="M555" s="2"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="2"/>
@@ -22594,6 +23714,8 @@
       <c r="I556" s="2"/>
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
+      <c r="L556" s="2"/>
+      <c r="M556" s="2"/>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="2"/>
@@ -22607,6 +23729,8 @@
       <c r="I557" s="2"/>
       <c r="J557" s="2"/>
       <c r="K557" s="2"/>
+      <c r="L557" s="2"/>
+      <c r="M557" s="2"/>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="2"/>
@@ -22620,6 +23744,8 @@
       <c r="I558" s="2"/>
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
+      <c r="L558" s="2"/>
+      <c r="M558" s="2"/>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="2"/>
@@ -22633,6 +23759,8 @@
       <c r="I559" s="2"/>
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
+      <c r="L559" s="2"/>
+      <c r="M559" s="2"/>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="2"/>
@@ -22646,6 +23774,8 @@
       <c r="I560" s="2"/>
       <c r="J560" s="2"/>
       <c r="K560" s="2"/>
+      <c r="L560" s="2"/>
+      <c r="M560" s="2"/>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="2"/>
@@ -22659,6 +23789,8 @@
       <c r="I561" s="2"/>
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
+      <c r="L561" s="2"/>
+      <c r="M561" s="2"/>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="2"/>
@@ -22672,6 +23804,8 @@
       <c r="I562" s="2"/>
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
+      <c r="L562" s="2"/>
+      <c r="M562" s="2"/>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="2"/>
@@ -22685,6 +23819,8 @@
       <c r="I563" s="2"/>
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
+      <c r="L563" s="2"/>
+      <c r="M563" s="2"/>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="2"/>
@@ -22698,6 +23834,8 @@
       <c r="I564" s="2"/>
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
+      <c r="L564" s="2"/>
+      <c r="M564" s="2"/>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="2"/>
@@ -22711,6 +23849,8 @@
       <c r="I565" s="2"/>
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
+      <c r="L565" s="2"/>
+      <c r="M565" s="2"/>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="2"/>
@@ -22724,6 +23864,8 @@
       <c r="I566" s="2"/>
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
+      <c r="L566" s="2"/>
+      <c r="M566" s="2"/>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="2"/>
@@ -22737,6 +23879,8 @@
       <c r="I567" s="2"/>
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
+      <c r="L567" s="2"/>
+      <c r="M567" s="2"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="2"/>
@@ -22750,6 +23894,8 @@
       <c r="I568" s="2"/>
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
+      <c r="L568" s="2"/>
+      <c r="M568" s="2"/>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="2"/>
@@ -22763,6 +23909,8 @@
       <c r="I569" s="2"/>
       <c r="J569" s="2"/>
       <c r="K569" s="2"/>
+      <c r="L569" s="2"/>
+      <c r="M569" s="2"/>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="2"/>
@@ -22776,6 +23924,8 @@
       <c r="I570" s="2"/>
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
+      <c r="L570" s="2"/>
+      <c r="M570" s="2"/>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="2"/>
@@ -22789,6 +23939,8 @@
       <c r="I571" s="2"/>
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
+      <c r="L571" s="2"/>
+      <c r="M571" s="2"/>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="2"/>
@@ -22802,6 +23954,8 @@
       <c r="I572" s="2"/>
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
+      <c r="L572" s="2"/>
+      <c r="M572" s="2"/>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="2"/>
@@ -22815,6 +23969,8 @@
       <c r="I573" s="2"/>
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
+      <c r="L573" s="2"/>
+      <c r="M573" s="2"/>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="2"/>
@@ -22828,6 +23984,8 @@
       <c r="I574" s="2"/>
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
+      <c r="L574" s="2"/>
+      <c r="M574" s="2"/>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="2"/>
@@ -22841,6 +23999,8 @@
       <c r="I575" s="2"/>
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
+      <c r="L575" s="2"/>
+      <c r="M575" s="2"/>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2"/>
@@ -22854,6 +24014,8 @@
       <c r="I576" s="2"/>
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
+      <c r="L576" s="2"/>
+      <c r="M576" s="2"/>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="2"/>
@@ -22867,6 +24029,8 @@
       <c r="I577" s="2"/>
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
+      <c r="L577" s="2"/>
+      <c r="M577" s="2"/>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="2"/>
@@ -22880,6 +24044,8 @@
       <c r="I578" s="2"/>
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
+      <c r="L578" s="2"/>
+      <c r="M578" s="2"/>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="2"/>
@@ -22893,6 +24059,8 @@
       <c r="I579" s="2"/>
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
+      <c r="L579" s="2"/>
+      <c r="M579" s="2"/>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="2"/>
@@ -22906,6 +24074,8 @@
       <c r="I580" s="2"/>
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
+      <c r="L580" s="2"/>
+      <c r="M580" s="2"/>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="2"/>
@@ -22919,6 +24089,8 @@
       <c r="I581" s="2"/>
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
+      <c r="L581" s="2"/>
+      <c r="M581" s="2"/>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="2"/>
@@ -22932,6 +24104,8 @@
       <c r="I582" s="2"/>
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
+      <c r="L582" s="2"/>
+      <c r="M582" s="2"/>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="2"/>
@@ -22945,6 +24119,8 @@
       <c r="I583" s="2"/>
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
+      <c r="L583" s="2"/>
+      <c r="M583" s="2"/>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="2"/>
@@ -22958,6 +24134,8 @@
       <c r="I584" s="2"/>
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
+      <c r="L584" s="2"/>
+      <c r="M584" s="2"/>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2"/>
@@ -22971,6 +24149,8 @@
       <c r="I585" s="2"/>
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
+      <c r="L585" s="2"/>
+      <c r="M585" s="2"/>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="2"/>
@@ -22984,6 +24164,8 @@
       <c r="I586" s="2"/>
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
+      <c r="L586" s="2"/>
+      <c r="M586" s="2"/>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="2"/>
@@ -22997,6 +24179,8 @@
       <c r="I587" s="2"/>
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
+      <c r="L587" s="2"/>
+      <c r="M587" s="2"/>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2"/>
@@ -23010,6 +24194,8 @@
       <c r="I588" s="2"/>
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
+      <c r="L588" s="2"/>
+      <c r="M588" s="2"/>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2"/>
@@ -23023,6 +24209,8 @@
       <c r="I589" s="2"/>
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
+      <c r="L589" s="2"/>
+      <c r="M589" s="2"/>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2"/>
@@ -23036,6 +24224,8 @@
       <c r="I590" s="2"/>
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
+      <c r="L590" s="2"/>
+      <c r="M590" s="2"/>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2"/>
@@ -23049,6 +24239,8 @@
       <c r="I591" s="2"/>
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
+      <c r="L591" s="2"/>
+      <c r="M591" s="2"/>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2"/>
@@ -23062,6 +24254,8 @@
       <c r="I592" s="2"/>
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
+      <c r="L592" s="2"/>
+      <c r="M592" s="2"/>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2"/>
@@ -23075,6 +24269,8 @@
       <c r="I593" s="2"/>
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
+      <c r="L593" s="2"/>
+      <c r="M593" s="2"/>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="2"/>
@@ -23088,6 +24284,8 @@
       <c r="I594" s="2"/>
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
+      <c r="L594" s="2"/>
+      <c r="M594" s="2"/>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2"/>
@@ -23101,6 +24299,8 @@
       <c r="I595" s="2"/>
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
+      <c r="L595" s="2"/>
+      <c r="M595" s="2"/>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2"/>
@@ -23114,6 +24314,8 @@
       <c r="I596" s="2"/>
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
+      <c r="L596" s="2"/>
+      <c r="M596" s="2"/>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="2"/>
@@ -23127,6 +24329,8 @@
       <c r="I597" s="2"/>
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
+      <c r="L597" s="2"/>
+      <c r="M597" s="2"/>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2"/>
@@ -23140,6 +24344,8 @@
       <c r="I598" s="2"/>
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
+      <c r="L598" s="2"/>
+      <c r="M598" s="2"/>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="2"/>
@@ -23153,6 +24359,8 @@
       <c r="I599" s="2"/>
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
+      <c r="L599" s="2"/>
+      <c r="M599" s="2"/>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="2"/>
@@ -23166,6 +24374,8 @@
       <c r="I600" s="2"/>
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
+      <c r="L600" s="2"/>
+      <c r="M600" s="2"/>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2"/>
@@ -23179,6 +24389,8 @@
       <c r="I601" s="2"/>
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
+      <c r="L601" s="2"/>
+      <c r="M601" s="2"/>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2"/>
@@ -23192,6 +24404,8 @@
       <c r="I602" s="2"/>
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
+      <c r="L602" s="2"/>
+      <c r="M602" s="2"/>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2"/>
@@ -23205,6 +24419,8 @@
       <c r="I603" s="2"/>
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
+      <c r="L603" s="2"/>
+      <c r="M603" s="2"/>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2"/>
@@ -23218,6 +24434,8 @@
       <c r="I604" s="2"/>
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
+      <c r="L604" s="2"/>
+      <c r="M604" s="2"/>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2"/>
@@ -23231,6 +24449,8 @@
       <c r="I605" s="2"/>
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
+      <c r="L605" s="2"/>
+      <c r="M605" s="2"/>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="2"/>
@@ -23244,6 +24464,8 @@
       <c r="I606" s="2"/>
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
+      <c r="L606" s="2"/>
+      <c r="M606" s="2"/>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2"/>
@@ -23257,6 +24479,8 @@
       <c r="I607" s="2"/>
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
+      <c r="L607" s="2"/>
+      <c r="M607" s="2"/>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="2"/>
@@ -23270,6 +24494,8 @@
       <c r="I608" s="2"/>
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
+      <c r="L608" s="2"/>
+      <c r="M608" s="2"/>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="2"/>
@@ -23283,6 +24509,8 @@
       <c r="I609" s="2"/>
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
+      <c r="L609" s="2"/>
+      <c r="M609" s="2"/>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="2"/>
@@ -23296,6 +24524,8 @@
       <c r="I610" s="2"/>
       <c r="J610" s="2"/>
       <c r="K610" s="2"/>
+      <c r="L610" s="2"/>
+      <c r="M610" s="2"/>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="2"/>
@@ -23309,6 +24539,8 @@
       <c r="I611" s="2"/>
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
+      <c r="L611" s="2"/>
+      <c r="M611" s="2"/>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="2"/>
@@ -23322,6 +24554,8 @@
       <c r="I612" s="2"/>
       <c r="J612" s="2"/>
       <c r="K612" s="2"/>
+      <c r="L612" s="2"/>
+      <c r="M612" s="2"/>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="2"/>
@@ -23335,6 +24569,8 @@
       <c r="I613" s="2"/>
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
+      <c r="L613" s="2"/>
+      <c r="M613" s="2"/>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="2"/>
@@ -23348,6 +24584,8 @@
       <c r="I614" s="2"/>
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
+      <c r="L614" s="2"/>
+      <c r="M614" s="2"/>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="2"/>
@@ -23361,6 +24599,8 @@
       <c r="I615" s="2"/>
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
+      <c r="L615" s="2"/>
+      <c r="M615" s="2"/>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="2"/>
@@ -23374,6 +24614,8 @@
       <c r="I616" s="2"/>
       <c r="J616" s="2"/>
       <c r="K616" s="2"/>
+      <c r="L616" s="2"/>
+      <c r="M616" s="2"/>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="2"/>
@@ -23387,6 +24629,8 @@
       <c r="I617" s="2"/>
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
+      <c r="L617" s="2"/>
+      <c r="M617" s="2"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="2"/>
@@ -23400,6 +24644,8 @@
       <c r="I618" s="2"/>
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
+      <c r="L618" s="2"/>
+      <c r="M618" s="2"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="2"/>
@@ -23413,6 +24659,8 @@
       <c r="I619" s="2"/>
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
+      <c r="L619" s="2"/>
+      <c r="M619" s="2"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="2"/>
@@ -23426,6 +24674,8 @@
       <c r="I620" s="2"/>
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
+      <c r="L620" s="2"/>
+      <c r="M620" s="2"/>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="2"/>
@@ -23439,6 +24689,8 @@
       <c r="I621" s="2"/>
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
+      <c r="L621" s="2"/>
+      <c r="M621" s="2"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="2"/>
@@ -23452,6 +24704,8 @@
       <c r="I622" s="2"/>
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
+      <c r="L622" s="2"/>
+      <c r="M622" s="2"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="2"/>
@@ -23465,6 +24719,8 @@
       <c r="I623" s="2"/>
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
+      <c r="L623" s="2"/>
+      <c r="M623" s="2"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="2"/>
@@ -23478,6 +24734,8 @@
       <c r="I624" s="2"/>
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
+      <c r="L624" s="2"/>
+      <c r="M624" s="2"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="2"/>
@@ -23491,6 +24749,8 @@
       <c r="I625" s="2"/>
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
+      <c r="L625" s="2"/>
+      <c r="M625" s="2"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="2"/>
@@ -23504,6 +24764,8 @@
       <c r="I626" s="2"/>
       <c r="J626" s="2"/>
       <c r="K626" s="2"/>
+      <c r="L626" s="2"/>
+      <c r="M626" s="2"/>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="2"/>
@@ -23517,6 +24779,8 @@
       <c r="I627" s="2"/>
       <c r="J627" s="2"/>
       <c r="K627" s="2"/>
+      <c r="L627" s="2"/>
+      <c r="M627" s="2"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="2"/>
@@ -23530,6 +24794,8 @@
       <c r="I628" s="2"/>
       <c r="J628" s="2"/>
       <c r="K628" s="2"/>
+      <c r="L628" s="2"/>
+      <c r="M628" s="2"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="2"/>
@@ -23543,6 +24809,8 @@
       <c r="I629" s="2"/>
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
+      <c r="L629" s="2"/>
+      <c r="M629" s="2"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="2"/>
@@ -23556,6 +24824,8 @@
       <c r="I630" s="2"/>
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
+      <c r="L630" s="2"/>
+      <c r="M630" s="2"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="2"/>
@@ -23569,6 +24839,8 @@
       <c r="I631" s="2"/>
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
+      <c r="L631" s="2"/>
+      <c r="M631" s="2"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="2"/>
@@ -23582,6 +24854,8 @@
       <c r="I632" s="2"/>
       <c r="J632" s="2"/>
       <c r="K632" s="2"/>
+      <c r="L632" s="2"/>
+      <c r="M632" s="2"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="2"/>
@@ -23595,6 +24869,8 @@
       <c r="I633" s="2"/>
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
+      <c r="L633" s="2"/>
+      <c r="M633" s="2"/>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="2"/>
@@ -23608,6 +24884,8 @@
       <c r="I634" s="2"/>
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
+      <c r="L634" s="2"/>
+      <c r="M634" s="2"/>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="2"/>
@@ -23621,6 +24899,8 @@
       <c r="I635" s="2"/>
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
+      <c r="L635" s="2"/>
+      <c r="M635" s="2"/>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="2"/>
@@ -23634,6 +24914,8 @@
       <c r="I636" s="2"/>
       <c r="J636" s="2"/>
       <c r="K636" s="2"/>
+      <c r="L636" s="2"/>
+      <c r="M636" s="2"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="2"/>
@@ -23647,6 +24929,8 @@
       <c r="I637" s="2"/>
       <c r="J637" s="2"/>
       <c r="K637" s="2"/>
+      <c r="L637" s="2"/>
+      <c r="M637" s="2"/>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="2"/>
@@ -23660,6 +24944,8 @@
       <c r="I638" s="2"/>
       <c r="J638" s="2"/>
       <c r="K638" s="2"/>
+      <c r="L638" s="2"/>
+      <c r="M638" s="2"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="2"/>
@@ -23673,6 +24959,8 @@
       <c r="I639" s="2"/>
       <c r="J639" s="2"/>
       <c r="K639" s="2"/>
+      <c r="L639" s="2"/>
+      <c r="M639" s="2"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="2"/>
@@ -23686,6 +24974,8 @@
       <c r="I640" s="2"/>
       <c r="J640" s="2"/>
       <c r="K640" s="2"/>
+      <c r="L640" s="2"/>
+      <c r="M640" s="2"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="2"/>
@@ -23699,6 +24989,8 @@
       <c r="I641" s="2"/>
       <c r="J641" s="2"/>
       <c r="K641" s="2"/>
+      <c r="L641" s="2"/>
+      <c r="M641" s="2"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="2"/>
@@ -23712,6 +25004,8 @@
       <c r="I642" s="2"/>
       <c r="J642" s="2"/>
       <c r="K642" s="2"/>
+      <c r="L642" s="2"/>
+      <c r="M642" s="2"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="2"/>
@@ -23725,6 +25019,8 @@
       <c r="I643" s="2"/>
       <c r="J643" s="2"/>
       <c r="K643" s="2"/>
+      <c r="L643" s="2"/>
+      <c r="M643" s="2"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="2"/>
@@ -23738,6 +25034,8 @@
       <c r="I644" s="2"/>
       <c r="J644" s="2"/>
       <c r="K644" s="2"/>
+      <c r="L644" s="2"/>
+      <c r="M644" s="2"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="2"/>
@@ -23751,6 +25049,8 @@
       <c r="I645" s="2"/>
       <c r="J645" s="2"/>
       <c r="K645" s="2"/>
+      <c r="L645" s="2"/>
+      <c r="M645" s="2"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="2"/>
@@ -23764,6 +25064,8 @@
       <c r="I646" s="2"/>
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
+      <c r="L646" s="2"/>
+      <c r="M646" s="2"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="2"/>
@@ -23777,6 +25079,8 @@
       <c r="I647" s="2"/>
       <c r="J647" s="2"/>
       <c r="K647" s="2"/>
+      <c r="L647" s="2"/>
+      <c r="M647" s="2"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="2"/>
@@ -23790,6 +25094,8 @@
       <c r="I648" s="2"/>
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
+      <c r="L648" s="2"/>
+      <c r="M648" s="2"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="2"/>
@@ -23803,6 +25109,8 @@
       <c r="I649" s="2"/>
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
+      <c r="L649" s="2"/>
+      <c r="M649" s="2"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="2"/>
@@ -23816,6 +25124,8 @@
       <c r="I650" s="2"/>
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
+      <c r="L650" s="2"/>
+      <c r="M650" s="2"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="2"/>
@@ -23829,6 +25139,8 @@
       <c r="I651" s="2"/>
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
+      <c r="L651" s="2"/>
+      <c r="M651" s="2"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="2"/>
@@ -23842,6 +25154,8 @@
       <c r="I652" s="2"/>
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
+      <c r="L652" s="2"/>
+      <c r="M652" s="2"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="2"/>
@@ -23855,6 +25169,8 @@
       <c r="I653" s="2"/>
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
+      <c r="L653" s="2"/>
+      <c r="M653" s="2"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="2"/>
@@ -23868,6 +25184,8 @@
       <c r="I654" s="2"/>
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
+      <c r="L654" s="2"/>
+      <c r="M654" s="2"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="2"/>
@@ -23881,6 +25199,8 @@
       <c r="I655" s="2"/>
       <c r="J655" s="2"/>
       <c r="K655" s="2"/>
+      <c r="L655" s="2"/>
+      <c r="M655" s="2"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="2"/>
@@ -23894,6 +25214,8 @@
       <c r="I656" s="2"/>
       <c r="J656" s="2"/>
       <c r="K656" s="2"/>
+      <c r="L656" s="2"/>
+      <c r="M656" s="2"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="2"/>
@@ -23907,6 +25229,8 @@
       <c r="I657" s="2"/>
       <c r="J657" s="2"/>
       <c r="K657" s="2"/>
+      <c r="L657" s="2"/>
+      <c r="M657" s="2"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="2"/>
@@ -23920,6 +25244,8 @@
       <c r="I658" s="2"/>
       <c r="J658" s="2"/>
       <c r="K658" s="2"/>
+      <c r="L658" s="2"/>
+      <c r="M658" s="2"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="2"/>
@@ -23933,6 +25259,8 @@
       <c r="I659" s="2"/>
       <c r="J659" s="2"/>
       <c r="K659" s="2"/>
+      <c r="L659" s="2"/>
+      <c r="M659" s="2"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="2"/>
@@ -23946,6 +25274,8 @@
       <c r="I660" s="2"/>
       <c r="J660" s="2"/>
       <c r="K660" s="2"/>
+      <c r="L660" s="2"/>
+      <c r="M660" s="2"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="2"/>
@@ -23959,6 +25289,8 @@
       <c r="I661" s="2"/>
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
+      <c r="L661" s="2"/>
+      <c r="M661" s="2"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="2"/>
@@ -23972,6 +25304,8 @@
       <c r="I662" s="2"/>
       <c r="J662" s="2"/>
       <c r="K662" s="2"/>
+      <c r="L662" s="2"/>
+      <c r="M662" s="2"/>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="2"/>
@@ -23985,6 +25319,8 @@
       <c r="I663" s="2"/>
       <c r="J663" s="2"/>
       <c r="K663" s="2"/>
+      <c r="L663" s="2"/>
+      <c r="M663" s="2"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="2"/>
@@ -23998,6 +25334,8 @@
       <c r="I664" s="2"/>
       <c r="J664" s="2"/>
       <c r="K664" s="2"/>
+      <c r="L664" s="2"/>
+      <c r="M664" s="2"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="2"/>
@@ -24011,6 +25349,8 @@
       <c r="I665" s="2"/>
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
+      <c r="L665" s="2"/>
+      <c r="M665" s="2"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="2"/>
@@ -24024,6 +25364,8 @@
       <c r="I666" s="2"/>
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
+      <c r="L666" s="2"/>
+      <c r="M666" s="2"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="2"/>
@@ -24037,6 +25379,8 @@
       <c r="I667" s="2"/>
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
+      <c r="L667" s="2"/>
+      <c r="M667" s="2"/>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="2"/>
@@ -24050,6 +25394,8 @@
       <c r="I668" s="2"/>
       <c r="J668" s="2"/>
       <c r="K668" s="2"/>
+      <c r="L668" s="2"/>
+      <c r="M668" s="2"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="2"/>
@@ -24063,6 +25409,8 @@
       <c r="I669" s="2"/>
       <c r="J669" s="2"/>
       <c r="K669" s="2"/>
+      <c r="L669" s="2"/>
+      <c r="M669" s="2"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="2"/>
@@ -24076,6 +25424,8 @@
       <c r="I670" s="2"/>
       <c r="J670" s="2"/>
       <c r="K670" s="2"/>
+      <c r="L670" s="2"/>
+      <c r="M670" s="2"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="2"/>
@@ -24089,6 +25439,8 @@
       <c r="I671" s="2"/>
       <c r="J671" s="2"/>
       <c r="K671" s="2"/>
+      <c r="L671" s="2"/>
+      <c r="M671" s="2"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="2"/>
@@ -24102,6 +25454,8 @@
       <c r="I672" s="2"/>
       <c r="J672" s="2"/>
       <c r="K672" s="2"/>
+      <c r="L672" s="2"/>
+      <c r="M672" s="2"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="2"/>
@@ -24115,6 +25469,8 @@
       <c r="I673" s="2"/>
       <c r="J673" s="2"/>
       <c r="K673" s="2"/>
+      <c r="L673" s="2"/>
+      <c r="M673" s="2"/>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="2"/>
@@ -24128,6 +25484,8 @@
       <c r="I674" s="2"/>
       <c r="J674" s="2"/>
       <c r="K674" s="2"/>
+      <c r="L674" s="2"/>
+      <c r="M674" s="2"/>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="2"/>
@@ -24141,6 +25499,8 @@
       <c r="I675" s="2"/>
       <c r="J675" s="2"/>
       <c r="K675" s="2"/>
+      <c r="L675" s="2"/>
+      <c r="M675" s="2"/>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="2"/>
@@ -24154,6 +25514,8 @@
       <c r="I676" s="2"/>
       <c r="J676" s="2"/>
       <c r="K676" s="2"/>
+      <c r="L676" s="2"/>
+      <c r="M676" s="2"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="2"/>
@@ -24167,6 +25529,8 @@
       <c r="I677" s="2"/>
       <c r="J677" s="2"/>
       <c r="K677" s="2"/>
+      <c r="L677" s="2"/>
+      <c r="M677" s="2"/>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="2"/>
@@ -24180,6 +25544,8 @@
       <c r="I678" s="2"/>
       <c r="J678" s="2"/>
       <c r="K678" s="2"/>
+      <c r="L678" s="2"/>
+      <c r="M678" s="2"/>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="2"/>
@@ -24193,6 +25559,8 @@
       <c r="I679" s="2"/>
       <c r="J679" s="2"/>
       <c r="K679" s="2"/>
+      <c r="L679" s="2"/>
+      <c r="M679" s="2"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="2"/>
@@ -24206,6 +25574,8 @@
       <c r="I680" s="2"/>
       <c r="J680" s="2"/>
       <c r="K680" s="2"/>
+      <c r="L680" s="2"/>
+      <c r="M680" s="2"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="2"/>
@@ -24219,6 +25589,8 @@
       <c r="I681" s="2"/>
       <c r="J681" s="2"/>
       <c r="K681" s="2"/>
+      <c r="L681" s="2"/>
+      <c r="M681" s="2"/>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="2"/>
@@ -24232,6 +25604,8 @@
       <c r="I682" s="2"/>
       <c r="J682" s="2"/>
       <c r="K682" s="2"/>
+      <c r="L682" s="2"/>
+      <c r="M682" s="2"/>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="2"/>
@@ -24245,6 +25619,8 @@
       <c r="I683" s="2"/>
       <c r="J683" s="2"/>
       <c r="K683" s="2"/>
+      <c r="L683" s="2"/>
+      <c r="M683" s="2"/>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="2"/>
@@ -24258,6 +25634,8 @@
       <c r="I684" s="2"/>
       <c r="J684" s="2"/>
       <c r="K684" s="2"/>
+      <c r="L684" s="2"/>
+      <c r="M684" s="2"/>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="2"/>
@@ -24271,6 +25649,8 @@
       <c r="I685" s="2"/>
       <c r="J685" s="2"/>
       <c r="K685" s="2"/>
+      <c r="L685" s="2"/>
+      <c r="M685" s="2"/>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="2"/>
@@ -24284,6 +25664,8 @@
       <c r="I686" s="2"/>
       <c r="J686" s="2"/>
       <c r="K686" s="2"/>
+      <c r="L686" s="2"/>
+      <c r="M686" s="2"/>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="2"/>
@@ -24297,6 +25679,8 @@
       <c r="I687" s="2"/>
       <c r="J687" s="2"/>
       <c r="K687" s="2"/>
+      <c r="L687" s="2"/>
+      <c r="M687" s="2"/>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="2"/>
@@ -24310,6 +25694,8 @@
       <c r="I688" s="2"/>
       <c r="J688" s="2"/>
       <c r="K688" s="2"/>
+      <c r="L688" s="2"/>
+      <c r="M688" s="2"/>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="2"/>
@@ -24323,6 +25709,8 @@
       <c r="I689" s="2"/>
       <c r="J689" s="2"/>
       <c r="K689" s="2"/>
+      <c r="L689" s="2"/>
+      <c r="M689" s="2"/>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="2"/>
@@ -24336,6 +25724,8 @@
       <c r="I690" s="2"/>
       <c r="J690" s="2"/>
       <c r="K690" s="2"/>
+      <c r="L690" s="2"/>
+      <c r="M690" s="2"/>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="2"/>
@@ -24349,6 +25739,8 @@
       <c r="I691" s="2"/>
       <c r="J691" s="2"/>
       <c r="K691" s="2"/>
+      <c r="L691" s="2"/>
+      <c r="M691" s="2"/>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="2"/>
@@ -24362,6 +25754,8 @@
       <c r="I692" s="2"/>
       <c r="J692" s="2"/>
       <c r="K692" s="2"/>
+      <c r="L692" s="2"/>
+      <c r="M692" s="2"/>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="2"/>
@@ -24375,6 +25769,8 @@
       <c r="I693" s="2"/>
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
+      <c r="L693" s="2"/>
+      <c r="M693" s="2"/>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="2"/>
@@ -24388,6 +25784,8 @@
       <c r="I694" s="2"/>
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
+      <c r="L694" s="2"/>
+      <c r="M694" s="2"/>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="2"/>
@@ -24401,6 +25799,8 @@
       <c r="I695" s="2"/>
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
+      <c r="L695" s="2"/>
+      <c r="M695" s="2"/>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="2"/>
@@ -24414,6 +25814,8 @@
       <c r="I696" s="2"/>
       <c r="J696" s="2"/>
       <c r="K696" s="2"/>
+      <c r="L696" s="2"/>
+      <c r="M696" s="2"/>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="2"/>
@@ -24427,6 +25829,8 @@
       <c r="I697" s="2"/>
       <c r="J697" s="2"/>
       <c r="K697" s="2"/>
+      <c r="L697" s="2"/>
+      <c r="M697" s="2"/>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="2"/>
@@ -24440,6 +25844,8 @@
       <c r="I698" s="2"/>
       <c r="J698" s="2"/>
       <c r="K698" s="2"/>
+      <c r="L698" s="2"/>
+      <c r="M698" s="2"/>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="2"/>
@@ -24453,6 +25859,8 @@
       <c r="I699" s="2"/>
       <c r="J699" s="2"/>
       <c r="K699" s="2"/>
+      <c r="L699" s="2"/>
+      <c r="M699" s="2"/>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="2"/>
@@ -24466,6 +25874,8 @@
       <c r="I700" s="2"/>
       <c r="J700" s="2"/>
       <c r="K700" s="2"/>
+      <c r="L700" s="2"/>
+      <c r="M700" s="2"/>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="2"/>
@@ -24479,6 +25889,8 @@
       <c r="I701" s="2"/>
       <c r="J701" s="2"/>
       <c r="K701" s="2"/>
+      <c r="L701" s="2"/>
+      <c r="M701" s="2"/>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="2"/>
@@ -24492,6 +25904,8 @@
       <c r="I702" s="2"/>
       <c r="J702" s="2"/>
       <c r="K702" s="2"/>
+      <c r="L702" s="2"/>
+      <c r="M702" s="2"/>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="2"/>
@@ -24505,6 +25919,8 @@
       <c r="I703" s="2"/>
       <c r="J703" s="2"/>
       <c r="K703" s="2"/>
+      <c r="L703" s="2"/>
+      <c r="M703" s="2"/>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="2"/>
@@ -24518,6 +25934,8 @@
       <c r="I704" s="2"/>
       <c r="J704" s="2"/>
       <c r="K704" s="2"/>
+      <c r="L704" s="2"/>
+      <c r="M704" s="2"/>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="2"/>
@@ -24531,6 +25949,8 @@
       <c r="I705" s="2"/>
       <c r="J705" s="2"/>
       <c r="K705" s="2"/>
+      <c r="L705" s="2"/>
+      <c r="M705" s="2"/>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="2"/>
@@ -24544,6 +25964,8 @@
       <c r="I706" s="2"/>
       <c r="J706" s="2"/>
       <c r="K706" s="2"/>
+      <c r="L706" s="2"/>
+      <c r="M706" s="2"/>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="2"/>
@@ -24557,6 +25979,8 @@
       <c r="I707" s="2"/>
       <c r="J707" s="2"/>
       <c r="K707" s="2"/>
+      <c r="L707" s="2"/>
+      <c r="M707" s="2"/>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="2"/>
@@ -24570,6 +25994,8 @@
       <c r="I708" s="2"/>
       <c r="J708" s="2"/>
       <c r="K708" s="2"/>
+      <c r="L708" s="2"/>
+      <c r="M708" s="2"/>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="2"/>
@@ -24583,6 +26009,8 @@
       <c r="I709" s="2"/>
       <c r="J709" s="2"/>
       <c r="K709" s="2"/>
+      <c r="L709" s="2"/>
+      <c r="M709" s="2"/>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="2"/>
@@ -24596,6 +26024,8 @@
       <c r="I710" s="2"/>
       <c r="J710" s="2"/>
       <c r="K710" s="2"/>
+      <c r="L710" s="2"/>
+      <c r="M710" s="2"/>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="2"/>
@@ -24609,6 +26039,8 @@
       <c r="I711" s="2"/>
       <c r="J711" s="2"/>
       <c r="K711" s="2"/>
+      <c r="L711" s="2"/>
+      <c r="M711" s="2"/>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="2"/>
@@ -24622,6 +26054,8 @@
       <c r="I712" s="2"/>
       <c r="J712" s="2"/>
       <c r="K712" s="2"/>
+      <c r="L712" s="2"/>
+      <c r="M712" s="2"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="2"/>
@@ -24635,6 +26069,8 @@
       <c r="I713" s="2"/>
       <c r="J713" s="2"/>
       <c r="K713" s="2"/>
+      <c r="L713" s="2"/>
+      <c r="M713" s="2"/>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="2"/>
@@ -24648,6 +26084,8 @@
       <c r="I714" s="2"/>
       <c r="J714" s="2"/>
       <c r="K714" s="2"/>
+      <c r="L714" s="2"/>
+      <c r="M714" s="2"/>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="2"/>
@@ -24661,6 +26099,8 @@
       <c r="I715" s="2"/>
       <c r="J715" s="2"/>
       <c r="K715" s="2"/>
+      <c r="L715" s="2"/>
+      <c r="M715" s="2"/>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="2"/>
@@ -24674,6 +26114,8 @@
       <c r="I716" s="2"/>
       <c r="J716" s="2"/>
       <c r="K716" s="2"/>
+      <c r="L716" s="2"/>
+      <c r="M716" s="2"/>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="2"/>
@@ -24687,6 +26129,8 @@
       <c r="I717" s="2"/>
       <c r="J717" s="2"/>
       <c r="K717" s="2"/>
+      <c r="L717" s="2"/>
+      <c r="M717" s="2"/>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="2"/>
@@ -24700,6 +26144,8 @@
       <c r="I718" s="2"/>
       <c r="J718" s="2"/>
       <c r="K718" s="2"/>
+      <c r="L718" s="2"/>
+      <c r="M718" s="2"/>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="2"/>
@@ -24713,6 +26159,8 @@
       <c r="I719" s="2"/>
       <c r="J719" s="2"/>
       <c r="K719" s="2"/>
+      <c r="L719" s="2"/>
+      <c r="M719" s="2"/>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="2"/>
@@ -24726,6 +26174,8 @@
       <c r="I720" s="2"/>
       <c r="J720" s="2"/>
       <c r="K720" s="2"/>
+      <c r="L720" s="2"/>
+      <c r="M720" s="2"/>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="2"/>
@@ -24739,6 +26189,8 @@
       <c r="I721" s="2"/>
       <c r="J721" s="2"/>
       <c r="K721" s="2"/>
+      <c r="L721" s="2"/>
+      <c r="M721" s="2"/>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="2"/>
@@ -24752,6 +26204,8 @@
       <c r="I722" s="2"/>
       <c r="J722" s="2"/>
       <c r="K722" s="2"/>
+      <c r="L722" s="2"/>
+      <c r="M722" s="2"/>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="2"/>
@@ -24765,6 +26219,8 @@
       <c r="I723" s="2"/>
       <c r="J723" s="2"/>
       <c r="K723" s="2"/>
+      <c r="L723" s="2"/>
+      <c r="M723" s="2"/>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="2"/>
@@ -24778,6 +26234,8 @@
       <c r="I724" s="2"/>
       <c r="J724" s="2"/>
       <c r="K724" s="2"/>
+      <c r="L724" s="2"/>
+      <c r="M724" s="2"/>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="2"/>
@@ -24791,6 +26249,8 @@
       <c r="I725" s="2"/>
       <c r="J725" s="2"/>
       <c r="K725" s="2"/>
+      <c r="L725" s="2"/>
+      <c r="M725" s="2"/>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="2"/>
@@ -24804,6 +26264,8 @@
       <c r="I726" s="2"/>
       <c r="J726" s="2"/>
       <c r="K726" s="2"/>
+      <c r="L726" s="2"/>
+      <c r="M726" s="2"/>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="2"/>
@@ -24817,6 +26279,8 @@
       <c r="I727" s="2"/>
       <c r="J727" s="2"/>
       <c r="K727" s="2"/>
+      <c r="L727" s="2"/>
+      <c r="M727" s="2"/>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="2"/>
@@ -24830,6 +26294,8 @@
       <c r="I728" s="2"/>
       <c r="J728" s="2"/>
       <c r="K728" s="2"/>
+      <c r="L728" s="2"/>
+      <c r="M728" s="2"/>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="2"/>
@@ -24843,6 +26309,8 @@
       <c r="I729" s="2"/>
       <c r="J729" s="2"/>
       <c r="K729" s="2"/>
+      <c r="L729" s="2"/>
+      <c r="M729" s="2"/>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="2"/>
@@ -24856,6 +26324,8 @@
       <c r="I730" s="2"/>
       <c r="J730" s="2"/>
       <c r="K730" s="2"/>
+      <c r="L730" s="2"/>
+      <c r="M730" s="2"/>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="2"/>
@@ -24869,6 +26339,8 @@
       <c r="I731" s="2"/>
       <c r="J731" s="2"/>
       <c r="K731" s="2"/>
+      <c r="L731" s="2"/>
+      <c r="M731" s="2"/>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="2"/>
@@ -24882,6 +26354,8 @@
       <c r="I732" s="2"/>
       <c r="J732" s="2"/>
       <c r="K732" s="2"/>
+      <c r="L732" s="2"/>
+      <c r="M732" s="2"/>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="2"/>
@@ -24895,6 +26369,8 @@
       <c r="I733" s="2"/>
       <c r="J733" s="2"/>
       <c r="K733" s="2"/>
+      <c r="L733" s="2"/>
+      <c r="M733" s="2"/>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="2"/>
@@ -24908,6 +26384,8 @@
       <c r="I734" s="2"/>
       <c r="J734" s="2"/>
       <c r="K734" s="2"/>
+      <c r="L734" s="2"/>
+      <c r="M734" s="2"/>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="2"/>
@@ -24921,6 +26399,8 @@
       <c r="I735" s="2"/>
       <c r="J735" s="2"/>
       <c r="K735" s="2"/>
+      <c r="L735" s="2"/>
+      <c r="M735" s="2"/>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="2"/>
@@ -24934,6 +26414,8 @@
       <c r="I736" s="2"/>
       <c r="J736" s="2"/>
       <c r="K736" s="2"/>
+      <c r="L736" s="2"/>
+      <c r="M736" s="2"/>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="2"/>
@@ -24947,6 +26429,8 @@
       <c r="I737" s="2"/>
       <c r="J737" s="2"/>
       <c r="K737" s="2"/>
+      <c r="L737" s="2"/>
+      <c r="M737" s="2"/>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="2"/>
@@ -24960,6 +26444,8 @@
       <c r="I738" s="2"/>
       <c r="J738" s="2"/>
       <c r="K738" s="2"/>
+      <c r="L738" s="2"/>
+      <c r="M738" s="2"/>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="2"/>
@@ -24973,6 +26459,8 @@
       <c r="I739" s="2"/>
       <c r="J739" s="2"/>
       <c r="K739" s="2"/>
+      <c r="L739" s="2"/>
+      <c r="M739" s="2"/>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="2"/>
@@ -24986,6 +26474,8 @@
       <c r="I740" s="2"/>
       <c r="J740" s="2"/>
       <c r="K740" s="2"/>
+      <c r="L740" s="2"/>
+      <c r="M740" s="2"/>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="2"/>
@@ -24999,6 +26489,8 @@
       <c r="I741" s="2"/>
       <c r="J741" s="2"/>
       <c r="K741" s="2"/>
+      <c r="L741" s="2"/>
+      <c r="M741" s="2"/>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="2"/>
@@ -25012,6 +26504,8 @@
       <c r="I742" s="2"/>
       <c r="J742" s="2"/>
       <c r="K742" s="2"/>
+      <c r="L742" s="2"/>
+      <c r="M742" s="2"/>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="2"/>
@@ -25025,6 +26519,8 @@
       <c r="I743" s="2"/>
       <c r="J743" s="2"/>
       <c r="K743" s="2"/>
+      <c r="L743" s="2"/>
+      <c r="M743" s="2"/>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="2"/>
@@ -25038,6 +26534,8 @@
       <c r="I744" s="2"/>
       <c r="J744" s="2"/>
       <c r="K744" s="2"/>
+      <c r="L744" s="2"/>
+      <c r="M744" s="2"/>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="2"/>
@@ -25051,6 +26549,8 @@
       <c r="I745" s="2"/>
       <c r="J745" s="2"/>
       <c r="K745" s="2"/>
+      <c r="L745" s="2"/>
+      <c r="M745" s="2"/>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="2"/>
@@ -25064,6 +26564,8 @@
       <c r="I746" s="2"/>
       <c r="J746" s="2"/>
       <c r="K746" s="2"/>
+      <c r="L746" s="2"/>
+      <c r="M746" s="2"/>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="2"/>
@@ -25077,6 +26579,8 @@
       <c r="I747" s="2"/>
       <c r="J747" s="2"/>
       <c r="K747" s="2"/>
+      <c r="L747" s="2"/>
+      <c r="M747" s="2"/>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="2"/>
@@ -25090,6 +26594,8 @@
       <c r="I748" s="2"/>
       <c r="J748" s="2"/>
       <c r="K748" s="2"/>
+      <c r="L748" s="2"/>
+      <c r="M748" s="2"/>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="2"/>
@@ -25103,6 +26609,8 @@
       <c r="I749" s="2"/>
       <c r="J749" s="2"/>
       <c r="K749" s="2"/>
+      <c r="L749" s="2"/>
+      <c r="M749" s="2"/>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="2"/>
@@ -25116,6 +26624,8 @@
       <c r="I750" s="2"/>
       <c r="J750" s="2"/>
       <c r="K750" s="2"/>
+      <c r="L750" s="2"/>
+      <c r="M750" s="2"/>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="2"/>
@@ -25129,6 +26639,8 @@
       <c r="I751" s="2"/>
       <c r="J751" s="2"/>
       <c r="K751" s="2"/>
+      <c r="L751" s="2"/>
+      <c r="M751" s="2"/>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="2"/>
@@ -25142,6 +26654,8 @@
       <c r="I752" s="2"/>
       <c r="J752" s="2"/>
       <c r="K752" s="2"/>
+      <c r="L752" s="2"/>
+      <c r="M752" s="2"/>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="2"/>
@@ -25155,6 +26669,8 @@
       <c r="I753" s="2"/>
       <c r="J753" s="2"/>
       <c r="K753" s="2"/>
+      <c r="L753" s="2"/>
+      <c r="M753" s="2"/>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="2"/>
@@ -25168,6 +26684,8 @@
       <c r="I754" s="2"/>
       <c r="J754" s="2"/>
       <c r="K754" s="2"/>
+      <c r="L754" s="2"/>
+      <c r="M754" s="2"/>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="2"/>
@@ -25181,6 +26699,8 @@
       <c r="I755" s="2"/>
       <c r="J755" s="2"/>
       <c r="K755" s="2"/>
+      <c r="L755" s="2"/>
+      <c r="M755" s="2"/>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="2"/>
@@ -25194,6 +26714,8 @@
       <c r="I756" s="2"/>
       <c r="J756" s="2"/>
       <c r="K756" s="2"/>
+      <c r="L756" s="2"/>
+      <c r="M756" s="2"/>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="2"/>
@@ -25207,6 +26729,8 @@
       <c r="I757" s="2"/>
       <c r="J757" s="2"/>
       <c r="K757" s="2"/>
+      <c r="L757" s="2"/>
+      <c r="M757" s="2"/>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="2"/>
@@ -25220,6 +26744,8 @@
       <c r="I758" s="2"/>
       <c r="J758" s="2"/>
       <c r="K758" s="2"/>
+      <c r="L758" s="2"/>
+      <c r="M758" s="2"/>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="2"/>
@@ -25233,6 +26759,8 @@
       <c r="I759" s="2"/>
       <c r="J759" s="2"/>
       <c r="K759" s="2"/>
+      <c r="L759" s="2"/>
+      <c r="M759" s="2"/>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="2"/>
@@ -25246,6 +26774,8 @@
       <c r="I760" s="2"/>
       <c r="J760" s="2"/>
       <c r="K760" s="2"/>
+      <c r="L760" s="2"/>
+      <c r="M760" s="2"/>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="2"/>
@@ -25259,6 +26789,8 @@
       <c r="I761" s="2"/>
       <c r="J761" s="2"/>
       <c r="K761" s="2"/>
+      <c r="L761" s="2"/>
+      <c r="M761" s="2"/>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="2"/>
@@ -25272,6 +26804,8 @@
       <c r="I762" s="2"/>
       <c r="J762" s="2"/>
       <c r="K762" s="2"/>
+      <c r="L762" s="2"/>
+      <c r="M762" s="2"/>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="2"/>
@@ -25285,6 +26819,8 @@
       <c r="I763" s="2"/>
       <c r="J763" s="2"/>
       <c r="K763" s="2"/>
+      <c r="L763" s="2"/>
+      <c r="M763" s="2"/>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="2"/>
@@ -25298,6 +26834,8 @@
       <c r="I764" s="2"/>
       <c r="J764" s="2"/>
       <c r="K764" s="2"/>
+      <c r="L764" s="2"/>
+      <c r="M764" s="2"/>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="2"/>
@@ -25311,6 +26849,8 @@
       <c r="I765" s="2"/>
       <c r="J765" s="2"/>
       <c r="K765" s="2"/>
+      <c r="L765" s="2"/>
+      <c r="M765" s="2"/>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="2"/>
@@ -25324,6 +26864,8 @@
       <c r="I766" s="2"/>
       <c r="J766" s="2"/>
       <c r="K766" s="2"/>
+      <c r="L766" s="2"/>
+      <c r="M766" s="2"/>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="2"/>
@@ -25337,6 +26879,8 @@
       <c r="I767" s="2"/>
       <c r="J767" s="2"/>
       <c r="K767" s="2"/>
+      <c r="L767" s="2"/>
+      <c r="M767" s="2"/>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="2"/>
@@ -25350,6 +26894,8 @@
       <c r="I768" s="2"/>
       <c r="J768" s="2"/>
       <c r="K768" s="2"/>
+      <c r="L768" s="2"/>
+      <c r="M768" s="2"/>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="2"/>
@@ -25363,6 +26909,8 @@
       <c r="I769" s="2"/>
       <c r="J769" s="2"/>
       <c r="K769" s="2"/>
+      <c r="L769" s="2"/>
+      <c r="M769" s="2"/>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="2"/>
@@ -25376,6 +26924,8 @@
       <c r="I770" s="2"/>
       <c r="J770" s="2"/>
       <c r="K770" s="2"/>
+      <c r="L770" s="2"/>
+      <c r="M770" s="2"/>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="2"/>
@@ -25389,6 +26939,8 @@
       <c r="I771" s="2"/>
       <c r="J771" s="2"/>
       <c r="K771" s="2"/>
+      <c r="L771" s="2"/>
+      <c r="M771" s="2"/>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="2"/>
@@ -25402,6 +26954,8 @@
       <c r="I772" s="2"/>
       <c r="J772" s="2"/>
       <c r="K772" s="2"/>
+      <c r="L772" s="2"/>
+      <c r="M772" s="2"/>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="2"/>
@@ -25415,6 +26969,8 @@
       <c r="I773" s="2"/>
       <c r="J773" s="2"/>
       <c r="K773" s="2"/>
+      <c r="L773" s="2"/>
+      <c r="M773" s="2"/>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="2"/>
@@ -25428,6 +26984,8 @@
       <c r="I774" s="2"/>
       <c r="J774" s="2"/>
       <c r="K774" s="2"/>
+      <c r="L774" s="2"/>
+      <c r="M774" s="2"/>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="2"/>
@@ -25441,6 +26999,8 @@
       <c r="I775" s="2"/>
       <c r="J775" s="2"/>
       <c r="K775" s="2"/>
+      <c r="L775" s="2"/>
+      <c r="M775" s="2"/>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="2"/>
@@ -25454,6 +27014,8 @@
       <c r="I776" s="2"/>
       <c r="J776" s="2"/>
       <c r="K776" s="2"/>
+      <c r="L776" s="2"/>
+      <c r="M776" s="2"/>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="2"/>
@@ -25467,6 +27029,8 @@
       <c r="I777" s="2"/>
       <c r="J777" s="2"/>
       <c r="K777" s="2"/>
+      <c r="L777" s="2"/>
+      <c r="M777" s="2"/>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="2"/>
@@ -25480,6 +27044,8 @@
       <c r="I778" s="2"/>
       <c r="J778" s="2"/>
       <c r="K778" s="2"/>
+      <c r="L778" s="2"/>
+      <c r="M778" s="2"/>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="2"/>
@@ -25493,6 +27059,8 @@
       <c r="I779" s="2"/>
       <c r="J779" s="2"/>
       <c r="K779" s="2"/>
+      <c r="L779" s="2"/>
+      <c r="M779" s="2"/>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="2"/>
@@ -25506,6 +27074,8 @@
       <c r="I780" s="2"/>
       <c r="J780" s="2"/>
       <c r="K780" s="2"/>
+      <c r="L780" s="2"/>
+      <c r="M780" s="2"/>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="2"/>
@@ -25519,6 +27089,8 @@
       <c r="I781" s="2"/>
       <c r="J781" s="2"/>
       <c r="K781" s="2"/>
+      <c r="L781" s="2"/>
+      <c r="M781" s="2"/>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="2"/>
@@ -25532,6 +27104,8 @@
       <c r="I782" s="2"/>
       <c r="J782" s="2"/>
       <c r="K782" s="2"/>
+      <c r="L782" s="2"/>
+      <c r="M782" s="2"/>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="2"/>
@@ -25545,6 +27119,8 @@
       <c r="I783" s="2"/>
       <c r="J783" s="2"/>
       <c r="K783" s="2"/>
+      <c r="L783" s="2"/>
+      <c r="M783" s="2"/>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="2"/>
@@ -25558,6 +27134,8 @@
       <c r="I784" s="2"/>
       <c r="J784" s="2"/>
       <c r="K784" s="2"/>
+      <c r="L784" s="2"/>
+      <c r="M784" s="2"/>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="2"/>
@@ -25571,6 +27149,8 @@
       <c r="I785" s="2"/>
       <c r="J785" s="2"/>
       <c r="K785" s="2"/>
+      <c r="L785" s="2"/>
+      <c r="M785" s="2"/>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="2"/>
@@ -25584,6 +27164,8 @@
       <c r="I786" s="2"/>
       <c r="J786" s="2"/>
       <c r="K786" s="2"/>
+      <c r="L786" s="2"/>
+      <c r="M786" s="2"/>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="2"/>
@@ -25597,6 +27179,8 @@
       <c r="I787" s="2"/>
       <c r="J787" s="2"/>
       <c r="K787" s="2"/>
+      <c r="L787" s="2"/>
+      <c r="M787" s="2"/>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="2"/>
@@ -25610,6 +27194,8 @@
       <c r="I788" s="2"/>
       <c r="J788" s="2"/>
       <c r="K788" s="2"/>
+      <c r="L788" s="2"/>
+      <c r="M788" s="2"/>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="2"/>
@@ -25623,6 +27209,8 @@
       <c r="I789" s="2"/>
       <c r="J789" s="2"/>
       <c r="K789" s="2"/>
+      <c r="L789" s="2"/>
+      <c r="M789" s="2"/>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="2"/>
@@ -25636,6 +27224,8 @@
       <c r="I790" s="2"/>
       <c r="J790" s="2"/>
       <c r="K790" s="2"/>
+      <c r="L790" s="2"/>
+      <c r="M790" s="2"/>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="2"/>
@@ -25649,6 +27239,8 @@
       <c r="I791" s="2"/>
       <c r="J791" s="2"/>
       <c r="K791" s="2"/>
+      <c r="L791" s="2"/>
+      <c r="M791" s="2"/>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="2"/>
@@ -25662,6 +27254,8 @@
       <c r="I792" s="2"/>
       <c r="J792" s="2"/>
       <c r="K792" s="2"/>
+      <c r="L792" s="2"/>
+      <c r="M792" s="2"/>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="2"/>
@@ -25675,6 +27269,8 @@
       <c r="I793" s="2"/>
       <c r="J793" s="2"/>
       <c r="K793" s="2"/>
+      <c r="L793" s="2"/>
+      <c r="M793" s="2"/>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="2"/>
@@ -25688,6 +27284,8 @@
       <c r="I794" s="2"/>
       <c r="J794" s="2"/>
       <c r="K794" s="2"/>
+      <c r="L794" s="2"/>
+      <c r="M794" s="2"/>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="2"/>
@@ -25701,6 +27299,8 @@
       <c r="I795" s="2"/>
       <c r="J795" s="2"/>
       <c r="K795" s="2"/>
+      <c r="L795" s="2"/>
+      <c r="M795" s="2"/>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="2"/>
@@ -25714,6 +27314,8 @@
       <c r="I796" s="2"/>
       <c r="J796" s="2"/>
       <c r="K796" s="2"/>
+      <c r="L796" s="2"/>
+      <c r="M796" s="2"/>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="2"/>
@@ -25727,6 +27329,8 @@
       <c r="I797" s="2"/>
       <c r="J797" s="2"/>
       <c r="K797" s="2"/>
+      <c r="L797" s="2"/>
+      <c r="M797" s="2"/>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="2"/>
@@ -25740,6 +27344,8 @@
       <c r="I798" s="2"/>
       <c r="J798" s="2"/>
       <c r="K798" s="2"/>
+      <c r="L798" s="2"/>
+      <c r="M798" s="2"/>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="2"/>
@@ -25753,6 +27359,8 @@
       <c r="I799" s="2"/>
       <c r="J799" s="2"/>
       <c r="K799" s="2"/>
+      <c r="L799" s="2"/>
+      <c r="M799" s="2"/>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="2"/>
@@ -25766,6 +27374,8 @@
       <c r="I800" s="2"/>
       <c r="J800" s="2"/>
       <c r="K800" s="2"/>
+      <c r="L800" s="2"/>
+      <c r="M800" s="2"/>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="2"/>
@@ -25779,6 +27389,8 @@
       <c r="I801" s="2"/>
       <c r="J801" s="2"/>
       <c r="K801" s="2"/>
+      <c r="L801" s="2"/>
+      <c r="M801" s="2"/>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="2"/>
@@ -25792,6 +27404,8 @@
       <c r="I802" s="2"/>
       <c r="J802" s="2"/>
       <c r="K802" s="2"/>
+      <c r="L802" s="2"/>
+      <c r="M802" s="2"/>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="2"/>
@@ -25805,6 +27419,8 @@
       <c r="I803" s="2"/>
       <c r="J803" s="2"/>
       <c r="K803" s="2"/>
+      <c r="L803" s="2"/>
+      <c r="M803" s="2"/>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="2"/>
@@ -25818,6 +27434,8 @@
       <c r="I804" s="2"/>
       <c r="J804" s="2"/>
       <c r="K804" s="2"/>
+      <c r="L804" s="2"/>
+      <c r="M804" s="2"/>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="2"/>
@@ -25831,6 +27449,8 @@
       <c r="I805" s="2"/>
       <c r="J805" s="2"/>
       <c r="K805" s="2"/>
+      <c r="L805" s="2"/>
+      <c r="M805" s="2"/>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="2"/>
@@ -25844,6 +27464,8 @@
       <c r="I806" s="2"/>
       <c r="J806" s="2"/>
       <c r="K806" s="2"/>
+      <c r="L806" s="2"/>
+      <c r="M806" s="2"/>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="2"/>
@@ -25857,6 +27479,8 @@
       <c r="I807" s="2"/>
       <c r="J807" s="2"/>
       <c r="K807" s="2"/>
+      <c r="L807" s="2"/>
+      <c r="M807" s="2"/>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="2"/>
@@ -25870,6 +27494,8 @@
       <c r="I808" s="2"/>
       <c r="J808" s="2"/>
       <c r="K808" s="2"/>
+      <c r="L808" s="2"/>
+      <c r="M808" s="2"/>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="2"/>
@@ -25883,6 +27509,8 @@
       <c r="I809" s="2"/>
       <c r="J809" s="2"/>
       <c r="K809" s="2"/>
+      <c r="L809" s="2"/>
+      <c r="M809" s="2"/>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="2"/>
@@ -25896,6 +27524,8 @@
       <c r="I810" s="2"/>
       <c r="J810" s="2"/>
       <c r="K810" s="2"/>
+      <c r="L810" s="2"/>
+      <c r="M810" s="2"/>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="2"/>
@@ -25909,6 +27539,8 @@
       <c r="I811" s="2"/>
       <c r="J811" s="2"/>
       <c r="K811" s="2"/>
+      <c r="L811" s="2"/>
+      <c r="M811" s="2"/>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="2"/>
@@ -25922,6 +27554,8 @@
       <c r="I812" s="2"/>
       <c r="J812" s="2"/>
       <c r="K812" s="2"/>
+      <c r="L812" s="2"/>
+      <c r="M812" s="2"/>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="2"/>
@@ -25935,6 +27569,8 @@
       <c r="I813" s="2"/>
       <c r="J813" s="2"/>
       <c r="K813" s="2"/>
+      <c r="L813" s="2"/>
+      <c r="M813" s="2"/>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="2"/>
@@ -25948,6 +27584,8 @@
       <c r="I814" s="2"/>
       <c r="J814" s="2"/>
       <c r="K814" s="2"/>
+      <c r="L814" s="2"/>
+      <c r="M814" s="2"/>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="2"/>
@@ -25961,6 +27599,8 @@
       <c r="I815" s="2"/>
       <c r="J815" s="2"/>
       <c r="K815" s="2"/>
+      <c r="L815" s="2"/>
+      <c r="M815" s="2"/>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="2"/>
@@ -25974,6 +27614,8 @@
       <c r="I816" s="2"/>
       <c r="J816" s="2"/>
       <c r="K816" s="2"/>
+      <c r="L816" s="2"/>
+      <c r="M816" s="2"/>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="2"/>
@@ -25987,6 +27629,8 @@
       <c r="I817" s="2"/>
       <c r="J817" s="2"/>
       <c r="K817" s="2"/>
+      <c r="L817" s="2"/>
+      <c r="M817" s="2"/>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="2"/>
@@ -26000,6 +27644,8 @@
       <c r="I818" s="2"/>
       <c r="J818" s="2"/>
       <c r="K818" s="2"/>
+      <c r="L818" s="2"/>
+      <c r="M818" s="2"/>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="2"/>
@@ -26013,6 +27659,8 @@
       <c r="I819" s="2"/>
       <c r="J819" s="2"/>
       <c r="K819" s="2"/>
+      <c r="L819" s="2"/>
+      <c r="M819" s="2"/>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="2"/>
@@ -26026,6 +27674,8 @@
       <c r="I820" s="2"/>
       <c r="J820" s="2"/>
       <c r="K820" s="2"/>
+      <c r="L820" s="2"/>
+      <c r="M820" s="2"/>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="2"/>
@@ -26039,6 +27689,8 @@
       <c r="I821" s="2"/>
       <c r="J821" s="2"/>
       <c r="K821" s="2"/>
+      <c r="L821" s="2"/>
+      <c r="M821" s="2"/>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="2"/>
@@ -26052,6 +27704,8 @@
       <c r="I822" s="2"/>
       <c r="J822" s="2"/>
       <c r="K822" s="2"/>
+      <c r="L822" s="2"/>
+      <c r="M822" s="2"/>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="2"/>
@@ -26065,6 +27719,8 @@
       <c r="I823" s="2"/>
       <c r="J823" s="2"/>
       <c r="K823" s="2"/>
+      <c r="L823" s="2"/>
+      <c r="M823" s="2"/>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="2"/>
@@ -26078,6 +27734,8 @@
       <c r="I824" s="2"/>
       <c r="J824" s="2"/>
       <c r="K824" s="2"/>
+      <c r="L824" s="2"/>
+      <c r="M824" s="2"/>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="2"/>
@@ -26091,6 +27749,8 @@
       <c r="I825" s="2"/>
       <c r="J825" s="2"/>
       <c r="K825" s="2"/>
+      <c r="L825" s="2"/>
+      <c r="M825" s="2"/>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="2"/>
@@ -26104,6 +27764,8 @@
       <c r="I826" s="2"/>
       <c r="J826" s="2"/>
       <c r="K826" s="2"/>
+      <c r="L826" s="2"/>
+      <c r="M826" s="2"/>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="2"/>
@@ -26117,6 +27779,8 @@
       <c r="I827" s="2"/>
       <c r="J827" s="2"/>
       <c r="K827" s="2"/>
+      <c r="L827" s="2"/>
+      <c r="M827" s="2"/>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="2"/>
@@ -26130,6 +27794,8 @@
       <c r="I828" s="2"/>
       <c r="J828" s="2"/>
       <c r="K828" s="2"/>
+      <c r="L828" s="2"/>
+      <c r="M828" s="2"/>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="2"/>
@@ -26143,6 +27809,8 @@
       <c r="I829" s="2"/>
       <c r="J829" s="2"/>
       <c r="K829" s="2"/>
+      <c r="L829" s="2"/>
+      <c r="M829" s="2"/>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="2"/>
@@ -26156,6 +27824,8 @@
       <c r="I830" s="2"/>
       <c r="J830" s="2"/>
       <c r="K830" s="2"/>
+      <c r="L830" s="2"/>
+      <c r="M830" s="2"/>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="2"/>
@@ -26169,6 +27839,8 @@
       <c r="I831" s="2"/>
       <c r="J831" s="2"/>
       <c r="K831" s="2"/>
+      <c r="L831" s="2"/>
+      <c r="M831" s="2"/>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="2"/>
@@ -26182,6 +27854,8 @@
       <c r="I832" s="2"/>
       <c r="J832" s="2"/>
       <c r="K832" s="2"/>
+      <c r="L832" s="2"/>
+      <c r="M832" s="2"/>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="2"/>
@@ -26195,6 +27869,8 @@
       <c r="I833" s="2"/>
       <c r="J833" s="2"/>
       <c r="K833" s="2"/>
+      <c r="L833" s="2"/>
+      <c r="M833" s="2"/>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="2"/>
@@ -26208,6 +27884,8 @@
       <c r="I834" s="2"/>
       <c r="J834" s="2"/>
       <c r="K834" s="2"/>
+      <c r="L834" s="2"/>
+      <c r="M834" s="2"/>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="2"/>
@@ -26221,6 +27899,8 @@
       <c r="I835" s="2"/>
       <c r="J835" s="2"/>
       <c r="K835" s="2"/>
+      <c r="L835" s="2"/>
+      <c r="M835" s="2"/>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="2"/>
@@ -26234,6 +27914,8 @@
       <c r="I836" s="2"/>
       <c r="J836" s="2"/>
       <c r="K836" s="2"/>
+      <c r="L836" s="2"/>
+      <c r="M836" s="2"/>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="2"/>
@@ -26247,6 +27929,8 @@
       <c r="I837" s="2"/>
       <c r="J837" s="2"/>
       <c r="K837" s="2"/>
+      <c r="L837" s="2"/>
+      <c r="M837" s="2"/>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="2"/>
@@ -26260,6 +27944,8 @@
       <c r="I838" s="2"/>
       <c r="J838" s="2"/>
       <c r="K838" s="2"/>
+      <c r="L838" s="2"/>
+      <c r="M838" s="2"/>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="2"/>
@@ -26273,6 +27959,8 @@
       <c r="I839" s="2"/>
       <c r="J839" s="2"/>
       <c r="K839" s="2"/>
+      <c r="L839" s="2"/>
+      <c r="M839" s="2"/>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="2"/>
@@ -26286,6 +27974,8 @@
       <c r="I840" s="2"/>
       <c r="J840" s="2"/>
       <c r="K840" s="2"/>
+      <c r="L840" s="2"/>
+      <c r="M840" s="2"/>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="2"/>
@@ -26299,6 +27989,8 @@
       <c r="I841" s="2"/>
       <c r="J841" s="2"/>
       <c r="K841" s="2"/>
+      <c r="L841" s="2"/>
+      <c r="M841" s="2"/>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="2"/>
@@ -26312,6 +28004,8 @@
       <c r="I842" s="2"/>
       <c r="J842" s="2"/>
       <c r="K842" s="2"/>
+      <c r="L842" s="2"/>
+      <c r="M842" s="2"/>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="2"/>
@@ -26325,6 +28019,8 @@
       <c r="I843" s="2"/>
       <c r="J843" s="2"/>
       <c r="K843" s="2"/>
+      <c r="L843" s="2"/>
+      <c r="M843" s="2"/>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="2"/>
@@ -26338,6 +28034,8 @@
       <c r="I844" s="2"/>
       <c r="J844" s="2"/>
       <c r="K844" s="2"/>
+      <c r="L844" s="2"/>
+      <c r="M844" s="2"/>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="2"/>
@@ -26351,6 +28049,8 @@
       <c r="I845" s="2"/>
       <c r="J845" s="2"/>
       <c r="K845" s="2"/>
+      <c r="L845" s="2"/>
+      <c r="M845" s="2"/>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="2"/>
@@ -26364,6 +28064,8 @@
       <c r="I846" s="2"/>
       <c r="J846" s="2"/>
       <c r="K846" s="2"/>
+      <c r="L846" s="2"/>
+      <c r="M846" s="2"/>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="2"/>
@@ -26377,6 +28079,8 @@
       <c r="I847" s="2"/>
       <c r="J847" s="2"/>
       <c r="K847" s="2"/>
+      <c r="L847" s="2"/>
+      <c r="M847" s="2"/>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="2"/>
@@ -26390,6 +28094,8 @@
       <c r="I848" s="2"/>
       <c r="J848" s="2"/>
       <c r="K848" s="2"/>
+      <c r="L848" s="2"/>
+      <c r="M848" s="2"/>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="2"/>
@@ -26403,6 +28109,8 @@
       <c r="I849" s="2"/>
       <c r="J849" s="2"/>
       <c r="K849" s="2"/>
+      <c r="L849" s="2"/>
+      <c r="M849" s="2"/>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="2"/>
@@ -26416,6 +28124,8 @@
       <c r="I850" s="2"/>
       <c r="J850" s="2"/>
       <c r="K850" s="2"/>
+      <c r="L850" s="2"/>
+      <c r="M850" s="2"/>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="2"/>
@@ -26429,6 +28139,8 @@
       <c r="I851" s="2"/>
       <c r="J851" s="2"/>
       <c r="K851" s="2"/>
+      <c r="L851" s="2"/>
+      <c r="M851" s="2"/>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="2"/>
@@ -26442,6 +28154,8 @@
       <c r="I852" s="2"/>
       <c r="J852" s="2"/>
       <c r="K852" s="2"/>
+      <c r="L852" s="2"/>
+      <c r="M852" s="2"/>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="2"/>
@@ -26455,6 +28169,8 @@
       <c r="I853" s="2"/>
       <c r="J853" s="2"/>
       <c r="K853" s="2"/>
+      <c r="L853" s="2"/>
+      <c r="M853" s="2"/>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="2"/>
@@ -26468,6 +28184,8 @@
       <c r="I854" s="2"/>
       <c r="J854" s="2"/>
       <c r="K854" s="2"/>
+      <c r="L854" s="2"/>
+      <c r="M854" s="2"/>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="2"/>
@@ -26481,6 +28199,8 @@
       <c r="I855" s="2"/>
       <c r="J855" s="2"/>
       <c r="K855" s="2"/>
+      <c r="L855" s="2"/>
+      <c r="M855" s="2"/>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="2"/>
@@ -26494,6 +28214,8 @@
       <c r="I856" s="2"/>
       <c r="J856" s="2"/>
       <c r="K856" s="2"/>
+      <c r="L856" s="2"/>
+      <c r="M856" s="2"/>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="2"/>
@@ -26507,6 +28229,8 @@
       <c r="I857" s="2"/>
       <c r="J857" s="2"/>
       <c r="K857" s="2"/>
+      <c r="L857" s="2"/>
+      <c r="M857" s="2"/>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="2"/>
@@ -26520,6 +28244,8 @@
       <c r="I858" s="2"/>
       <c r="J858" s="2"/>
       <c r="K858" s="2"/>
+      <c r="L858" s="2"/>
+      <c r="M858" s="2"/>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="2"/>
@@ -26533,6 +28259,8 @@
       <c r="I859" s="2"/>
       <c r="J859" s="2"/>
       <c r="K859" s="2"/>
+      <c r="L859" s="2"/>
+      <c r="M859" s="2"/>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="2"/>
@@ -26546,6 +28274,8 @@
       <c r="I860" s="2"/>
       <c r="J860" s="2"/>
       <c r="K860" s="2"/>
+      <c r="L860" s="2"/>
+      <c r="M860" s="2"/>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="2"/>
@@ -26559,6 +28289,8 @@
       <c r="I861" s="2"/>
       <c r="J861" s="2"/>
       <c r="K861" s="2"/>
+      <c r="L861" s="2"/>
+      <c r="M861" s="2"/>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="2"/>
@@ -26572,6 +28304,8 @@
       <c r="I862" s="2"/>
       <c r="J862" s="2"/>
       <c r="K862" s="2"/>
+      <c r="L862" s="2"/>
+      <c r="M862" s="2"/>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="2"/>
@@ -26585,6 +28319,8 @@
       <c r="I863" s="2"/>
       <c r="J863" s="2"/>
       <c r="K863" s="2"/>
+      <c r="L863" s="2"/>
+      <c r="M863" s="2"/>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="2"/>
@@ -26598,6 +28334,8 @@
       <c r="I864" s="2"/>
       <c r="J864" s="2"/>
       <c r="K864" s="2"/>
+      <c r="L864" s="2"/>
+      <c r="M864" s="2"/>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="2"/>
@@ -26611,6 +28349,8 @@
       <c r="I865" s="2"/>
       <c r="J865" s="2"/>
       <c r="K865" s="2"/>
+      <c r="L865" s="2"/>
+      <c r="M865" s="2"/>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="2"/>
@@ -26624,6 +28364,8 @@
       <c r="I866" s="2"/>
       <c r="J866" s="2"/>
       <c r="K866" s="2"/>
+      <c r="L866" s="2"/>
+      <c r="M866" s="2"/>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="2"/>
@@ -26637,6 +28379,8 @@
       <c r="I867" s="2"/>
       <c r="J867" s="2"/>
       <c r="K867" s="2"/>
+      <c r="L867" s="2"/>
+      <c r="M867" s="2"/>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="2"/>
@@ -26650,6 +28394,8 @@
       <c r="I868" s="2"/>
       <c r="J868" s="2"/>
       <c r="K868" s="2"/>
+      <c r="L868" s="2"/>
+      <c r="M868" s="2"/>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="2"/>
@@ -26663,6 +28409,8 @@
       <c r="I869" s="2"/>
       <c r="J869" s="2"/>
       <c r="K869" s="2"/>
+      <c r="L869" s="2"/>
+      <c r="M869" s="2"/>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="2"/>
@@ -26676,6 +28424,8 @@
       <c r="I870" s="2"/>
       <c r="J870" s="2"/>
       <c r="K870" s="2"/>
+      <c r="L870" s="2"/>
+      <c r="M870" s="2"/>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="2"/>
@@ -26689,6 +28439,8 @@
       <c r="I871" s="2"/>
       <c r="J871" s="2"/>
       <c r="K871" s="2"/>
+      <c r="L871" s="2"/>
+      <c r="M871" s="2"/>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="2"/>
@@ -26702,6 +28454,8 @@
       <c r="I872" s="2"/>
       <c r="J872" s="2"/>
       <c r="K872" s="2"/>
+      <c r="L872" s="2"/>
+      <c r="M872" s="2"/>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="2"/>
@@ -26715,6 +28469,8 @@
       <c r="I873" s="2"/>
       <c r="J873" s="2"/>
       <c r="K873" s="2"/>
+      <c r="L873" s="2"/>
+      <c r="M873" s="2"/>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="2"/>
@@ -26728,6 +28484,8 @@
       <c r="I874" s="2"/>
       <c r="J874" s="2"/>
       <c r="K874" s="2"/>
+      <c r="L874" s="2"/>
+      <c r="M874" s="2"/>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="2"/>
@@ -26741,6 +28499,8 @@
       <c r="I875" s="2"/>
       <c r="J875" s="2"/>
       <c r="K875" s="2"/>
+      <c r="L875" s="2"/>
+      <c r="M875" s="2"/>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="2"/>
@@ -26754,6 +28514,8 @@
       <c r="I876" s="2"/>
       <c r="J876" s="2"/>
       <c r="K876" s="2"/>
+      <c r="L876" s="2"/>
+      <c r="M876" s="2"/>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="2"/>
@@ -26767,6 +28529,8 @@
       <c r="I877" s="2"/>
       <c r="J877" s="2"/>
       <c r="K877" s="2"/>
+      <c r="L877" s="2"/>
+      <c r="M877" s="2"/>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="2"/>
@@ -26780,6 +28544,8 @@
       <c r="I878" s="2"/>
       <c r="J878" s="2"/>
       <c r="K878" s="2"/>
+      <c r="L878" s="2"/>
+      <c r="M878" s="2"/>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="2"/>
@@ -26793,6 +28559,8 @@
       <c r="I879" s="2"/>
       <c r="J879" s="2"/>
       <c r="K879" s="2"/>
+      <c r="L879" s="2"/>
+      <c r="M879" s="2"/>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="2"/>
@@ -26806,6 +28574,8 @@
       <c r="I880" s="2"/>
       <c r="J880" s="2"/>
       <c r="K880" s="2"/>
+      <c r="L880" s="2"/>
+      <c r="M880" s="2"/>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="2"/>
@@ -26819,6 +28589,8 @@
       <c r="I881" s="2"/>
       <c r="J881" s="2"/>
       <c r="K881" s="2"/>
+      <c r="L881" s="2"/>
+      <c r="M881" s="2"/>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="2"/>
@@ -26832,6 +28604,8 @@
       <c r="I882" s="2"/>
       <c r="J882" s="2"/>
       <c r="K882" s="2"/>
+      <c r="L882" s="2"/>
+      <c r="M882" s="2"/>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="2"/>
@@ -26845,6 +28619,8 @@
       <c r="I883" s="2"/>
       <c r="J883" s="2"/>
       <c r="K883" s="2"/>
+      <c r="L883" s="2"/>
+      <c r="M883" s="2"/>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="2"/>
@@ -26858,6 +28634,8 @@
       <c r="I884" s="2"/>
       <c r="J884" s="2"/>
       <c r="K884" s="2"/>
+      <c r="L884" s="2"/>
+      <c r="M884" s="2"/>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="2"/>
@@ -26871,6 +28649,8 @@
       <c r="I885" s="2"/>
       <c r="J885" s="2"/>
       <c r="K885" s="2"/>
+      <c r="L885" s="2"/>
+      <c r="M885" s="2"/>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="2"/>
@@ -26884,6 +28664,8 @@
       <c r="I886" s="2"/>
       <c r="J886" s="2"/>
       <c r="K886" s="2"/>
+      <c r="L886" s="2"/>
+      <c r="M886" s="2"/>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="2"/>
@@ -26897,6 +28679,8 @@
       <c r="I887" s="2"/>
       <c r="J887" s="2"/>
       <c r="K887" s="2"/>
+      <c r="L887" s="2"/>
+      <c r="M887" s="2"/>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="2"/>
@@ -26910,6 +28694,8 @@
       <c r="I888" s="2"/>
       <c r="J888" s="2"/>
       <c r="K888" s="2"/>
+      <c r="L888" s="2"/>
+      <c r="M888" s="2"/>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="2"/>
@@ -26923,6 +28709,8 @@
       <c r="I889" s="2"/>
       <c r="J889" s="2"/>
       <c r="K889" s="2"/>
+      <c r="L889" s="2"/>
+      <c r="M889" s="2"/>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="2"/>
@@ -26936,6 +28724,8 @@
       <c r="I890" s="2"/>
       <c r="J890" s="2"/>
       <c r="K890" s="2"/>
+      <c r="L890" s="2"/>
+      <c r="M890" s="2"/>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="2"/>
@@ -26949,6 +28739,8 @@
       <c r="I891" s="2"/>
       <c r="J891" s="2"/>
       <c r="K891" s="2"/>
+      <c r="L891" s="2"/>
+      <c r="M891" s="2"/>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="2"/>
@@ -26962,6 +28754,8 @@
       <c r="I892" s="2"/>
       <c r="J892" s="2"/>
       <c r="K892" s="2"/>
+      <c r="L892" s="2"/>
+      <c r="M892" s="2"/>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="2"/>
@@ -26975,6 +28769,8 @@
       <c r="I893" s="2"/>
       <c r="J893" s="2"/>
       <c r="K893" s="2"/>
+      <c r="L893" s="2"/>
+      <c r="M893" s="2"/>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="2"/>
@@ -26988,6 +28784,8 @@
       <c r="I894" s="2"/>
       <c r="J894" s="2"/>
       <c r="K894" s="2"/>
+      <c r="L894" s="2"/>
+      <c r="M894" s="2"/>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="2"/>
@@ -27001,6 +28799,8 @@
       <c r="I895" s="2"/>
       <c r="J895" s="2"/>
       <c r="K895" s="2"/>
+      <c r="L895" s="2"/>
+      <c r="M895" s="2"/>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="2"/>
@@ -27014,6 +28814,8 @@
       <c r="I896" s="2"/>
       <c r="J896" s="2"/>
       <c r="K896" s="2"/>
+      <c r="L896" s="2"/>
+      <c r="M896" s="2"/>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="2"/>
@@ -27027,6 +28829,8 @@
       <c r="I897" s="2"/>
       <c r="J897" s="2"/>
       <c r="K897" s="2"/>
+      <c r="L897" s="2"/>
+      <c r="M897" s="2"/>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="2"/>
@@ -27040,6 +28844,8 @@
       <c r="I898" s="2"/>
       <c r="J898" s="2"/>
       <c r="K898" s="2"/>
+      <c r="L898" s="2"/>
+      <c r="M898" s="2"/>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="2"/>
@@ -27053,6 +28859,8 @@
       <c r="I899" s="2"/>
       <c r="J899" s="2"/>
       <c r="K899" s="2"/>
+      <c r="L899" s="2"/>
+      <c r="M899" s="2"/>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="2"/>
@@ -27066,6 +28874,8 @@
       <c r="I900" s="2"/>
       <c r="J900" s="2"/>
       <c r="K900" s="2"/>
+      <c r="L900" s="2"/>
+      <c r="M900" s="2"/>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="2"/>
@@ -27079,6 +28889,8 @@
       <c r="I901" s="2"/>
       <c r="J901" s="2"/>
       <c r="K901" s="2"/>
+      <c r="L901" s="2"/>
+      <c r="M901" s="2"/>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="2"/>
@@ -27092,6 +28904,8 @@
       <c r="I902" s="2"/>
       <c r="J902" s="2"/>
       <c r="K902" s="2"/>
+      <c r="L902" s="2"/>
+      <c r="M902" s="2"/>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="2"/>
@@ -27105,6 +28919,8 @@
       <c r="I903" s="2"/>
       <c r="J903" s="2"/>
       <c r="K903" s="2"/>
+      <c r="L903" s="2"/>
+      <c r="M903" s="2"/>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="2"/>
@@ -27118,6 +28934,8 @@
       <c r="I904" s="2"/>
       <c r="J904" s="2"/>
       <c r="K904" s="2"/>
+      <c r="L904" s="2"/>
+      <c r="M904" s="2"/>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="2"/>
@@ -27131,6 +28949,8 @@
       <c r="I905" s="2"/>
       <c r="J905" s="2"/>
       <c r="K905" s="2"/>
+      <c r="L905" s="2"/>
+      <c r="M905" s="2"/>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="2"/>
@@ -27144,6 +28964,8 @@
       <c r="I906" s="2"/>
       <c r="J906" s="2"/>
       <c r="K906" s="2"/>
+      <c r="L906" s="2"/>
+      <c r="M906" s="2"/>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="2"/>
@@ -27157,6 +28979,8 @@
       <c r="I907" s="2"/>
       <c r="J907" s="2"/>
       <c r="K907" s="2"/>
+      <c r="L907" s="2"/>
+      <c r="M907" s="2"/>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="2"/>
@@ -27170,6 +28994,8 @@
       <c r="I908" s="2"/>
       <c r="J908" s="2"/>
       <c r="K908" s="2"/>
+      <c r="L908" s="2"/>
+      <c r="M908" s="2"/>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="2"/>
@@ -27183,6 +29009,8 @@
       <c r="I909" s="2"/>
       <c r="J909" s="2"/>
       <c r="K909" s="2"/>
+      <c r="L909" s="2"/>
+      <c r="M909" s="2"/>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="2"/>
@@ -27196,6 +29024,8 @@
       <c r="I910" s="2"/>
       <c r="J910" s="2"/>
       <c r="K910" s="2"/>
+      <c r="L910" s="2"/>
+      <c r="M910" s="2"/>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="2"/>
@@ -27209,6 +29039,8 @@
       <c r="I911" s="2"/>
       <c r="J911" s="2"/>
       <c r="K911" s="2"/>
+      <c r="L911" s="2"/>
+      <c r="M911" s="2"/>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="2"/>
@@ -27222,6 +29054,8 @@
       <c r="I912" s="2"/>
       <c r="J912" s="2"/>
       <c r="K912" s="2"/>
+      <c r="L912" s="2"/>
+      <c r="M912" s="2"/>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="2"/>
@@ -27235,6 +29069,8 @@
       <c r="I913" s="2"/>
       <c r="J913" s="2"/>
       <c r="K913" s="2"/>
+      <c r="L913" s="2"/>
+      <c r="M913" s="2"/>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="2"/>
@@ -27248,6 +29084,8 @@
       <c r="I914" s="2"/>
       <c r="J914" s="2"/>
       <c r="K914" s="2"/>
+      <c r="L914" s="2"/>
+      <c r="M914" s="2"/>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="2"/>
@@ -27261,6 +29099,8 @@
       <c r="I915" s="2"/>
       <c r="J915" s="2"/>
       <c r="K915" s="2"/>
+      <c r="L915" s="2"/>
+      <c r="M915" s="2"/>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="2"/>
@@ -27274,6 +29114,8 @@
       <c r="I916" s="2"/>
       <c r="J916" s="2"/>
       <c r="K916" s="2"/>
+      <c r="L916" s="2"/>
+      <c r="M916" s="2"/>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="2"/>
@@ -27287,6 +29129,8 @@
       <c r="I917" s="2"/>
       <c r="J917" s="2"/>
       <c r="K917" s="2"/>
+      <c r="L917" s="2"/>
+      <c r="M917" s="2"/>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="2"/>
@@ -27300,6 +29144,8 @@
       <c r="I918" s="2"/>
       <c r="J918" s="2"/>
       <c r="K918" s="2"/>
+      <c r="L918" s="2"/>
+      <c r="M918" s="2"/>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="2"/>
@@ -27313,6 +29159,8 @@
       <c r="I919" s="2"/>
       <c r="J919" s="2"/>
       <c r="K919" s="2"/>
+      <c r="L919" s="2"/>
+      <c r="M919" s="2"/>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="2"/>
@@ -27326,6 +29174,8 @@
       <c r="I920" s="2"/>
       <c r="J920" s="2"/>
       <c r="K920" s="2"/>
+      <c r="L920" s="2"/>
+      <c r="M920" s="2"/>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="2"/>
@@ -27339,6 +29189,8 @@
       <c r="I921" s="2"/>
       <c r="J921" s="2"/>
       <c r="K921" s="2"/>
+      <c r="L921" s="2"/>
+      <c r="M921" s="2"/>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="2"/>
@@ -27352,6 +29204,8 @@
       <c r="I922" s="2"/>
       <c r="J922" s="2"/>
       <c r="K922" s="2"/>
+      <c r="L922" s="2"/>
+      <c r="M922" s="2"/>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="2"/>
@@ -27365,6 +29219,8 @@
       <c r="I923" s="2"/>
       <c r="J923" s="2"/>
       <c r="K923" s="2"/>
+      <c r="L923" s="2"/>
+      <c r="M923" s="2"/>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="2"/>
@@ -27378,6 +29234,8 @@
       <c r="I924" s="2"/>
       <c r="J924" s="2"/>
       <c r="K924" s="2"/>
+      <c r="L924" s="2"/>
+      <c r="M924" s="2"/>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="2"/>
@@ -27391,6 +29249,8 @@
       <c r="I925" s="2"/>
       <c r="J925" s="2"/>
       <c r="K925" s="2"/>
+      <c r="L925" s="2"/>
+      <c r="M925" s="2"/>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="2"/>
@@ -27404,6 +29264,8 @@
       <c r="I926" s="2"/>
       <c r="J926" s="2"/>
       <c r="K926" s="2"/>
+      <c r="L926" s="2"/>
+      <c r="M926" s="2"/>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="2"/>
@@ -27417,6 +29279,8 @@
       <c r="I927" s="2"/>
       <c r="J927" s="2"/>
       <c r="K927" s="2"/>
+      <c r="L927" s="2"/>
+      <c r="M927" s="2"/>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="2"/>
@@ -27430,6 +29294,8 @@
       <c r="I928" s="2"/>
       <c r="J928" s="2"/>
       <c r="K928" s="2"/>
+      <c r="L928" s="2"/>
+      <c r="M928" s="2"/>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="2"/>
@@ -27443,6 +29309,8 @@
       <c r="I929" s="2"/>
       <c r="J929" s="2"/>
       <c r="K929" s="2"/>
+      <c r="L929" s="2"/>
+      <c r="M929" s="2"/>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="2"/>
@@ -27456,6 +29324,8 @@
       <c r="I930" s="2"/>
       <c r="J930" s="2"/>
       <c r="K930" s="2"/>
+      <c r="L930" s="2"/>
+      <c r="M930" s="2"/>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="2"/>
@@ -27469,6 +29339,8 @@
       <c r="I931" s="2"/>
       <c r="J931" s="2"/>
       <c r="K931" s="2"/>
+      <c r="L931" s="2"/>
+      <c r="M931" s="2"/>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="2"/>
@@ -27482,6 +29354,8 @@
       <c r="I932" s="2"/>
       <c r="J932" s="2"/>
       <c r="K932" s="2"/>
+      <c r="L932" s="2"/>
+      <c r="M932" s="2"/>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="2"/>
@@ -27495,6 +29369,8 @@
       <c r="I933" s="2"/>
       <c r="J933" s="2"/>
       <c r="K933" s="2"/>
+      <c r="L933" s="2"/>
+      <c r="M933" s="2"/>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="2"/>
@@ -27508,6 +29384,8 @@
       <c r="I934" s="2"/>
       <c r="J934" s="2"/>
       <c r="K934" s="2"/>
+      <c r="L934" s="2"/>
+      <c r="M934" s="2"/>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="2"/>
@@ -27521,6 +29399,8 @@
       <c r="I935" s="2"/>
       <c r="J935" s="2"/>
       <c r="K935" s="2"/>
+      <c r="L935" s="2"/>
+      <c r="M935" s="2"/>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="2"/>
@@ -27534,6 +29414,8 @@
       <c r="I936" s="2"/>
       <c r="J936" s="2"/>
       <c r="K936" s="2"/>
+      <c r="L936" s="2"/>
+      <c r="M936" s="2"/>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="2"/>
@@ -27547,6 +29429,8 @@
       <c r="I937" s="2"/>
       <c r="J937" s="2"/>
       <c r="K937" s="2"/>
+      <c r="L937" s="2"/>
+      <c r="M937" s="2"/>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="2"/>
@@ -27560,6 +29444,8 @@
       <c r="I938" s="2"/>
       <c r="J938" s="2"/>
       <c r="K938" s="2"/>
+      <c r="L938" s="2"/>
+      <c r="M938" s="2"/>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="2"/>
@@ -27573,6 +29459,8 @@
       <c r="I939" s="2"/>
       <c r="J939" s="2"/>
       <c r="K939" s="2"/>
+      <c r="L939" s="2"/>
+      <c r="M939" s="2"/>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="2"/>
@@ -27586,6 +29474,8 @@
       <c r="I940" s="2"/>
       <c r="J940" s="2"/>
       <c r="K940" s="2"/>
+      <c r="L940" s="2"/>
+      <c r="M940" s="2"/>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="2"/>
@@ -27599,6 +29489,8 @@
       <c r="I941" s="2"/>
       <c r="J941" s="2"/>
       <c r="K941" s="2"/>
+      <c r="L941" s="2"/>
+      <c r="M941" s="2"/>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="2"/>
@@ -27612,6 +29504,8 @@
       <c r="I942" s="2"/>
       <c r="J942" s="2"/>
       <c r="K942" s="2"/>
+      <c r="L942" s="2"/>
+      <c r="M942" s="2"/>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="2"/>
@@ -27625,6 +29519,8 @@
       <c r="I943" s="2"/>
       <c r="J943" s="2"/>
       <c r="K943" s="2"/>
+      <c r="L943" s="2"/>
+      <c r="M943" s="2"/>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="2"/>
@@ -27638,6 +29534,8 @@
       <c r="I944" s="2"/>
       <c r="J944" s="2"/>
       <c r="K944" s="2"/>
+      <c r="L944" s="2"/>
+      <c r="M944" s="2"/>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="2"/>
@@ -27651,6 +29549,8 @@
       <c r="I945" s="2"/>
       <c r="J945" s="2"/>
       <c r="K945" s="2"/>
+      <c r="L945" s="2"/>
+      <c r="M945" s="2"/>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="2"/>
@@ -27664,6 +29564,8 @@
       <c r="I946" s="2"/>
       <c r="J946" s="2"/>
       <c r="K946" s="2"/>
+      <c r="L946" s="2"/>
+      <c r="M946" s="2"/>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="2"/>
@@ -27677,6 +29579,8 @@
       <c r="I947" s="2"/>
       <c r="J947" s="2"/>
       <c r="K947" s="2"/>
+      <c r="L947" s="2"/>
+      <c r="M947" s="2"/>
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="2"/>
@@ -27690,6 +29594,8 @@
       <c r="I948" s="2"/>
       <c r="J948" s="2"/>
       <c r="K948" s="2"/>
+      <c r="L948" s="2"/>
+      <c r="M948" s="2"/>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="2"/>
@@ -27703,6 +29609,8 @@
       <c r="I949" s="2"/>
       <c r="J949" s="2"/>
       <c r="K949" s="2"/>
+      <c r="L949" s="2"/>
+      <c r="M949" s="2"/>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="2"/>
@@ -27716,6 +29624,8 @@
       <c r="I950" s="2"/>
       <c r="J950" s="2"/>
       <c r="K950" s="2"/>
+      <c r="L950" s="2"/>
+      <c r="M950" s="2"/>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="2"/>
@@ -27729,6 +29639,8 @@
       <c r="I951" s="2"/>
       <c r="J951" s="2"/>
       <c r="K951" s="2"/>
+      <c r="L951" s="2"/>
+      <c r="M951" s="2"/>
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="2"/>
@@ -27742,6 +29654,8 @@
       <c r="I952" s="2"/>
       <c r="J952" s="2"/>
       <c r="K952" s="2"/>
+      <c r="L952" s="2"/>
+      <c r="M952" s="2"/>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="2"/>
@@ -27755,6 +29669,8 @@
       <c r="I953" s="2"/>
       <c r="J953" s="2"/>
       <c r="K953" s="2"/>
+      <c r="L953" s="2"/>
+      <c r="M953" s="2"/>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="2"/>
@@ -27768,6 +29684,8 @@
       <c r="I954" s="2"/>
       <c r="J954" s="2"/>
       <c r="K954" s="2"/>
+      <c r="L954" s="2"/>
+      <c r="M954" s="2"/>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="2"/>
@@ -27781,6 +29699,8 @@
       <c r="I955" s="2"/>
       <c r="J955" s="2"/>
       <c r="K955" s="2"/>
+      <c r="L955" s="2"/>
+      <c r="M955" s="2"/>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="2"/>
@@ -27794,6 +29714,8 @@
       <c r="I956" s="2"/>
       <c r="J956" s="2"/>
       <c r="K956" s="2"/>
+      <c r="L956" s="2"/>
+      <c r="M956" s="2"/>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="2"/>
@@ -27807,6 +29729,8 @@
       <c r="I957" s="2"/>
       <c r="J957" s="2"/>
       <c r="K957" s="2"/>
+      <c r="L957" s="2"/>
+      <c r="M957" s="2"/>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="2"/>
@@ -27820,6 +29744,8 @@
       <c r="I958" s="2"/>
       <c r="J958" s="2"/>
       <c r="K958" s="2"/>
+      <c r="L958" s="2"/>
+      <c r="M958" s="2"/>
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="2"/>
@@ -27833,6 +29759,8 @@
       <c r="I959" s="2"/>
       <c r="J959" s="2"/>
       <c r="K959" s="2"/>
+      <c r="L959" s="2"/>
+      <c r="M959" s="2"/>
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="2"/>
@@ -27846,6 +29774,8 @@
       <c r="I960" s="2"/>
       <c r="J960" s="2"/>
       <c r="K960" s="2"/>
+      <c r="L960" s="2"/>
+      <c r="M960" s="2"/>
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="2"/>
@@ -27859,6 +29789,8 @@
       <c r="I961" s="2"/>
       <c r="J961" s="2"/>
       <c r="K961" s="2"/>
+      <c r="L961" s="2"/>
+      <c r="M961" s="2"/>
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="2"/>
@@ -27872,6 +29804,8 @@
       <c r="I962" s="2"/>
       <c r="J962" s="2"/>
       <c r="K962" s="2"/>
+      <c r="L962" s="2"/>
+      <c r="M962" s="2"/>
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="2"/>
@@ -27885,6 +29819,8 @@
       <c r="I963" s="2"/>
       <c r="J963" s="2"/>
       <c r="K963" s="2"/>
+      <c r="L963" s="2"/>
+      <c r="M963" s="2"/>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="2"/>
@@ -27898,6 +29834,8 @@
       <c r="I964" s="2"/>
       <c r="J964" s="2"/>
       <c r="K964" s="2"/>
+      <c r="L964" s="2"/>
+      <c r="M964" s="2"/>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="2"/>
@@ -27911,6 +29849,8 @@
       <c r="I965" s="2"/>
       <c r="J965" s="2"/>
       <c r="K965" s="2"/>
+      <c r="L965" s="2"/>
+      <c r="M965" s="2"/>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="2"/>
@@ -27924,6 +29864,8 @@
       <c r="I966" s="2"/>
       <c r="J966" s="2"/>
       <c r="K966" s="2"/>
+      <c r="L966" s="2"/>
+      <c r="M966" s="2"/>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="2"/>
@@ -27937,6 +29879,8 @@
       <c r="I967" s="2"/>
       <c r="J967" s="2"/>
       <c r="K967" s="2"/>
+      <c r="L967" s="2"/>
+      <c r="M967" s="2"/>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="2"/>
@@ -27950,6 +29894,8 @@
       <c r="I968" s="2"/>
       <c r="J968" s="2"/>
       <c r="K968" s="2"/>
+      <c r="L968" s="2"/>
+      <c r="M968" s="2"/>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="2"/>
@@ -27963,6 +29909,8 @@
       <c r="I969" s="2"/>
       <c r="J969" s="2"/>
       <c r="K969" s="2"/>
+      <c r="L969" s="2"/>
+      <c r="M969" s="2"/>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="2"/>
@@ -27976,6 +29924,8 @@
       <c r="I970" s="2"/>
       <c r="J970" s="2"/>
       <c r="K970" s="2"/>
+      <c r="L970" s="2"/>
+      <c r="M970" s="2"/>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="2"/>
@@ -27989,6 +29939,8 @@
       <c r="I971" s="2"/>
       <c r="J971" s="2"/>
       <c r="K971" s="2"/>
+      <c r="L971" s="2"/>
+      <c r="M971" s="2"/>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="2"/>
@@ -28002,6 +29954,8 @@
       <c r="I972" s="2"/>
       <c r="J972" s="2"/>
       <c r="K972" s="2"/>
+      <c r="L972" s="2"/>
+      <c r="M972" s="2"/>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="2"/>
@@ -28015,6 +29969,8 @@
       <c r="I973" s="2"/>
       <c r="J973" s="2"/>
       <c r="K973" s="2"/>
+      <c r="L973" s="2"/>
+      <c r="M973" s="2"/>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="2"/>
@@ -28028,6 +29984,8 @@
       <c r="I974" s="2"/>
       <c r="J974" s="2"/>
       <c r="K974" s="2"/>
+      <c r="L974" s="2"/>
+      <c r="M974" s="2"/>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="2"/>
@@ -28041,6 +29999,8 @@
       <c r="I975" s="2"/>
       <c r="J975" s="2"/>
       <c r="K975" s="2"/>
+      <c r="L975" s="2"/>
+      <c r="M975" s="2"/>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="2"/>
@@ -28054,6 +30014,8 @@
       <c r="I976" s="2"/>
       <c r="J976" s="2"/>
       <c r="K976" s="2"/>
+      <c r="L976" s="2"/>
+      <c r="M976" s="2"/>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="2"/>
@@ -28067,6 +30029,8 @@
       <c r="I977" s="2"/>
       <c r="J977" s="2"/>
       <c r="K977" s="2"/>
+      <c r="L977" s="2"/>
+      <c r="M977" s="2"/>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="2"/>
@@ -28080,6 +30044,8 @@
       <c r="I978" s="2"/>
       <c r="J978" s="2"/>
       <c r="K978" s="2"/>
+      <c r="L978" s="2"/>
+      <c r="M978" s="2"/>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="2"/>
@@ -28093,6 +30059,8 @@
       <c r="I979" s="2"/>
       <c r="J979" s="2"/>
       <c r="K979" s="2"/>
+      <c r="L979" s="2"/>
+      <c r="M979" s="2"/>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="2"/>
@@ -28106,6 +30074,8 @@
       <c r="I980" s="2"/>
       <c r="J980" s="2"/>
       <c r="K980" s="2"/>
+      <c r="L980" s="2"/>
+      <c r="M980" s="2"/>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="2"/>
@@ -28119,6 +30089,8 @@
       <c r="I981" s="2"/>
       <c r="J981" s="2"/>
       <c r="K981" s="2"/>
+      <c r="L981" s="2"/>
+      <c r="M981" s="2"/>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="2"/>
@@ -28132,6 +30104,8 @@
       <c r="I982" s="2"/>
       <c r="J982" s="2"/>
       <c r="K982" s="2"/>
+      <c r="L982" s="2"/>
+      <c r="M982" s="2"/>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="2"/>
@@ -28145,6 +30119,8 @@
       <c r="I983" s="2"/>
       <c r="J983" s="2"/>
       <c r="K983" s="2"/>
+      <c r="L983" s="2"/>
+      <c r="M983" s="2"/>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="2"/>
@@ -28158,6 +30134,8 @@
       <c r="I984" s="2"/>
       <c r="J984" s="2"/>
       <c r="K984" s="2"/>
+      <c r="L984" s="2"/>
+      <c r="M984" s="2"/>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="2"/>
@@ -28171,6 +30149,8 @@
       <c r="I985" s="2"/>
       <c r="J985" s="2"/>
       <c r="K985" s="2"/>
+      <c r="L985" s="2"/>
+      <c r="M985" s="2"/>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="2"/>
@@ -28184,6 +30164,8 @@
       <c r="I986" s="2"/>
       <c r="J986" s="2"/>
       <c r="K986" s="2"/>
+      <c r="L986" s="2"/>
+      <c r="M986" s="2"/>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="2"/>
@@ -28197,6 +30179,8 @@
       <c r="I987" s="2"/>
       <c r="J987" s="2"/>
       <c r="K987" s="2"/>
+      <c r="L987" s="2"/>
+      <c r="M987" s="2"/>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="2"/>
@@ -28210,6 +30194,8 @@
       <c r="I988" s="2"/>
       <c r="J988" s="2"/>
       <c r="K988" s="2"/>
+      <c r="L988" s="2"/>
+      <c r="M988" s="2"/>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="2"/>
@@ -28223,6 +30209,8 @@
       <c r="I989" s="2"/>
       <c r="J989" s="2"/>
       <c r="K989" s="2"/>
+      <c r="L989" s="2"/>
+      <c r="M989" s="2"/>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="2"/>
@@ -28236,6 +30224,8 @@
       <c r="I990" s="2"/>
       <c r="J990" s="2"/>
       <c r="K990" s="2"/>
+      <c r="L990" s="2"/>
+      <c r="M990" s="2"/>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="2"/>
@@ -28249,6 +30239,8 @@
       <c r="I991" s="2"/>
       <c r="J991" s="2"/>
       <c r="K991" s="2"/>
+      <c r="L991" s="2"/>
+      <c r="M991" s="2"/>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="2"/>
@@ -28262,6 +30254,8 @@
       <c r="I992" s="2"/>
       <c r="J992" s="2"/>
       <c r="K992" s="2"/>
+      <c r="L992" s="2"/>
+      <c r="M992" s="2"/>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="2"/>
@@ -28275,6 +30269,8 @@
       <c r="I993" s="2"/>
       <c r="J993" s="2"/>
       <c r="K993" s="2"/>
+      <c r="L993" s="2"/>
+      <c r="M993" s="2"/>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="2"/>
@@ -28288,6 +30284,8 @@
       <c r="I994" s="2"/>
       <c r="J994" s="2"/>
       <c r="K994" s="2"/>
+      <c r="L994" s="2"/>
+      <c r="M994" s="2"/>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="2"/>
@@ -28301,6 +30299,8 @@
       <c r="I995" s="2"/>
       <c r="J995" s="2"/>
       <c r="K995" s="2"/>
+      <c r="L995" s="2"/>
+      <c r="M995" s="2"/>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="2"/>
@@ -28314,6 +30314,8 @@
       <c r="I996" s="2"/>
       <c r="J996" s="2"/>
       <c r="K996" s="2"/>
+      <c r="L996" s="2"/>
+      <c r="M996" s="2"/>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="2"/>
@@ -28327,6 +30329,8 @@
       <c r="I997" s="2"/>
       <c r="J997" s="2"/>
       <c r="K997" s="2"/>
+      <c r="L997" s="2"/>
+      <c r="M997" s="2"/>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="2"/>
@@ -28340,6 +30344,8 @@
       <c r="I998" s="2"/>
       <c r="J998" s="2"/>
       <c r="K998" s="2"/>
+      <c r="L998" s="2"/>
+      <c r="M998" s="2"/>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="2"/>
@@ -28353,6 +30359,8 @@
       <c r="I999" s="2"/>
       <c r="J999" s="2"/>
       <c r="K999" s="2"/>
+      <c r="L999" s="2"/>
+      <c r="M999" s="2"/>
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="2"/>
@@ -28366,8 +30374,23 @@
       <c r="I1000" s="2"/>
       <c r="J1000" s="2"/>
       <c r="K1000" s="2"/>
+      <c r="L1000" s="2"/>
+      <c r="M1000" s="2"/>
+    </row>
+    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1001" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F1001" type="list">
+      <formula1>"Individual,Type,Event,Event Type,Aspect,Aspect Type,Object,Object Type,Relator,Relation"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2:J1000" type="list">
+      <formula1>"Proposed term,Published term,Cancelled term"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -28385,11 +30408,11 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="75.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="75.13"/>
@@ -28398,37 +30421,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="6"/>
     </row>
